--- a/BusinessManagement/FinancialPlanning.xlsx
+++ b/BusinessManagement/FinancialPlanning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessPlanning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -557,7 +557,7 @@
     <t>Partner Pay</t>
   </si>
   <si>
-    <t>Payout Per Course</t>
+    <t>Payout Per Course (₹)</t>
   </si>
 </sst>
 </file>
@@ -2261,6 +2261,7 @@
     <xf numFmtId="3" fontId="1" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2272,6 +2273,183 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2293,9 +2471,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,12 +2498,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2338,174 +2507,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2581,7 +2582,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,121 +2709,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1,013</c:v>
+                    <c:v>2,026</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>2,620</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>210</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5,031</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2,212</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2,911</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2,445</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2,183</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,892</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>1,310</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>105</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2,515</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1,106</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
+                    <c:v>2,329</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3,639</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4,366</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6,404</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1,455</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1,223</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1,092</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>946</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>655</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1,164</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1,819</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2,183</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3,202</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>728</c:v>
-                  </c:pt>
                   <c:pt idx="15">
-                    <c:v>3,842</c:v>
+                    <c:v>7,685</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>9,082</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>8,034</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6,637</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5,239</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>4,541</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>4,017</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3,318</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="23">
+                    <c:v>6,520</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7,859</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>13,099</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>2,620</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2,270</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>3,260</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>3,930</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>6,549</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1,310</c:v>
-                  </c:pt>
                   <c:pt idx="27">
-                    <c:v>5,676</c:v>
+                    <c:v>11,352</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>6,467</c:v>
+                    <c:v>12,935</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>5,894</c:v>
+                    <c:v>11,789</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5,567</c:v>
+                    <c:v>11,134</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>4,912</c:v>
+                    <c:v>9,824</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>6,386</c:v>
+                    <c:v>12,771</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>9,005</c:v>
+                    <c:v>18,011</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>11,352</c:v>
+                    <c:v>22,704</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>9,824</c:v>
+                    <c:v>19,648</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>2,235</c:v>
+                    <c:v>4,471</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3074,121 +3074,121 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>506.47919999999999</c:v>
+                  <c:v>1012.9584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>654.93000000000006</c:v>
+                  <c:v>1309.8600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.394399999999997</c:v>
+                  <c:v>104.78879999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1257.644</c:v>
+                  <c:v>2515.288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>553.05200000000002</c:v>
+                  <c:v>1106.104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>727.7</c:v>
+                  <c:v>1455.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>864.50760000000002</c:v>
+                  <c:v>1729.0152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>873.2399999999999</c:v>
+                  <c:v>1746.4799999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>499.20219999999989</c:v>
+                  <c:v>998.40439999999978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>956.28699999999992</c:v>
+                  <c:v>1912.5739999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>858.68599999999992</c:v>
+                  <c:v>1717.3719999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1273.4749999999999</c:v>
+                  <c:v>2546.9499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1650.4236000000001</c:v>
+                  <c:v>3300.8472000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2201.2925</c:v>
+                  <c:v>4402.585</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>626.54969999999992</c:v>
+                  <c:v>1253.0993999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2713.6824999999999</c:v>
+                  <c:v>5427.3649999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2838.0299999999997</c:v>
+                  <c:v>5676.0599999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2827.1145000000001</c:v>
+                  <c:v>5654.2290000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2510.5650000000001</c:v>
+                  <c:v>5021.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2383.2174999999997</c:v>
+                  <c:v>4766.4349999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1640.9634999999998</c:v>
+                  <c:v>3281.9269999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2346.8325</c:v>
+                  <c:v>4693.665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2561.5039999999999</c:v>
+                  <c:v>5123.0079999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3089.0864999999999</c:v>
+                  <c:v>6178.1729999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3340.1429999999996</c:v>
+                  <c:v>6680.2859999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4730.0499999999993</c:v>
+                  <c:v>9460.0999999999985</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1448.1229999999998</c:v>
+                  <c:v>2896.2459999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4409.8620000000001</c:v>
+                  <c:v>8819.7240000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4936.5348750000012</c:v>
+                  <c:v>9873.0697500000024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4766.4349999999995</c:v>
+                  <c:v>9532.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4595.4254999999994</c:v>
+                  <c:v>9190.8509999999987</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4911.9750000000004</c:v>
+                  <c:v>9823.9500000000007</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3394.7205000000004</c:v>
+                  <c:v>6789.4410000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4650.0029999999997</c:v>
+                  <c:v>9300.0059999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5377.2481874999994</c:v>
+                  <c:v>10754.496374999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6791.2602499999994</c:v>
+                  <c:v>13582.520499999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8050.1812499999996</c:v>
+                  <c:v>16100.362499999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7859.16</c:v>
+                  <c:v>15718.32</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2673.2059500000005</c:v>
+                  <c:v>5346.411900000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,11 +3203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-563906640"/>
-        <c:axId val="-563905552"/>
+        <c:axId val="727994688"/>
+        <c:axId val="727996864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-563906640"/>
+        <c:axId val="727994688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,12 +3264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-563905552"/>
+        <c:crossAx val="727996864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-563905552"/>
+        <c:axId val="727996864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-563906640"/>
+        <c:crossAx val="727994688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3496,121 +3496,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1,013</c:v>
+                    <c:v>2,026</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>2,620</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>210</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5,031</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2,212</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2,911</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2,445</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2,183</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,892</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>1,310</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>105</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2,515</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1,106</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
+                    <c:v>2,329</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3,639</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4,366</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6,404</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1,455</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1,223</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1,092</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>946</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>655</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1,164</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1,819</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2,183</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3,202</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>728</c:v>
-                  </c:pt>
                   <c:pt idx="15">
-                    <c:v>3,842</c:v>
+                    <c:v>7,685</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>9,082</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>8,034</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6,637</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5,239</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>4,541</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>4,017</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3,318</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="23">
+                    <c:v>6,520</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7,859</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>13,099</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>2,620</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2,270</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>3,260</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>3,930</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>6,549</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1,310</c:v>
-                  </c:pt>
                   <c:pt idx="27">
-                    <c:v>5,676</c:v>
+                    <c:v>11,352</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>6,467</c:v>
+                    <c:v>12,935</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>5,894</c:v>
+                    <c:v>11,789</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5,567</c:v>
+                    <c:v>11,134</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>4,912</c:v>
+                    <c:v>9,824</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>6,386</c:v>
+                    <c:v>12,771</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>9,005</c:v>
+                    <c:v>18,011</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>11,352</c:v>
+                    <c:v>22,704</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>9,824</c:v>
+                    <c:v>19,648</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>2,235</c:v>
+                    <c:v>4,471</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3990,11 +3990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-563906096"/>
-        <c:axId val="-563905008"/>
+        <c:axId val="727997408"/>
+        <c:axId val="727998496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-563906096"/>
+        <c:axId val="727997408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,12 +4051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-563905008"/>
+        <c:crossAx val="727998496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-563905008"/>
+        <c:axId val="727998496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-563906096"/>
+        <c:crossAx val="727997408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4272,121 +4272,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1,013</c:v>
+                    <c:v>2,026</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>2,620</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>210</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5,031</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2,212</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2,911</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2,445</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2,183</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,892</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>1,310</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>105</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2,515</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1,106</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="10">
+                    <c:v>2,329</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3,639</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4,366</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6,404</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>1,455</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>1,223</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1,092</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>946</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>655</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1,164</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1,819</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2,183</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>3,202</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>728</c:v>
-                  </c:pt>
                   <c:pt idx="15">
-                    <c:v>3,842</c:v>
+                    <c:v>7,685</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>9,082</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>8,034</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>6,637</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5,239</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4,890</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>4,541</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>4,017</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3,318</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="23">
+                    <c:v>6,520</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7,859</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>13,099</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>2,620</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>2,445</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>2,270</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>3,260</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>3,930</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>6,549</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>1,310</c:v>
-                  </c:pt>
                   <c:pt idx="27">
-                    <c:v>5,676</c:v>
+                    <c:v>11,352</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>6,467</c:v>
+                    <c:v>12,935</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>5,894</c:v>
+                    <c:v>11,789</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>5,567</c:v>
+                    <c:v>11,134</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>4,912</c:v>
+                    <c:v>9,824</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>5,239</c:v>
+                    <c:v>10,479</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>6,386</c:v>
+                    <c:v>12,771</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>9,005</c:v>
+                    <c:v>18,011</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>11,352</c:v>
+                    <c:v>22,704</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>9,824</c:v>
+                    <c:v>19,648</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>2,235</c:v>
+                    <c:v>4,471</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4766,11 +4766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-667583904"/>
-        <c:axId val="-383322432"/>
+        <c:axId val="643384656"/>
+        <c:axId val="929144848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-667583904"/>
+        <c:axId val="643384656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,12 +4827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383322432"/>
+        <c:crossAx val="929144848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-383322432"/>
+        <c:axId val="929144848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-667583904"/>
+        <c:crossAx val="643384656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4998,7 +4998,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Payout Per Course</c:v>
+                  <c:v>Payout Per Course (₹)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5232,196 +5232,196 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1772.6772000000001</c:v>
+                  <c:v>1012.9584000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2292.2550000000001</c:v>
+                  <c:v>1309.8600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.38040000000001</c:v>
+                  <c:v>104.78880000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4401.7539999999999</c:v>
+                  <c:v>2515.288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1935.682</c:v>
+                  <c:v>1106.104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2546.9500000000003</c:v>
+                  <c:v>1455.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3025.7765999999997</c:v>
+                  <c:v>1729.0151999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3056.3399999999992</c:v>
+                  <c:v>1746.4799999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1747.2076999999997</c:v>
+                  <c:v>998.40439999999978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3347.0045</c:v>
+                  <c:v>1912.5739999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3005.4009999999994</c:v>
+                  <c:v>1717.3719999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4457.1625000000004</c:v>
+                  <c:v>2546.9499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5776.4825999999994</c:v>
+                  <c:v>3300.8472000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7704.5237500000003</c:v>
+                  <c:v>4402.5850000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2192.9239499999999</c:v>
+                  <c:v>1253.0993999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9497.8887500000001</c:v>
+                  <c:v>5427.3650000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9933.1049999999996</c:v>
+                  <c:v>5676.0599999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9894.9007499999989</c:v>
+                  <c:v>5654.2290000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8786.9774999999991</c:v>
+                  <c:v>5021.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8341.2612499999996</c:v>
+                  <c:v>4766.4350000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5743.3722500000003</c:v>
+                  <c:v>3281.9269999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8213.9137499999997</c:v>
+                  <c:v>4693.6650000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8965.2639999999992</c:v>
+                  <c:v>5123.0079999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10811.802750000001</c:v>
+                  <c:v>6178.1729999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11690.500499999998</c:v>
+                  <c:v>6680.2859999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16555.174999999999</c:v>
+                  <c:v>9460.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5068.4305000000004</c:v>
+                  <c:v>2896.2460000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15434.517</c:v>
+                  <c:v>8819.7240000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17277.872062499999</c:v>
+                  <c:v>9873.0697500000024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16682.522500000003</c:v>
+                  <c:v>9532.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16083.989249999999</c:v>
+                  <c:v>9190.8509999999987</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17191.912500000002</c:v>
+                  <c:v>9823.9500000000007</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11881.521750000002</c:v>
+                  <c:v>6789.4410000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16275.0105</c:v>
+                  <c:v>9300.0060000000012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18820.368656250001</c:v>
+                  <c:v>10754.496375000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23769.410875000001</c:v>
+                  <c:v>13582.520500000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28175.634374999998</c:v>
+                  <c:v>16100.362499999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27507.06</c:v>
+                  <c:v>15718.320000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9356.2208250000022</c:v>
+                  <c:v>5346.411900000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31695.110801886789</c:v>
+                  <c:v>18111.49188679245</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36158.430433372647</c:v>
+                  <c:v>20661.960247641513</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38502.855859669813</c:v>
+                  <c:v>22001.631919811323</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41746.07230896227</c:v>
+                  <c:v>23854.898462264151</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39015.189268867929</c:v>
+                  <c:v>22294.393867924529</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33011.427423113208</c:v>
+                  <c:v>18863.672813207548</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44259.26320754717</c:v>
+                  <c:v>25291.007547169811</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47568.796468160377</c:v>
+                  <c:v>27182.169410377355</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50137.852071933965</c:v>
+                  <c:v>28650.201183962261</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49238.790735849063</c:v>
+                  <c:v>28136.451849056604</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49193.378136792453</c:v>
+                  <c:v>28110.501792452829</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17733.692015094341</c:v>
+                  <c:v>10133.538294339622</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25373.388679245283</c:v>
+                  <c:v>14499.079245283017</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27218.726037735847</c:v>
+                  <c:v>15553.557735849055</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27495.526641509434</c:v>
+                  <c:v>15711.729509433962</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>26388.324226415098</c:v>
+                  <c:v>15079.04241509434</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>26757.391698113206</c:v>
+                  <c:v>15289.938113207547</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14578.165132075472</c:v>
+                  <c:v>8330.3800754716976</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14301.364528301887</c:v>
+                  <c:v>8172.2083018867925</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14762.698867924528</c:v>
+                  <c:v>8435.8279245283011</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14762.698867924528</c:v>
+                  <c:v>8435.8279245283011</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12917.361509433962</c:v>
+                  <c:v>7381.3494339622639</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13840.030188679244</c:v>
+                  <c:v>7908.588679245282</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1199.4692830188681</c:v>
+                  <c:v>685.41101886792455</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -5439,11 +5439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-383319712"/>
-        <c:axId val="-383315904"/>
+        <c:axId val="929149744"/>
+        <c:axId val="929155184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-383319712"/>
+        <c:axId val="929149744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,12 +5500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383315904"/>
+        <c:crossAx val="929155184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-383315904"/>
+        <c:axId val="929155184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5525,7 +5525,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5562,7 +5562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383319712"/>
+        <c:crossAx val="929149744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6073,11 +6073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-397268352"/>
-        <c:axId val="-397263456"/>
+        <c:axId val="929154096"/>
+        <c:axId val="929145392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-397268352"/>
+        <c:axId val="929154096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,12 +6134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-397263456"/>
+        <c:crossAx val="929145392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-397263456"/>
+        <c:axId val="929145392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6196,7 +6196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-397268352"/>
+        <c:crossAx val="929154096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9325,16 +9325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9666,31 +9666,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
@@ -9881,71 +9881,71 @@
   <sheetData>
     <row r="1" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:46" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="236" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="294"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="238"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN3" s="271" t="s">
+      <c r="AN3" s="279" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="272"/>
-      <c r="AP3" s="273"/>
+      <c r="AO3" s="280"/>
+      <c r="AP3" s="281"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="295" t="s">
+      <c r="E4" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="296"/>
-      <c r="O4" s="296"/>
-      <c r="P4" s="296"/>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="296"/>
-      <c r="S4" s="297"/>
-      <c r="U4" s="265" t="s">
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="241"/>
+      <c r="U4" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="266"/>
-      <c r="W4" s="267"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="275"/>
-      <c r="AP4" s="276"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="275"/>
+      <c r="AN4" s="282"/>
+      <c r="AO4" s="283"/>
+      <c r="AP4" s="284"/>
       <c r="AQ4" s="51"/>
       <c r="AR4" s="51"/>
       <c r="AS4" s="51"/>
@@ -9957,24 +9957,24 @@
       <c r="C5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="298"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="299"/>
-      <c r="O5" s="299"/>
-      <c r="P5" s="299"/>
-      <c r="Q5" s="299"/>
-      <c r="R5" s="299"/>
-      <c r="S5" s="300"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="270"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
+      <c r="R5" s="243"/>
+      <c r="S5" s="244"/>
+      <c r="U5" s="276"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="278"/>
       <c r="X5" s="7"/>
       <c r="AN5" s="120" t="s">
         <v>41</v>
@@ -9995,21 +9995,21 @@
         <f>IF($C$5=$L$9,$M$9,IF($C$5=$L$10,$M$10,IF($C$5=$L$11,$M11,IF($C$5=$L$12,$M$12,IF($C$5=$L$13,$M$13,IF($C$5=$L$14,$M$14,$M$15))))))</f>
         <v>72.77</v>
       </c>
-      <c r="E6" s="301"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="302"/>
-      <c r="O6" s="302"/>
-      <c r="P6" s="302"/>
-      <c r="Q6" s="302"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="303"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="246"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="246"/>
+      <c r="Q6" s="246"/>
+      <c r="R6" s="246"/>
+      <c r="S6" s="247"/>
       <c r="U6" s="113" t="s">
         <v>30</v>
       </c>
@@ -10061,10 +10061,10 @@
       <c r="L8" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="312" t="s">
+      <c r="M8" s="257" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="312"/>
+      <c r="N8" s="257"/>
       <c r="U8" s="115" t="s">
         <v>32</v>
       </c>
@@ -10098,10 +10098,10 @@
       <c r="L9" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="285">
+      <c r="M9" s="256">
         <v>1.29</v>
       </c>
-      <c r="N9" s="285"/>
+      <c r="N9" s="256"/>
       <c r="U9" s="115" t="s">
         <v>33</v>
       </c>
@@ -10135,10 +10135,10 @@
       <c r="L10" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="285">
+      <c r="M10" s="256">
         <v>72.77</v>
       </c>
-      <c r="N10" s="285"/>
+      <c r="N10" s="256"/>
       <c r="U10" s="115" t="s">
         <v>34</v>
       </c>
@@ -10169,25 +10169,25 @@
         <f>D10*2</f>
         <v>4366.2</v>
       </c>
-      <c r="F11" s="308" t="s">
+      <c r="F11" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="309"/>
-      <c r="H11" s="304">
+      <c r="G11" s="253"/>
+      <c r="H11" s="248">
         <f>40*C6</f>
         <v>2910.7999999999997</v>
       </c>
-      <c r="I11" s="306" t="str">
+      <c r="I11" s="250" t="str">
         <f>C5</f>
         <v>INR</v>
       </c>
       <c r="L11" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="285">
+      <c r="M11" s="256">
         <v>0.73</v>
       </c>
-      <c r="N11" s="285"/>
+      <c r="N11" s="256"/>
       <c r="U11" s="115" t="s">
         <v>35</v>
       </c>
@@ -10218,17 +10218,17 @@
         <f>D11*2</f>
         <v>8732.4</v>
       </c>
-      <c r="F12" s="310"/>
-      <c r="G12" s="311"/>
-      <c r="H12" s="305"/>
-      <c r="I12" s="307"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="255"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="251"/>
       <c r="L12" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="285">
+      <c r="M12" s="256">
         <v>6.4</v>
       </c>
-      <c r="N12" s="285"/>
+      <c r="N12" s="256"/>
       <c r="U12" s="115" t="s">
         <v>36</v>
       </c>
@@ -10262,10 +10262,10 @@
       <c r="L13" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="285">
+      <c r="M13" s="256">
         <v>0.83</v>
       </c>
-      <c r="N13" s="285"/>
+      <c r="N13" s="256"/>
       <c r="U13" s="115" t="s">
         <v>37</v>
       </c>
@@ -10299,18 +10299,18 @@
       <c r="L14" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="285">
+      <c r="M14" s="256">
         <v>104.95</v>
       </c>
-      <c r="N14" s="285"/>
-      <c r="U14" s="277"/>
-      <c r="V14" s="278"/>
+      <c r="N14" s="256"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="286"/>
       <c r="W14" s="11">
         <f>SUM(W6:W13)</f>
         <v>100</v>
       </c>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="258"/>
+      <c r="AN14" s="265"/>
+      <c r="AO14" s="266"/>
       <c r="AP14" s="25">
         <f>SUM(AP5:AP13)</f>
         <v>100</v>
@@ -10327,10 +10327,10 @@
       <c r="L15" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="285">
+      <c r="M15" s="256">
         <v>1</v>
       </c>
-      <c r="N15" s="285"/>
+      <c r="N15" s="256"/>
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
       <c r="W15" s="51"/>
@@ -10348,188 +10348,188 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="259" t="s">
+      <c r="B17" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="260"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="242" t="s">
+      <c r="C17" s="268"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="282"/>
-      <c r="G17" s="238" t="s">
+      <c r="F17" s="291"/>
+      <c r="G17" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="239"/>
-      <c r="I17" s="242" t="s">
+      <c r="H17" s="299"/>
+      <c r="I17" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="243"/>
-      <c r="K17" s="254" t="s">
+      <c r="J17" s="302"/>
+      <c r="K17" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="255"/>
-      <c r="M17" s="255"/>
-      <c r="N17" s="255"/>
-      <c r="O17" s="255"/>
-      <c r="P17" s="255"/>
-      <c r="Q17" s="255"/>
-      <c r="R17" s="255"/>
-      <c r="S17" s="255"/>
-      <c r="T17" s="256"/>
-      <c r="U17" s="279" t="s">
+      <c r="L17" s="312"/>
+      <c r="M17" s="312"/>
+      <c r="N17" s="312"/>
+      <c r="O17" s="312"/>
+      <c r="P17" s="312"/>
+      <c r="Q17" s="312"/>
+      <c r="R17" s="312"/>
+      <c r="S17" s="312"/>
+      <c r="T17" s="313"/>
+      <c r="U17" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
-      <c r="Z17" s="280"/>
-      <c r="AA17" s="280"/>
-      <c r="AB17" s="280"/>
-      <c r="AC17" s="280"/>
-      <c r="AD17" s="280"/>
-      <c r="AE17" s="280"/>
-      <c r="AF17" s="280"/>
-      <c r="AG17" s="280"/>
-      <c r="AH17" s="280"/>
-      <c r="AI17" s="280"/>
-      <c r="AJ17" s="280"/>
-      <c r="AK17" s="280"/>
-      <c r="AL17" s="280"/>
-      <c r="AM17" s="281"/>
-      <c r="AN17" s="235" t="s">
+      <c r="V17" s="288"/>
+      <c r="W17" s="288"/>
+      <c r="X17" s="288"/>
+      <c r="Y17" s="288"/>
+      <c r="Z17" s="288"/>
+      <c r="AA17" s="288"/>
+      <c r="AB17" s="288"/>
+      <c r="AC17" s="288"/>
+      <c r="AD17" s="288"/>
+      <c r="AE17" s="288"/>
+      <c r="AF17" s="288"/>
+      <c r="AG17" s="288"/>
+      <c r="AH17" s="288"/>
+      <c r="AI17" s="288"/>
+      <c r="AJ17" s="288"/>
+      <c r="AK17" s="288"/>
+      <c r="AL17" s="288"/>
+      <c r="AM17" s="289"/>
+      <c r="AN17" s="295" t="s">
         <v>49</v>
       </c>
-      <c r="AO17" s="236"/>
-      <c r="AP17" s="236"/>
-      <c r="AQ17" s="236"/>
-      <c r="AR17" s="236"/>
-      <c r="AS17" s="236"/>
-      <c r="AT17" s="236"/>
-      <c r="AU17" s="236"/>
-      <c r="AV17" s="236"/>
-      <c r="AW17" s="236"/>
-      <c r="AX17" s="236"/>
-      <c r="AY17" s="236"/>
-      <c r="AZ17" s="236"/>
-      <c r="BA17" s="236"/>
-      <c r="BB17" s="236"/>
-      <c r="BC17" s="236"/>
-      <c r="BD17" s="236"/>
-      <c r="BE17" s="236"/>
-      <c r="BF17" s="236"/>
-      <c r="BG17" s="236"/>
-      <c r="BH17" s="237"/>
+      <c r="AO17" s="296"/>
+      <c r="AP17" s="296"/>
+      <c r="AQ17" s="296"/>
+      <c r="AR17" s="296"/>
+      <c r="AS17" s="296"/>
+      <c r="AT17" s="296"/>
+      <c r="AU17" s="296"/>
+      <c r="AV17" s="296"/>
+      <c r="AW17" s="296"/>
+      <c r="AX17" s="296"/>
+      <c r="AY17" s="296"/>
+      <c r="AZ17" s="296"/>
+      <c r="BA17" s="296"/>
+      <c r="BB17" s="296"/>
+      <c r="BC17" s="296"/>
+      <c r="BD17" s="296"/>
+      <c r="BE17" s="296"/>
+      <c r="BF17" s="296"/>
+      <c r="BG17" s="296"/>
+      <c r="BH17" s="297"/>
     </row>
     <row r="18" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="283"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="286" t="s">
+      <c r="B18" s="270"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="303"/>
+      <c r="J18" s="304"/>
+      <c r="K18" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="287"/>
-      <c r="M18" s="287" t="s">
+      <c r="L18" s="258"/>
+      <c r="M18" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287" t="s">
+      <c r="N18" s="258"/>
+      <c r="O18" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="287" t="s">
+      <c r="P18" s="258"/>
+      <c r="Q18" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="287"/>
-      <c r="S18" s="287" t="s">
+      <c r="R18" s="258"/>
+      <c r="S18" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="T18" s="288"/>
-      <c r="U18" s="289" t="s">
+      <c r="T18" s="261"/>
+      <c r="U18" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="290"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="252" t="s">
+      <c r="V18" s="263"/>
+      <c r="W18" s="264"/>
+      <c r="X18" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" s="253"/>
-      <c r="Z18" s="252" t="s">
+      <c r="Y18" s="260"/>
+      <c r="Z18" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="AA18" s="253"/>
-      <c r="AB18" s="252" t="s">
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="259" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="253"/>
-      <c r="AD18" s="252" t="s">
+      <c r="AC18" s="260"/>
+      <c r="AD18" s="259" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="253"/>
-      <c r="AF18" s="252" t="s">
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="252" t="s">
+      <c r="AG18" s="260"/>
+      <c r="AH18" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" s="253"/>
-      <c r="AJ18" s="252" t="s">
+      <c r="AI18" s="260"/>
+      <c r="AJ18" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="AK18" s="253"/>
-      <c r="AL18" s="252" t="s">
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="259" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" s="253"/>
-      <c r="AN18" s="248" t="s">
+      <c r="AM18" s="260"/>
+      <c r="AN18" s="307" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="249"/>
-      <c r="AP18" s="250"/>
-      <c r="AQ18" s="246" t="s">
+      <c r="AO18" s="308"/>
+      <c r="AP18" s="309"/>
+      <c r="AQ18" s="305" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="247"/>
-      <c r="AS18" s="246" t="s">
+      <c r="AR18" s="306"/>
+      <c r="AS18" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="AT18" s="247"/>
-      <c r="AU18" s="251" t="s">
+      <c r="AT18" s="306"/>
+      <c r="AU18" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="247"/>
-      <c r="AW18" s="246" t="s">
+      <c r="AV18" s="306"/>
+      <c r="AW18" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="AX18" s="247"/>
-      <c r="AY18" s="246" t="s">
+      <c r="AX18" s="306"/>
+      <c r="AY18" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="AZ18" s="247"/>
-      <c r="BA18" s="246" t="s">
+      <c r="AZ18" s="306"/>
+      <c r="BA18" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="BB18" s="247"/>
-      <c r="BC18" s="246" t="s">
+      <c r="BB18" s="306"/>
+      <c r="BC18" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="BD18" s="247"/>
-      <c r="BE18" s="246" t="s">
+      <c r="BD18" s="306"/>
+      <c r="BE18" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="247"/>
-      <c r="BG18" s="246" t="s">
+      <c r="BF18" s="306"/>
+      <c r="BG18" s="305" t="s">
         <v>47</v>
       </c>
-      <c r="BH18" s="247"/>
+      <c r="BH18" s="306"/>
     </row>
     <row r="19" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
@@ -11867,22 +11867,22 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="E4:S6"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AN17:BH17"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BC18:BD18"/>
+    <mergeCell ref="BE18:BF18"/>
+    <mergeCell ref="BG18:BH18"/>
+    <mergeCell ref="AQ18:AR18"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AW18:AX18"/>
+    <mergeCell ref="AY18:AZ18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="K17:T17"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="B17:D18"/>
     <mergeCell ref="U4:W5"/>
@@ -11899,22 +11899,22 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="AN17:BH17"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BC18:BD18"/>
-    <mergeCell ref="BE18:BF18"/>
-    <mergeCell ref="BG18:BH18"/>
-    <mergeCell ref="AQ18:AR18"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AW18:AX18"/>
-    <mergeCell ref="AY18:AZ18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="E4:S6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
@@ -12006,42 +12006,42 @@
       <c r="C2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="325" t="s">
+      <c r="E2" s="326" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="327"/>
-      <c r="J2" s="335" t="s">
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="328"/>
+      <c r="J2" s="336" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
+      <c r="S2" s="337"/>
+      <c r="T2" s="337"/>
+      <c r="U2" s="337"/>
+      <c r="V2" s="338"/>
       <c r="W2"/>
-      <c r="X2" s="313" t="s">
+      <c r="X2" s="314" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="334"/>
-      <c r="AB2" s="334"/>
-      <c r="AC2" s="334"/>
-      <c r="AD2" s="314"/>
+      <c r="Y2" s="335"/>
+      <c r="Z2" s="335"/>
+      <c r="AA2" s="335"/>
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="315"/>
       <c r="AE2"/>
-      <c r="AF2" s="313" t="s">
+      <c r="AF2" s="314" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" s="314"/>
+      <c r="AG2" s="315"/>
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
@@ -12054,10 +12054,10 @@
         <f>IF($C$2=OrganizationalFinPlan!$L$9,OrganizationalFinPlan!$M$9,IF($C$2=OrganizationalFinPlan!$L$10,OrganizationalFinPlan!$M$10,IF($C$2=OrganizationalFinPlan!$L$11,OrganizationalFinPlan!$M11,IF($C$2=OrganizationalFinPlan!$L$12,OrganizationalFinPlan!$M$12,IF($C$2=OrganizationalFinPlan!$L$13,OrganizationalFinPlan!$M$13,IF($C$2=OrganizationalFinPlan!$L$14,OrganizationalFinPlan!$M$14,OrganizationalFinPlan!$M$15))))))</f>
         <v>72.77</v>
       </c>
-      <c r="E3" s="328"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="330"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
       <c r="J3" s="144" t="s">
         <v>113</v>
       </c>
@@ -12134,10 +12134,10 @@
       </c>
     </row>
     <row r="4" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="331"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
-      <c r="H4" s="333"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="334"/>
       <c r="J4" s="149">
         <v>1</v>
       </c>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="U4" s="152">
         <f>IF($S4&lt;$C$13,$D$13,IF($S4&lt;$C$14,$D$14,IF($S4&lt;$C$15,$D$15,IF($S4&lt;$C$16,$D$16,$D$17))))*($R4*$H$6*$H$8)/1000000</f>
-        <v>52.394399999999997</v>
+        <v>104.78879999999999</v>
       </c>
       <c r="V4" s="153">
         <f>IF($S4&lt;$C$13,$H$13,IF($S4&lt;$C$14,$H$14,IF($S4&lt;$C$15,$H$15,IF($S4&lt;$C$16,$H$16,$H$17))))*$R4/100</f>
@@ -12194,11 +12194,11 @@
       </c>
       <c r="Z4" s="205">
         <f>($U$4+$U$5+$U$6)</f>
-        <v>1012.9584</v>
+        <v>2025.9168</v>
       </c>
       <c r="AA4" s="205">
         <f>$AJ$3*Z4%</f>
-        <v>506.47919999999999</v>
+        <v>1012.9584</v>
       </c>
       <c r="AB4" s="205">
         <v>0</v>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AD4" s="224">
         <f>AA4+AB4+AC4</f>
-        <v>506.47919999999999</v>
+        <v>1012.9584</v>
       </c>
       <c r="AE4"/>
       <c r="AF4" s="224">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="U5" s="161">
         <f t="shared" ref="U5:U6" si="3">IF($S5&lt;$C$13,$D$13,IF($S5&lt;$C$14,$D$14,IF($S5&lt;$C$15,$D$15,IF($S5&lt;$C$16,$D$16,$D$17))))*($R5*$H$6*$H$8)/1000000</f>
-        <v>174.64799999999997</v>
+        <v>349.29599999999994</v>
       </c>
       <c r="V5" s="162">
         <f t="shared" ref="V5:V55" si="4">IF($S5&lt;$C$13,$H$13,IF($S5&lt;$C$14,$H$14,IF($S5&lt;$C$15,$H$15,IF($S5&lt;$C$16,$H$16,$H$17))))*$R5/100</f>
@@ -12298,11 +12298,11 @@
       </c>
       <c r="Z5" s="165">
         <f>$U$7+$U$8</f>
-        <v>1309.8600000000001</v>
+        <v>2619.7200000000003</v>
       </c>
       <c r="AA5" s="165">
         <f t="shared" ref="AA5:AA41" si="5">$AJ$3*Z5%</f>
-        <v>654.93000000000006</v>
+        <v>1309.8600000000001</v>
       </c>
       <c r="AB5" s="165">
         <v>0</v>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="AD5" s="166">
         <f t="shared" ref="AD5:AD56" si="6">AA5+AB5+AC5</f>
-        <v>654.93000000000006</v>
+        <v>1309.8600000000001</v>
       </c>
       <c r="AE5"/>
       <c r="AF5" s="166">
@@ -12352,14 +12352,14 @@
         <v>80</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="127" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="128">
         <f>IF($F$6=OrganizationalFinPlan!$U$6,OrganizationalFinPlan!$W$6,IF($F$6=OrganizationalFinPlan!$U$7,OrganizationalFinPlan!$W$7,IF($F$6=OrganizationalFinPlan!$U$8,OrganizationalFinPlan!$W$8,IF($F$6=OrganizationalFinPlan!$U$9,OrganizationalFinPlan!$W$9,IF($F$6=OrganizationalFinPlan!$U$10,OrganizationalFinPlan!$W$10,IF($F$6=OrganizationalFinPlan!$U$11,OrganizationalFinPlan!$W$11,IF($F$6=OrganizationalFinPlan!$U$12,OrganizationalFinPlan!$W$12,OrganizationalFinPlan!$W$13)))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="157">
         <v>3</v>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="U6" s="161">
         <f t="shared" si="3"/>
-        <v>785.91600000000005</v>
+        <v>1571.8320000000001</v>
       </c>
       <c r="V6" s="162">
         <f t="shared" si="4"/>
@@ -12417,11 +12417,11 @@
       </c>
       <c r="Z6" s="171">
         <f>$U$9</f>
-        <v>104.78879999999999</v>
+        <v>209.57759999999999</v>
       </c>
       <c r="AA6" s="171">
         <f t="shared" si="5"/>
-        <v>52.394399999999997</v>
+        <v>104.78879999999999</v>
       </c>
       <c r="AB6" s="171">
         <v>0</v>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="AD6" s="172">
         <f t="shared" si="6"/>
-        <v>52.394399999999997</v>
+        <v>104.78879999999999</v>
       </c>
       <c r="AE6"/>
       <c r="AF6" s="172">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="U7" s="174">
         <f t="shared" ref="U7:U29" si="11">IF($S7&lt;$C$13,$D$13,IF($S7&lt;$C$14,$D$14,IF($S7&lt;$C$15,$D$15,IF($S7&lt;$C$16,$D$16,$D$17))))*($R7*$H$6*$H$8)/1000000</f>
-        <v>523.94399999999996</v>
+        <v>1047.8879999999999</v>
       </c>
       <c r="V7" s="175">
         <f t="shared" si="4"/>
@@ -12518,11 +12518,11 @@
       </c>
       <c r="Z7" s="178">
         <f>$U$10+$U$11+$U$12</f>
-        <v>2515.288</v>
+        <v>5030.576</v>
       </c>
       <c r="AA7" s="178">
         <f t="shared" si="5"/>
-        <v>1257.644</v>
+        <v>2515.288</v>
       </c>
       <c r="AB7" s="178">
         <v>0</v>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="AD7" s="179">
         <f t="shared" si="6"/>
-        <v>1257.644</v>
+        <v>2515.288</v>
       </c>
       <c r="AE7"/>
       <c r="AF7" s="179">
@@ -12563,12 +12563,12 @@
         <f>$C$7*4</f>
         <v>17464.8</v>
       </c>
-      <c r="E8" s="321" t="s">
+      <c r="E8" s="322" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="322"/>
-      <c r="G8" s="322"/>
-      <c r="H8" s="319">
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="320">
         <v>100</v>
       </c>
       <c r="J8" s="163">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="U8" s="174">
         <f t="shared" si="11"/>
-        <v>785.91600000000005</v>
+        <v>1571.8320000000001</v>
       </c>
       <c r="V8" s="175">
         <f t="shared" si="4"/>
@@ -12627,11 +12627,11 @@
       </c>
       <c r="Z8" s="159">
         <f>$U$13</f>
-        <v>1106.104</v>
+        <v>2212.2080000000001</v>
       </c>
       <c r="AA8" s="159">
         <f t="shared" si="5"/>
-        <v>553.05200000000002</v>
+        <v>1106.104</v>
       </c>
       <c r="AB8" s="159">
         <v>0</v>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="AD8" s="180">
         <f t="shared" si="6"/>
-        <v>553.05200000000002</v>
+        <v>1106.104</v>
       </c>
       <c r="AE8"/>
       <c r="AF8" s="180">
@@ -12667,10 +12667,10 @@
     <row r="9" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="E9" s="323"/>
-      <c r="F9" s="324"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="320"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="325"/>
+      <c r="H9" s="321"/>
       <c r="J9" s="181">
         <v>8</v>
       </c>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="U9" s="185">
         <f t="shared" si="11"/>
-        <v>104.78879999999999</v>
+        <v>209.57759999999999</v>
       </c>
       <c r="V9" s="186">
         <f t="shared" si="4"/>
@@ -12727,11 +12727,11 @@
       </c>
       <c r="Z9" s="165">
         <f>$U$14</f>
-        <v>1455.4</v>
+        <v>2910.8</v>
       </c>
       <c r="AA9" s="165">
         <f t="shared" si="5"/>
-        <v>727.7</v>
+        <v>1455.4</v>
       </c>
       <c r="AB9" s="165">
         <v>0</v>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="AD9" s="166">
         <f t="shared" si="6"/>
-        <v>727.7</v>
+        <v>1455.4</v>
       </c>
       <c r="AE9"/>
       <c r="AF9" s="166">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="U10" s="188">
         <f t="shared" si="11"/>
-        <v>1047.8879999999999</v>
+        <v>2095.7759999999998</v>
       </c>
       <c r="V10" s="189">
         <f t="shared" si="4"/>
@@ -12821,22 +12821,22 @@
       </c>
       <c r="Z10" s="171">
         <f>$U$15</f>
-        <v>1222.5360000000001</v>
+        <v>2445.0720000000001</v>
       </c>
       <c r="AA10" s="171">
         <f t="shared" si="5"/>
-        <v>611.26800000000003</v>
+        <v>1222.5360000000001</v>
       </c>
       <c r="AB10" s="171">
         <f>$Z4*$AJ$4%</f>
-        <v>253.2396</v>
+        <v>506.47919999999999</v>
       </c>
       <c r="AC10" s="171">
         <v>0</v>
       </c>
       <c r="AD10" s="172">
         <f t="shared" si="6"/>
-        <v>864.50760000000002</v>
+        <v>1729.0152</v>
       </c>
       <c r="AE10"/>
       <c r="AF10" s="172">
@@ -12860,17 +12860,17 @@
       <c r="AR10" s="1"/>
     </row>
     <row r="11" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="315" t="s">
+      <c r="B11" s="316" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="316"/>
-      <c r="D11" s="317" t="s">
+      <c r="C11" s="317"/>
+      <c r="D11" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="318"/>
+      <c r="E11" s="319"/>
       <c r="F11" s="129" t="str">
         <f>$F$6</f>
-        <v>Film Reviewer</v>
+        <v>Admin / Manager</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>93</v>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="U11" s="194">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="V11" s="195">
         <f t="shared" si="4"/>
@@ -12933,22 +12933,22 @@
       </c>
       <c r="Z11" s="178">
         <f>$U$16</f>
-        <v>1091.5499999999997</v>
+        <v>2183.0999999999995</v>
       </c>
       <c r="AA11" s="178">
         <f t="shared" si="5"/>
-        <v>545.77499999999986</v>
+        <v>1091.5499999999997</v>
       </c>
       <c r="AB11" s="178">
         <f t="shared" ref="AB11:AB56" si="13">$Z5*$AJ$4%</f>
-        <v>327.46500000000003</v>
+        <v>654.93000000000006</v>
       </c>
       <c r="AC11" s="178">
         <v>0</v>
       </c>
       <c r="AD11" s="179">
         <f t="shared" si="6"/>
-        <v>873.2399999999999</v>
+        <v>1746.4799999999998</v>
       </c>
       <c r="AE11"/>
       <c r="AF11" s="179">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="U12" s="200">
         <f t="shared" si="11"/>
-        <v>1455.4</v>
+        <v>2910.8</v>
       </c>
       <c r="V12" s="201">
         <f t="shared" si="4"/>
@@ -13049,22 +13049,22 @@
       </c>
       <c r="Z12" s="159">
         <f>$U$17</f>
-        <v>946.00999999999976</v>
+        <v>1892.0199999999995</v>
       </c>
       <c r="AA12" s="159">
         <f t="shared" si="5"/>
-        <v>473.00499999999988</v>
+        <v>946.00999999999976</v>
       </c>
       <c r="AB12" s="159">
         <f t="shared" si="13"/>
-        <v>26.197199999999999</v>
+        <v>52.394399999999997</v>
       </c>
       <c r="AC12" s="159">
         <v>0</v>
       </c>
       <c r="AD12" s="180">
         <f t="shared" si="6"/>
-        <v>499.20219999999989</v>
+        <v>998.40439999999978</v>
       </c>
       <c r="AE12"/>
       <c r="AF12" s="180">
@@ -13104,11 +13104,11 @@
       </c>
       <c r="F13" s="14">
         <f>E13*$H$6%</f>
-        <v>4366.2</v>
+        <v>8732.4</v>
       </c>
       <c r="G13" s="14">
         <f>$H$8%*F13</f>
-        <v>4366.2</v>
+        <v>8732.4</v>
       </c>
       <c r="H13" s="138">
         <f>100-2*D13-20</f>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="U13" s="161">
         <f t="shared" si="11"/>
-        <v>1106.104</v>
+        <v>2212.2080000000001</v>
       </c>
       <c r="V13" s="162">
         <f t="shared" si="4"/>
@@ -13170,22 +13170,22 @@
       </c>
       <c r="Z13" s="165">
         <f>$U$18</f>
-        <v>654.92999999999984</v>
+        <v>1309.8599999999997</v>
       </c>
       <c r="AA13" s="165">
         <f t="shared" si="5"/>
-        <v>327.46499999999992</v>
+        <v>654.92999999999984</v>
       </c>
       <c r="AB13" s="165">
         <f t="shared" si="13"/>
-        <v>628.822</v>
+        <v>1257.644</v>
       </c>
       <c r="AC13" s="165">
         <v>0</v>
       </c>
       <c r="AD13" s="166">
         <f t="shared" si="6"/>
-        <v>956.28699999999992</v>
+        <v>1912.5739999999998</v>
       </c>
       <c r="AE13"/>
       <c r="AF13" s="166">
@@ -13225,11 +13225,11 @@
       </c>
       <c r="F14" s="14">
         <f>E14*$H$6%</f>
-        <v>15281.7</v>
+        <v>30563.4</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" ref="G14:G16" si="16">$H$8%*F14</f>
-        <v>15281.7</v>
+        <v>30563.4</v>
       </c>
       <c r="H14" s="139">
         <f t="shared" ref="H14:H16" si="17">100-2*D14-20</f>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="U14" s="174">
         <f t="shared" si="11"/>
-        <v>1455.4</v>
+        <v>2910.8</v>
       </c>
       <c r="V14" s="175">
         <f t="shared" si="4"/>
@@ -13291,22 +13291,22 @@
       </c>
       <c r="Z14" s="171">
         <f>$U$19</f>
-        <v>1164.3199999999997</v>
+        <v>2328.6399999999994</v>
       </c>
       <c r="AA14" s="171">
         <f t="shared" si="5"/>
-        <v>582.15999999999985</v>
+        <v>1164.3199999999997</v>
       </c>
       <c r="AB14" s="171">
         <f t="shared" si="13"/>
-        <v>276.52600000000001</v>
+        <v>553.05200000000002</v>
       </c>
       <c r="AC14" s="171">
         <v>0</v>
       </c>
       <c r="AD14" s="172">
         <f t="shared" si="6"/>
-        <v>858.68599999999992</v>
+        <v>1717.3719999999998</v>
       </c>
       <c r="AE14"/>
       <c r="AF14" s="172">
@@ -13346,11 +13346,11 @@
       </c>
       <c r="F15" s="14">
         <f>E15*$H$6%</f>
-        <v>50211.3</v>
+        <v>100422.6</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="16"/>
-        <v>50211.3</v>
+        <v>100422.6</v>
       </c>
       <c r="H15" s="139">
         <f t="shared" si="17"/>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="U15" s="185">
         <f t="shared" si="11"/>
-        <v>1222.5360000000001</v>
+        <v>2445.0720000000001</v>
       </c>
       <c r="V15" s="186">
         <f t="shared" si="4"/>
@@ -13412,22 +13412,22 @@
       </c>
       <c r="Z15" s="178">
         <f>$U$20+$U$21</f>
-        <v>1819.2499999999998</v>
+        <v>3638.4999999999995</v>
       </c>
       <c r="AA15" s="178">
         <f t="shared" si="5"/>
-        <v>909.625</v>
+        <v>1819.25</v>
       </c>
       <c r="AB15" s="178">
         <f t="shared" si="13"/>
-        <v>363.85</v>
+        <v>727.7</v>
       </c>
       <c r="AC15" s="178">
         <v>0</v>
       </c>
       <c r="AD15" s="179">
         <f t="shared" si="6"/>
-        <v>1273.4749999999999</v>
+        <v>2546.9499999999998</v>
       </c>
       <c r="AE15"/>
       <c r="AF15" s="179">
@@ -13467,11 +13467,11 @@
       </c>
       <c r="F16" s="14">
         <f>E16*$H$6%</f>
-        <v>155000.1</v>
+        <v>310000.2</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="16"/>
-        <v>155000.1</v>
+        <v>310000.2</v>
       </c>
       <c r="H16" s="139">
         <f t="shared" si="17"/>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="U16" s="188">
         <f t="shared" si="11"/>
-        <v>1091.5499999999997</v>
+        <v>2183.0999999999995</v>
       </c>
       <c r="V16" s="189">
         <f t="shared" si="4"/>
@@ -13533,23 +13533,23 @@
       </c>
       <c r="Z16" s="159">
         <f>$U$22</f>
-        <v>2183.1</v>
+        <v>4366.2</v>
       </c>
       <c r="AA16" s="159">
         <f t="shared" si="5"/>
-        <v>1091.55</v>
+        <v>2183.1</v>
       </c>
       <c r="AB16" s="159">
         <f t="shared" si="13"/>
-        <v>305.63400000000001</v>
+        <v>611.26800000000003</v>
       </c>
       <c r="AC16" s="159">
         <f>$Z4*$AJ$5%</f>
-        <v>253.2396</v>
+        <v>506.47919999999999</v>
       </c>
       <c r="AD16" s="180">
         <f t="shared" si="6"/>
-        <v>1650.4236000000001</v>
+        <v>3300.8472000000002</v>
       </c>
       <c r="AE16"/>
       <c r="AF16" s="180">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="U17" s="161">
         <f t="shared" si="11"/>
-        <v>946.00999999999976</v>
+        <v>1892.0199999999995</v>
       </c>
       <c r="V17" s="162">
         <f t="shared" si="4"/>
@@ -13650,23 +13650,23 @@
       </c>
       <c r="Z17" s="165">
         <f>$U$23+$U$24</f>
-        <v>3201.88</v>
+        <v>6403.76</v>
       </c>
       <c r="AA17" s="165">
         <f t="shared" si="5"/>
-        <v>1600.94</v>
+        <v>3201.88</v>
       </c>
       <c r="AB17" s="165">
         <f t="shared" si="13"/>
-        <v>272.88749999999993</v>
+        <v>545.77499999999986</v>
       </c>
       <c r="AC17" s="165">
         <f t="shared" ref="AC17:AC56" si="20">$Z5*$AJ$5%</f>
-        <v>327.46500000000003</v>
+        <v>654.93000000000006</v>
       </c>
       <c r="AD17" s="166">
         <f t="shared" si="6"/>
-        <v>2201.2925</v>
+        <v>4402.585</v>
       </c>
       <c r="AE17"/>
       <c r="AF17" s="166">
@@ -13734,7 +13734,7 @@
       </c>
       <c r="U18" s="174">
         <f t="shared" si="11"/>
-        <v>654.92999999999984</v>
+        <v>1309.8599999999997</v>
       </c>
       <c r="V18" s="175">
         <f t="shared" si="4"/>
@@ -13749,23 +13749,23 @@
       </c>
       <c r="Z18" s="171">
         <f>$U$25+$U$26</f>
-        <v>727.7</v>
+        <v>1455.4</v>
       </c>
       <c r="AA18" s="171">
         <f t="shared" si="5"/>
-        <v>363.85</v>
+        <v>727.7</v>
       </c>
       <c r="AB18" s="171">
         <f t="shared" si="13"/>
-        <v>236.50249999999994</v>
+        <v>473.00499999999988</v>
       </c>
       <c r="AC18" s="171">
         <f t="shared" si="20"/>
-        <v>26.197199999999999</v>
+        <v>52.394399999999997</v>
       </c>
       <c r="AD18" s="172">
         <f t="shared" si="6"/>
-        <v>626.54969999999992</v>
+        <v>1253.0993999999998</v>
       </c>
       <c r="AE18"/>
       <c r="AF18" s="172">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="U19" s="185">
         <f t="shared" si="11"/>
-        <v>1164.3199999999997</v>
+        <v>2328.6399999999994</v>
       </c>
       <c r="V19" s="186">
         <f t="shared" si="4"/>
@@ -13845,23 +13845,23 @@
       </c>
       <c r="Z19" s="178">
         <f>$U$27</f>
-        <v>3842.2559999999999</v>
+        <v>7684.5119999999997</v>
       </c>
       <c r="AA19" s="178">
         <f t="shared" si="5"/>
-        <v>1921.1279999999999</v>
+        <v>3842.2559999999999</v>
       </c>
       <c r="AB19" s="178">
         <f t="shared" si="13"/>
-        <v>163.73249999999996</v>
+        <v>327.46499999999992</v>
       </c>
       <c r="AC19" s="178">
         <f t="shared" si="20"/>
-        <v>628.822</v>
+        <v>1257.644</v>
       </c>
       <c r="AD19" s="179">
         <f t="shared" si="6"/>
-        <v>2713.6824999999999</v>
+        <v>5427.3649999999998</v>
       </c>
       <c r="AE19"/>
       <c r="AF19" s="179">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="U20" s="188">
         <f t="shared" si="11"/>
-        <v>946.00999999999976</v>
+        <v>1892.0199999999995</v>
       </c>
       <c r="V20" s="189">
         <f t="shared" si="4"/>
@@ -13941,23 +13941,23 @@
       </c>
       <c r="Z20" s="159">
         <f>$U$28</f>
-        <v>4540.848</v>
+        <v>9081.6959999999999</v>
       </c>
       <c r="AA20" s="159">
         <f t="shared" si="5"/>
-        <v>2270.424</v>
+        <v>4540.848</v>
       </c>
       <c r="AB20" s="159">
         <f t="shared" si="13"/>
-        <v>291.07999999999993</v>
+        <v>582.15999999999985</v>
       </c>
       <c r="AC20" s="159">
         <f t="shared" si="20"/>
-        <v>276.52600000000001</v>
+        <v>553.05200000000002</v>
       </c>
       <c r="AD20" s="180">
         <f t="shared" si="6"/>
-        <v>2838.0299999999997</v>
+        <v>5676.0599999999995</v>
       </c>
       <c r="AE20"/>
       <c r="AF20" s="180">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="U21" s="194">
         <f t="shared" si="11"/>
-        <v>873.24</v>
+        <v>1746.48</v>
       </c>
       <c r="V21" s="195">
         <f t="shared" si="4"/>
@@ -14037,23 +14037,23 @@
       </c>
       <c r="Z21" s="165">
         <f>$U$29</f>
-        <v>4016.904</v>
+        <v>8033.808</v>
       </c>
       <c r="AA21" s="165">
         <f t="shared" si="5"/>
-        <v>2008.4520000000002</v>
+        <v>4016.9040000000005</v>
       </c>
       <c r="AB21" s="165">
         <f t="shared" si="13"/>
-        <v>454.81249999999994</v>
+        <v>909.62499999999989</v>
       </c>
       <c r="AC21" s="165">
         <f t="shared" si="20"/>
-        <v>363.85</v>
+        <v>727.7</v>
       </c>
       <c r="AD21" s="166">
         <f t="shared" si="6"/>
-        <v>2827.1145000000001</v>
+        <v>5654.2290000000003</v>
       </c>
       <c r="AE21"/>
       <c r="AF21" s="166">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="U22" s="152">
         <f t="shared" si="11"/>
-        <v>2183.1</v>
+        <v>4366.2</v>
       </c>
       <c r="V22" s="153">
         <f t="shared" si="4"/>
@@ -14133,23 +14133,23 @@
       </c>
       <c r="Z22" s="171">
         <f>$U$30</f>
-        <v>3318.3119999999999</v>
+        <v>6636.6239999999998</v>
       </c>
       <c r="AA22" s="171">
         <f t="shared" si="5"/>
-        <v>1659.1560000000002</v>
+        <v>3318.3120000000004</v>
       </c>
       <c r="AB22" s="171">
         <f t="shared" si="13"/>
-        <v>545.77499999999998</v>
+        <v>1091.55</v>
       </c>
       <c r="AC22" s="171">
         <f t="shared" si="20"/>
-        <v>305.63400000000001</v>
+        <v>611.26800000000003</v>
       </c>
       <c r="AD22" s="172">
         <f t="shared" si="6"/>
-        <v>2510.5650000000001</v>
+        <v>5021.13</v>
       </c>
       <c r="AE22"/>
       <c r="AF22" s="172">
@@ -14214,7 +14214,7 @@
       </c>
       <c r="U23" s="174">
         <f t="shared" si="11"/>
-        <v>1746.48</v>
+        <v>3492.96</v>
       </c>
       <c r="V23" s="175">
         <f t="shared" si="4"/>
@@ -14229,23 +14229,23 @@
       </c>
       <c r="Z23" s="178">
         <f>$U$31</f>
-        <v>2619.7199999999998</v>
+        <v>5239.4399999999996</v>
       </c>
       <c r="AA23" s="178">
         <f t="shared" si="5"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AB23" s="178">
         <f t="shared" si="13"/>
-        <v>800.47</v>
+        <v>1600.94</v>
       </c>
       <c r="AC23" s="178">
         <f t="shared" si="20"/>
-        <v>272.88749999999993</v>
+        <v>545.77499999999986</v>
       </c>
       <c r="AD23" s="179">
         <f t="shared" si="6"/>
-        <v>2383.2174999999997</v>
+        <v>4766.4349999999995</v>
       </c>
       <c r="AE23"/>
       <c r="AF23" s="179">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="U24" s="174">
         <f t="shared" si="11"/>
-        <v>1455.4</v>
+        <v>2910.8</v>
       </c>
       <c r="V24" s="175">
         <f t="shared" si="4"/>
@@ -14325,23 +14325,23 @@
       </c>
       <c r="Z24" s="159">
         <f>$U$32</f>
-        <v>2445.0720000000001</v>
+        <v>4890.1440000000002</v>
       </c>
       <c r="AA24" s="159">
         <f t="shared" si="5"/>
-        <v>1222.5360000000001</v>
+        <v>2445.0720000000001</v>
       </c>
       <c r="AB24" s="159">
         <f t="shared" si="13"/>
-        <v>181.92500000000001</v>
+        <v>363.85</v>
       </c>
       <c r="AC24" s="159">
         <f t="shared" si="20"/>
-        <v>236.50249999999994</v>
+        <v>473.00499999999988</v>
       </c>
       <c r="AD24" s="180">
         <f t="shared" si="6"/>
-        <v>1640.9634999999998</v>
+        <v>3281.9269999999997</v>
       </c>
       <c r="AE24"/>
       <c r="AF24" s="180">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="U25" s="185">
         <f t="shared" si="11"/>
-        <v>727.7</v>
+        <v>1455.4</v>
       </c>
       <c r="V25" s="186">
         <f t="shared" si="4"/>
@@ -14421,23 +14421,23 @@
       </c>
       <c r="Z25" s="165">
         <f>$U$33</f>
-        <v>2445.0720000000001</v>
+        <v>4890.1440000000002</v>
       </c>
       <c r="AA25" s="165">
         <f t="shared" si="5"/>
-        <v>1222.5360000000001</v>
+        <v>2445.0720000000001</v>
       </c>
       <c r="AB25" s="165">
         <f t="shared" si="13"/>
-        <v>960.56399999999996</v>
+        <v>1921.1279999999999</v>
       </c>
       <c r="AC25" s="165">
         <f t="shared" si="20"/>
-        <v>163.73249999999996</v>
+        <v>327.46499999999992</v>
       </c>
       <c r="AD25" s="166">
         <f t="shared" si="6"/>
-        <v>2346.8325</v>
+        <v>4693.665</v>
       </c>
       <c r="AE25"/>
       <c r="AF25" s="166">
@@ -14517,23 +14517,23 @@
       </c>
       <c r="Z26" s="171">
         <f>$U$34</f>
-        <v>2270.424</v>
+        <v>4540.848</v>
       </c>
       <c r="AA26" s="171">
         <f t="shared" si="5"/>
-        <v>1135.212</v>
+        <v>2270.424</v>
       </c>
       <c r="AB26" s="171">
         <f t="shared" si="13"/>
-        <v>1135.212</v>
+        <v>2270.424</v>
       </c>
       <c r="AC26" s="171">
         <f t="shared" si="20"/>
-        <v>291.07999999999993</v>
+        <v>582.15999999999985</v>
       </c>
       <c r="AD26" s="172">
         <f t="shared" si="6"/>
-        <v>2561.5039999999999</v>
+        <v>5123.0079999999998</v>
       </c>
       <c r="AE26"/>
       <c r="AF26" s="172">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="U27" s="188">
         <f t="shared" si="11"/>
-        <v>3842.2559999999999</v>
+        <v>7684.5119999999997</v>
       </c>
       <c r="V27" s="189">
         <f t="shared" si="4"/>
@@ -14613,23 +14613,23 @@
       </c>
       <c r="Z27" s="178">
         <f>$U$35+$U$36</f>
-        <v>3260.0959999999995</v>
+        <v>6520.1919999999991</v>
       </c>
       <c r="AA27" s="178">
         <f t="shared" si="5"/>
-        <v>1630.0479999999998</v>
+        <v>3260.0959999999995</v>
       </c>
       <c r="AB27" s="178">
         <f t="shared" si="13"/>
-        <v>1004.226</v>
+        <v>2008.452</v>
       </c>
       <c r="AC27" s="178">
         <f t="shared" si="20"/>
-        <v>454.81249999999994</v>
+        <v>909.62499999999989</v>
       </c>
       <c r="AD27" s="179">
         <f t="shared" si="6"/>
-        <v>3089.0864999999999</v>
+        <v>6178.1729999999998</v>
       </c>
       <c r="AE27"/>
       <c r="AF27" s="179">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="U28" s="161">
         <f t="shared" si="11"/>
-        <v>4540.848</v>
+        <v>9081.6959999999999</v>
       </c>
       <c r="V28" s="162">
         <f t="shared" si="4"/>
@@ -14709,23 +14709,23 @@
       </c>
       <c r="Z28" s="159">
         <f>$U$37</f>
-        <v>3929.579999999999</v>
+        <v>7859.159999999998</v>
       </c>
       <c r="AA28" s="159">
         <f t="shared" si="5"/>
-        <v>1964.7899999999997</v>
+        <v>3929.5799999999995</v>
       </c>
       <c r="AB28" s="159">
         <f t="shared" si="13"/>
-        <v>829.57799999999997</v>
+        <v>1659.1559999999999</v>
       </c>
       <c r="AC28" s="159">
         <f t="shared" si="20"/>
-        <v>545.77499999999998</v>
+        <v>1091.55</v>
       </c>
       <c r="AD28" s="180">
         <f t="shared" si="6"/>
-        <v>3340.1429999999996</v>
+        <v>6680.2859999999991</v>
       </c>
       <c r="AE28"/>
       <c r="AF28" s="180">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="U29" s="174">
         <f t="shared" si="11"/>
-        <v>4016.904</v>
+        <v>8033.808</v>
       </c>
       <c r="V29" s="175">
         <f t="shared" si="4"/>
@@ -14805,23 +14805,23 @@
       </c>
       <c r="Z29" s="165">
         <f>$U$38</f>
-        <v>6549.3</v>
+        <v>13098.6</v>
       </c>
       <c r="AA29" s="165">
         <f t="shared" si="5"/>
-        <v>3274.6499999999996</v>
+        <v>6549.2999999999993</v>
       </c>
       <c r="AB29" s="165">
         <f t="shared" si="13"/>
-        <v>654.92999999999995</v>
+        <v>1309.8599999999999</v>
       </c>
       <c r="AC29" s="165">
         <f t="shared" si="20"/>
-        <v>800.47</v>
+        <v>1600.94</v>
       </c>
       <c r="AD29" s="166">
         <f t="shared" si="6"/>
-        <v>4730.0499999999993</v>
+        <v>9460.0999999999985</v>
       </c>
       <c r="AE29"/>
       <c r="AF29" s="166">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="U30" s="185">
         <f t="shared" ref="U30:U39" si="24">IF($S30&lt;$C$13,$D$13,IF($S30&lt;$C$14,$D$14,IF($S30&lt;$C$15,$D$15,IF($S30&lt;$C$16,$D$16,$D$17))))*($R30*$H$6*$H$8)/1000000</f>
-        <v>3318.3119999999999</v>
+        <v>6636.6239999999998</v>
       </c>
       <c r="V30" s="186">
         <f t="shared" si="4"/>
@@ -14901,23 +14901,23 @@
       </c>
       <c r="Z30" s="171">
         <f>$U$39+$U$40</f>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AA30" s="171">
         <f t="shared" si="5"/>
-        <v>654.92999999999995</v>
+        <v>1309.8599999999999</v>
       </c>
       <c r="AB30" s="171">
         <f t="shared" si="13"/>
-        <v>611.26800000000003</v>
+        <v>1222.5360000000001</v>
       </c>
       <c r="AC30" s="171">
         <f t="shared" si="20"/>
-        <v>181.92500000000001</v>
+        <v>363.85</v>
       </c>
       <c r="AD30" s="172">
         <f t="shared" si="6"/>
-        <v>1448.1229999999998</v>
+        <v>2896.2459999999996</v>
       </c>
       <c r="AE30"/>
       <c r="AF30" s="172">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="U31" s="188">
         <f t="shared" si="24"/>
-        <v>2619.7199999999998</v>
+        <v>5239.4399999999996</v>
       </c>
       <c r="V31" s="189">
         <f t="shared" si="4"/>
@@ -14997,23 +14997,23 @@
       </c>
       <c r="Z31" s="178">
         <f>$U$41</f>
-        <v>5676.06</v>
+        <v>11352.12</v>
       </c>
       <c r="AA31" s="178">
         <f t="shared" si="5"/>
-        <v>2838.03</v>
+        <v>5676.06</v>
       </c>
       <c r="AB31" s="178">
         <f t="shared" si="13"/>
-        <v>611.26800000000003</v>
+        <v>1222.5360000000001</v>
       </c>
       <c r="AC31" s="178">
         <f t="shared" si="20"/>
-        <v>960.56399999999996</v>
+        <v>1921.1279999999999</v>
       </c>
       <c r="AD31" s="179">
         <f t="shared" si="6"/>
-        <v>4409.8620000000001</v>
+        <v>8819.7240000000002</v>
       </c>
       <c r="AE31"/>
       <c r="AF31" s="179">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="U32" s="161">
         <f t="shared" si="24"/>
-        <v>2445.0720000000001</v>
+        <v>4890.1440000000002</v>
       </c>
       <c r="V32" s="162">
         <f t="shared" si="4"/>
@@ -15093,23 +15093,23 @@
       </c>
       <c r="Z32" s="159">
         <f>$U$42+$U$43</f>
-        <v>6467.4337500000001</v>
+        <v>12934.8675</v>
       </c>
       <c r="AA32" s="159">
         <f t="shared" si="5"/>
-        <v>3233.7168750000005</v>
+        <v>6467.4337500000011</v>
       </c>
       <c r="AB32" s="159">
         <f t="shared" si="13"/>
-        <v>567.60599999999999</v>
+        <v>1135.212</v>
       </c>
       <c r="AC32" s="159">
         <f t="shared" si="20"/>
-        <v>1135.212</v>
+        <v>2270.424</v>
       </c>
       <c r="AD32" s="180">
         <f t="shared" si="6"/>
-        <v>4936.5348750000012</v>
+        <v>9873.0697500000024</v>
       </c>
       <c r="AE32"/>
       <c r="AF32" s="180">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="U33" s="174">
         <f t="shared" si="24"/>
-        <v>2445.0720000000001</v>
+        <v>4890.1440000000002</v>
       </c>
       <c r="V33" s="175">
         <f t="shared" si="4"/>
@@ -15189,23 +15189,23 @@
       </c>
       <c r="Z33" s="165">
         <f>$U$44</f>
-        <v>5894.37</v>
+        <v>11788.74</v>
       </c>
       <c r="AA33" s="165">
         <f t="shared" si="5"/>
-        <v>2947.1849999999999</v>
+        <v>5894.37</v>
       </c>
       <c r="AB33" s="165">
         <f t="shared" si="13"/>
-        <v>815.02399999999989</v>
+        <v>1630.0479999999998</v>
       </c>
       <c r="AC33" s="165">
         <f t="shared" si="20"/>
-        <v>1004.226</v>
+        <v>2008.452</v>
       </c>
       <c r="AD33" s="166">
         <f t="shared" si="6"/>
-        <v>4766.4349999999995</v>
+        <v>9532.869999999999</v>
       </c>
       <c r="AE33"/>
       <c r="AF33" s="166">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="U34" s="185">
         <f t="shared" si="24"/>
-        <v>2270.424</v>
+        <v>4540.848</v>
       </c>
       <c r="V34" s="186">
         <f t="shared" si="4"/>
@@ -15285,23 +15285,23 @@
       </c>
       <c r="Z34" s="171">
         <f>$U$45</f>
-        <v>5566.9049999999997</v>
+        <v>11133.81</v>
       </c>
       <c r="AA34" s="171">
         <f t="shared" si="5"/>
-        <v>2783.4524999999999</v>
+        <v>5566.9049999999997</v>
       </c>
       <c r="AB34" s="171">
         <f t="shared" si="13"/>
-        <v>982.39499999999975</v>
+        <v>1964.7899999999995</v>
       </c>
       <c r="AC34" s="171">
         <f t="shared" si="20"/>
-        <v>829.57799999999997</v>
+        <v>1659.1559999999999</v>
       </c>
       <c r="AD34" s="172">
         <f t="shared" si="6"/>
-        <v>4595.4254999999994</v>
+        <v>9190.8509999999987</v>
       </c>
       <c r="AE34"/>
       <c r="AF34" s="172">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="U35" s="188">
         <f t="shared" si="24"/>
-        <v>1397.184</v>
+        <v>2794.3679999999999</v>
       </c>
       <c r="V35" s="189">
         <f t="shared" si="4"/>
@@ -15381,23 +15381,23 @@
       </c>
       <c r="Z35" s="178">
         <f>$U$46</f>
-        <v>5239.4399999999996</v>
+        <v>10478.879999999999</v>
       </c>
       <c r="AA35" s="178">
         <f t="shared" si="5"/>
-        <v>2619.7199999999998</v>
+        <v>5239.4399999999996</v>
       </c>
       <c r="AB35" s="178">
         <f t="shared" si="13"/>
-        <v>1637.325</v>
+        <v>3274.65</v>
       </c>
       <c r="AC35" s="178">
         <f t="shared" si="20"/>
-        <v>654.92999999999995</v>
+        <v>1309.8599999999999</v>
       </c>
       <c r="AD35" s="179">
         <f t="shared" si="6"/>
-        <v>4911.9750000000004</v>
+        <v>9823.9500000000007</v>
       </c>
       <c r="AE35"/>
       <c r="AF35" s="179">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="U36" s="194">
         <f t="shared" si="24"/>
-        <v>1862.9119999999998</v>
+        <v>3725.8239999999996</v>
       </c>
       <c r="V36" s="195">
         <f t="shared" si="4"/>
@@ -15477,23 +15477,23 @@
       </c>
       <c r="Z36" s="159">
         <f>$U$47</f>
-        <v>4911.9750000000004</v>
+        <v>9823.9500000000007</v>
       </c>
       <c r="AA36" s="159">
         <f t="shared" si="5"/>
-        <v>2455.9875000000002</v>
+        <v>4911.9750000000004</v>
       </c>
       <c r="AB36" s="159">
         <f t="shared" si="13"/>
-        <v>327.46499999999997</v>
+        <v>654.92999999999995</v>
       </c>
       <c r="AC36" s="159">
         <f t="shared" si="20"/>
-        <v>611.26800000000003</v>
+        <v>1222.5360000000001</v>
       </c>
       <c r="AD36" s="180">
         <f>AA36+AB36+AC36</f>
-        <v>3394.7205000000004</v>
+        <v>6789.4410000000007</v>
       </c>
       <c r="AE36"/>
       <c r="AF36" s="180">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="U37" s="207">
         <f t="shared" si="24"/>
-        <v>3929.579999999999</v>
+        <v>7859.159999999998</v>
       </c>
       <c r="V37" s="208">
         <f t="shared" si="4"/>
@@ -15573,23 +15573,23 @@
       </c>
       <c r="Z37" s="165">
         <f>$U$48</f>
-        <v>5239.4399999999996</v>
+        <v>10478.879999999999</v>
       </c>
       <c r="AA37" s="165">
         <f t="shared" si="5"/>
-        <v>2619.7199999999998</v>
+        <v>5239.4399999999996</v>
       </c>
       <c r="AB37" s="165">
         <f t="shared" si="13"/>
-        <v>1419.0150000000001</v>
+        <v>2838.03</v>
       </c>
       <c r="AC37" s="165">
         <f t="shared" si="20"/>
-        <v>611.26800000000003</v>
+        <v>1222.5360000000001</v>
       </c>
       <c r="AD37" s="166">
         <f t="shared" si="6"/>
-        <v>4650.0029999999997</v>
+        <v>9300.0059999999994</v>
       </c>
       <c r="AE37"/>
       <c r="AF37" s="166">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="U38" s="174">
         <f t="shared" si="24"/>
-        <v>6549.3</v>
+        <v>13098.6</v>
       </c>
       <c r="V38" s="175">
         <f t="shared" si="4"/>
@@ -15669,23 +15669,23 @@
       </c>
       <c r="Z38" s="171">
         <f>$U$49</f>
-        <v>6385.5675000000001</v>
+        <v>12771.135</v>
       </c>
       <c r="AA38" s="171">
         <f t="shared" si="5"/>
-        <v>3192.7837500000001</v>
+        <v>6385.5675000000001</v>
       </c>
       <c r="AB38" s="171">
         <f t="shared" si="13"/>
-        <v>1616.8584375</v>
+        <v>3233.7168750000001</v>
       </c>
       <c r="AC38" s="171">
         <f t="shared" si="20"/>
-        <v>567.60599999999999</v>
+        <v>1135.212</v>
       </c>
       <c r="AD38" s="172">
         <f t="shared" si="6"/>
-        <v>5377.2481874999994</v>
+        <v>10754.496374999999</v>
       </c>
       <c r="AE38"/>
       <c r="AF38" s="172">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="U39" s="185">
         <f t="shared" si="24"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="V39" s="186">
         <f t="shared" si="4"/>
@@ -15765,23 +15765,23 @@
       </c>
       <c r="Z39" s="178">
         <f>$U$50+$U$51</f>
-        <v>9005.2875000000004</v>
+        <v>18010.575000000001</v>
       </c>
       <c r="AA39" s="178">
         <f t="shared" si="5"/>
-        <v>4502.6437500000002</v>
+        <v>9005.2875000000004</v>
       </c>
       <c r="AB39" s="178">
         <f t="shared" si="13"/>
-        <v>1473.5925</v>
+        <v>2947.1849999999999</v>
       </c>
       <c r="AC39" s="178">
         <f t="shared" si="20"/>
-        <v>815.02399999999989</v>
+        <v>1630.0479999999998</v>
       </c>
       <c r="AD39" s="179">
         <f t="shared" si="6"/>
-        <v>6791.2602499999994</v>
+        <v>13582.520499999999</v>
       </c>
       <c r="AE39"/>
       <c r="AF39" s="179">
@@ -15861,23 +15861,23 @@
       </c>
       <c r="Z40" s="159">
         <f>$U$52</f>
-        <v>11352.12</v>
+        <v>22704.240000000002</v>
       </c>
       <c r="AA40" s="159">
         <f t="shared" si="5"/>
-        <v>5676.06</v>
+        <v>11352.12</v>
       </c>
       <c r="AB40" s="159">
         <f t="shared" si="13"/>
-        <v>1391.7262499999999</v>
+        <v>2783.4524999999999</v>
       </c>
       <c r="AC40" s="159">
         <f t="shared" si="20"/>
-        <v>982.39499999999975</v>
+        <v>1964.7899999999995</v>
       </c>
       <c r="AD40" s="180">
         <f t="shared" si="6"/>
-        <v>8050.1812499999996</v>
+        <v>16100.362499999999</v>
       </c>
       <c r="AE40"/>
       <c r="AF40" s="180">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="U41" s="188">
         <f t="shared" si="27"/>
-        <v>5676.06</v>
+        <v>11352.12</v>
       </c>
       <c r="V41" s="189">
         <f t="shared" si="4"/>
@@ -15956,23 +15956,23 @@
       </c>
       <c r="Z41" s="165">
         <f>$U$53</f>
-        <v>9823.9500000000007</v>
+        <v>19647.900000000001</v>
       </c>
       <c r="AA41" s="165">
         <f t="shared" si="5"/>
-        <v>4911.9750000000004</v>
+        <v>9823.9500000000007</v>
       </c>
       <c r="AB41" s="165">
         <f t="shared" si="13"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AC41" s="165">
         <f t="shared" si="20"/>
-        <v>1637.325</v>
+        <v>3274.65</v>
       </c>
       <c r="AD41" s="166">
         <f t="shared" si="6"/>
-        <v>7859.16</v>
+        <v>15718.32</v>
       </c>
       <c r="AE41"/>
       <c r="AF41" s="166">
@@ -16026,7 +16026,7 @@
       </c>
       <c r="U42" s="161">
         <f t="shared" si="27"/>
-        <v>3192.7837500000001</v>
+        <v>6385.5675000000001</v>
       </c>
       <c r="V42" s="162">
         <f t="shared" si="4"/>
@@ -16040,23 +16040,23 @@
       </c>
       <c r="Z42" s="171">
         <f>$U$54+$U$55</f>
-        <v>2235.4944</v>
+        <v>4470.9888000000001</v>
       </c>
       <c r="AA42" s="171">
         <f>$AJ$3*Z42%</f>
-        <v>1117.7472</v>
+        <v>2235.4944</v>
       </c>
       <c r="AB42" s="171">
         <f t="shared" si="13"/>
-        <v>1227.9937500000001</v>
+        <v>2455.9875000000002</v>
       </c>
       <c r="AC42" s="171">
         <f t="shared" si="20"/>
-        <v>327.46499999999997</v>
+        <v>654.92999999999995</v>
       </c>
       <c r="AD42" s="172">
         <f t="shared" si="6"/>
-        <v>2673.2059500000005</v>
+        <v>5346.411900000001</v>
       </c>
       <c r="AE42"/>
       <c r="AF42" s="229">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="U43" s="161">
         <f t="shared" si="27"/>
-        <v>3274.65</v>
+        <v>6549.3</v>
       </c>
       <c r="V43" s="162">
         <f t="shared" si="4"/>
@@ -16131,15 +16131,15 @@
       </c>
       <c r="AB43" s="211">
         <f t="shared" si="13"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AC43" s="211">
         <f t="shared" si="20"/>
-        <v>1419.0150000000001</v>
+        <v>2838.03</v>
       </c>
       <c r="AD43" s="212">
         <f t="shared" si="6"/>
-        <v>2728.875</v>
+        <v>5457.75</v>
       </c>
       <c r="AE43"/>
     </row>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="U44" s="174">
         <f t="shared" si="27"/>
-        <v>5894.37</v>
+        <v>11788.74</v>
       </c>
       <c r="V44" s="175">
         <f t="shared" si="4"/>
@@ -16206,15 +16206,15 @@
       </c>
       <c r="AB44" s="211">
         <f t="shared" si="13"/>
-        <v>1596.391875</v>
+        <v>3192.7837500000001</v>
       </c>
       <c r="AC44" s="211">
         <f t="shared" si="20"/>
-        <v>1616.8584375</v>
+        <v>3233.7168750000001</v>
       </c>
       <c r="AD44" s="212">
         <f t="shared" si="6"/>
-        <v>3213.2503125000003</v>
+        <v>6426.5006250000006</v>
       </c>
       <c r="AE44"/>
     </row>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="U45" s="185">
         <f t="shared" si="27"/>
-        <v>5566.9049999999997</v>
+        <v>11133.81</v>
       </c>
       <c r="V45" s="186">
         <f t="shared" si="4"/>
@@ -16281,15 +16281,15 @@
       </c>
       <c r="AB45" s="211">
         <f t="shared" si="13"/>
-        <v>2251.3218750000001</v>
+        <v>4502.6437500000002</v>
       </c>
       <c r="AC45" s="211">
         <f t="shared" si="20"/>
-        <v>1473.5925</v>
+        <v>2947.1849999999999</v>
       </c>
       <c r="AD45" s="212">
         <f t="shared" si="6"/>
-        <v>3724.9143750000003</v>
+        <v>7449.8287500000006</v>
       </c>
       <c r="AE45"/>
     </row>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="U46" s="188">
         <f t="shared" si="27"/>
-        <v>5239.4399999999996</v>
+        <v>10478.879999999999</v>
       </c>
       <c r="V46" s="189">
         <f t="shared" si="4"/>
@@ -16356,15 +16356,15 @@
       </c>
       <c r="AB46" s="211">
         <f t="shared" si="13"/>
-        <v>2838.03</v>
+        <v>5676.06</v>
       </c>
       <c r="AC46" s="211">
         <f t="shared" si="20"/>
-        <v>1391.7262499999999</v>
+        <v>2783.4524999999999</v>
       </c>
       <c r="AD46" s="212">
         <f t="shared" si="6"/>
-        <v>4229.7562500000004</v>
+        <v>8459.5125000000007</v>
       </c>
       <c r="AE46"/>
     </row>
@@ -16410,7 +16410,7 @@
       </c>
       <c r="U47" s="161">
         <f t="shared" si="27"/>
-        <v>4911.9750000000004</v>
+        <v>9823.9500000000007</v>
       </c>
       <c r="V47" s="162">
         <f t="shared" si="4"/>
@@ -16431,15 +16431,15 @@
       </c>
       <c r="AB47" s="211">
         <f t="shared" si="13"/>
-        <v>2455.9875000000002</v>
+        <v>4911.9750000000004</v>
       </c>
       <c r="AC47" s="211">
         <f t="shared" si="20"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AD47" s="212">
         <f t="shared" si="6"/>
-        <v>3765.8474999999999</v>
+        <v>7531.6949999999997</v>
       </c>
       <c r="AE47"/>
     </row>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="U48" s="174">
         <f t="shared" si="27"/>
-        <v>5239.4399999999996</v>
+        <v>10478.879999999999</v>
       </c>
       <c r="V48" s="175">
         <f t="shared" si="4"/>
@@ -16506,15 +16506,15 @@
       </c>
       <c r="AB48" s="211">
         <f t="shared" si="13"/>
-        <v>558.87360000000001</v>
+        <v>1117.7472</v>
       </c>
       <c r="AC48" s="211">
         <f t="shared" si="20"/>
-        <v>1227.9937500000001</v>
+        <v>2455.9875000000002</v>
       </c>
       <c r="AD48" s="212">
         <f t="shared" si="6"/>
-        <v>1786.86735</v>
+        <v>3573.7347</v>
       </c>
       <c r="AE48"/>
     </row>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="U49" s="185">
         <f t="shared" si="27"/>
-        <v>6385.5675000000001</v>
+        <v>12771.135</v>
       </c>
       <c r="V49" s="186">
         <f t="shared" si="4"/>
@@ -16585,11 +16585,11 @@
       </c>
       <c r="AC49" s="211">
         <f t="shared" si="20"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AD49" s="212">
         <f t="shared" si="6"/>
-        <v>1309.8599999999999</v>
+        <v>2619.7199999999998</v>
       </c>
       <c r="AE49"/>
     </row>
@@ -16635,7 +16635,7 @@
       </c>
       <c r="U50" s="188">
         <f t="shared" si="27"/>
-        <v>3547.5374999999999</v>
+        <v>7095.0749999999998</v>
       </c>
       <c r="V50" s="189">
         <f t="shared" si="4"/>
@@ -16660,11 +16660,11 @@
       </c>
       <c r="AC50" s="211">
         <f t="shared" si="20"/>
-        <v>1596.391875</v>
+        <v>3192.7837500000001</v>
       </c>
       <c r="AD50" s="212">
         <f t="shared" si="6"/>
-        <v>1596.391875</v>
+        <v>3192.7837500000001</v>
       </c>
       <c r="AE50"/>
     </row>
@@ -16710,7 +16710,7 @@
       </c>
       <c r="U51" s="188">
         <f t="shared" si="27"/>
-        <v>5457.75</v>
+        <v>10915.5</v>
       </c>
       <c r="V51" s="189">
         <f t="shared" si="4"/>
@@ -16735,11 +16735,11 @@
       </c>
       <c r="AC51" s="211">
         <f t="shared" si="20"/>
-        <v>2251.3218750000001</v>
+        <v>4502.6437500000002</v>
       </c>
       <c r="AD51" s="212">
         <f t="shared" si="6"/>
-        <v>2251.3218750000001</v>
+        <v>4502.6437500000002</v>
       </c>
       <c r="AE51"/>
     </row>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="U52" s="161">
         <f t="shared" si="27"/>
-        <v>11352.12</v>
+        <v>22704.240000000002</v>
       </c>
       <c r="V52" s="162">
         <f t="shared" si="4"/>
@@ -16810,11 +16810,11 @@
       </c>
       <c r="AC52" s="211">
         <f t="shared" si="20"/>
-        <v>2838.03</v>
+        <v>5676.06</v>
       </c>
       <c r="AD52" s="212">
         <f t="shared" si="6"/>
-        <v>2838.03</v>
+        <v>5676.06</v>
       </c>
       <c r="AE52"/>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="U53" s="174">
         <f t="shared" si="27"/>
-        <v>9823.9500000000007</v>
+        <v>19647.900000000001</v>
       </c>
       <c r="V53" s="175">
         <f t="shared" si="4"/>
@@ -16885,11 +16885,11 @@
       </c>
       <c r="AC53" s="211">
         <f t="shared" si="20"/>
-        <v>2455.9875000000002</v>
+        <v>4911.9750000000004</v>
       </c>
       <c r="AD53" s="212">
         <f t="shared" si="6"/>
-        <v>2455.9875000000002</v>
+        <v>4911.9750000000004</v>
       </c>
       <c r="AE53"/>
     </row>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="U54" s="185">
         <f t="shared" si="27"/>
-        <v>2183.1</v>
+        <v>4366.2</v>
       </c>
       <c r="V54" s="186">
         <f t="shared" si="4"/>
@@ -16960,11 +16960,11 @@
       </c>
       <c r="AC54" s="211">
         <f t="shared" si="20"/>
-        <v>558.87360000000001</v>
+        <v>1117.7472</v>
       </c>
       <c r="AD54" s="212">
         <f t="shared" si="6"/>
-        <v>558.87360000000001</v>
+        <v>1117.7472</v>
       </c>
       <c r="AE54"/>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="U55" s="218">
         <f t="shared" si="27"/>
-        <v>52.394399999999997</v>
+        <v>104.78879999999999</v>
       </c>
       <c r="V55" s="219">
         <f t="shared" si="4"/>
@@ -17227,7 +17227,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
@@ -17263,12 +17263,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="338">
+      <c r="A2" s="230">
         <v>44562</v>
       </c>
-      <c r="B2">
-        <f>F2+G2+H2</f>
-        <v>1772.6772000000001</v>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:B33" si="0">F2+G2+H2</f>
+        <v>1012.9584000000001</v>
       </c>
       <c r="C2">
         <v>84</v>
@@ -17277,12 +17277,12 @@
         <v>21272.126400000001</v>
       </c>
       <c r="E2">
-        <f>D2/6</f>
-        <v>3545.3544000000002</v>
+        <f>D2/21*2</f>
+        <v>2025.9168000000002</v>
       </c>
       <c r="F2">
         <f>E2/2</f>
-        <v>1772.6772000000001</v>
+        <v>1012.9584000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -17292,12 +17292,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="338">
+      <c r="A3" s="230">
         <v>44593</v>
       </c>
-      <c r="B3">
-        <f>F3+G3+H3</f>
-        <v>2292.2550000000001</v>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>1309.8600000000001</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -17306,12 +17306,12 @@
         <v>27507.06</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E65" si="0">D3/6</f>
-        <v>4584.51</v>
+        <f t="shared" ref="E3:E65" si="1">D3/21*2</f>
+        <v>2619.7200000000003</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F65" si="1">E3/2</f>
-        <v>2292.2550000000001</v>
+        <f t="shared" ref="F3:F65" si="2">E3/2</f>
+        <v>1309.8600000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -17321,12 +17321,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338">
+      <c r="A4" s="230">
         <v>44621</v>
       </c>
-      <c r="B4">
-        <f>F4+G4+H4</f>
-        <v>183.38040000000001</v>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>104.78880000000001</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -17335,12 +17335,12 @@
         <v>2200.5648000000001</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>366.76080000000002</v>
+        <f t="shared" si="1"/>
+        <v>209.57760000000002</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>183.38040000000001</v>
+        <f t="shared" si="2"/>
+        <v>104.78880000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -17350,12 +17350,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="338">
+      <c r="A5" s="230">
         <v>44652</v>
       </c>
-      <c r="B5">
-        <f>F5+G5+H5</f>
-        <v>4401.7539999999999</v>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2515.288</v>
       </c>
       <c r="C5">
         <v>240</v>
@@ -17364,12 +17364,12 @@
         <v>52821.048000000003</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>8803.5079999999998</v>
+        <f t="shared" si="1"/>
+        <v>5030.576</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>4401.7539999999999</v>
+        <f t="shared" si="2"/>
+        <v>2515.288</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -17379,12 +17379,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="338">
+      <c r="A6" s="230">
         <v>44682</v>
       </c>
-      <c r="B6">
-        <f>F6+G6+H6</f>
-        <v>1935.682</v>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>1106.104</v>
       </c>
       <c r="C6">
         <v>76</v>
@@ -17393,12 +17393,12 @@
         <v>23228.184000000001</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3871.364</v>
+        <f t="shared" si="1"/>
+        <v>2212.2080000000001</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1935.682</v>
+        <f t="shared" si="2"/>
+        <v>1106.104</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -17408,12 +17408,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="338">
+      <c r="A7" s="230">
         <v>44713</v>
       </c>
-      <c r="B7">
-        <f>F7+G7+H7</f>
-        <v>2546.9500000000003</v>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>1455.4</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -17422,12 +17422,12 @@
         <v>30563.4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>5093.9000000000005</v>
+        <f t="shared" si="1"/>
+        <v>2910.8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2546.9500000000003</v>
+        <f t="shared" si="2"/>
+        <v>1455.4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -17437,12 +17437,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="338">
+      <c r="A8" s="230">
         <v>44743</v>
       </c>
-      <c r="B8">
-        <f>F8+G8+H8</f>
-        <v>3025.7765999999997</v>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>1729.0151999999998</v>
       </c>
       <c r="C8">
         <v>84</v>
@@ -17451,28 +17451,28 @@
         <v>25673.255999999998</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4278.8759999999993</v>
+        <f t="shared" si="1"/>
+        <v>2445.0719999999997</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2139.4379999999996</v>
+        <f t="shared" si="2"/>
+        <v>1222.5359999999998</v>
       </c>
       <c r="G8">
         <f>F2/2</f>
-        <v>886.33860000000004</v>
+        <v>506.47920000000005</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="338">
+      <c r="A9" s="230">
         <v>44774</v>
       </c>
-      <c r="B9">
-        <f>F9+G9+H9</f>
-        <v>3056.3399999999992</v>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>1746.4799999999998</v>
       </c>
       <c r="C9">
         <v>75</v>
@@ -17481,28 +17481,28 @@
         <v>22922.549999999992</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3820.4249999999988</v>
+        <f t="shared" si="1"/>
+        <v>2183.0999999999995</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1910.2124999999994</v>
+        <f t="shared" si="2"/>
+        <v>1091.5499999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G65" si="2">F3/2</f>
-        <v>1146.1275000000001</v>
+        <f t="shared" ref="G9:G65" si="3">F3/2</f>
+        <v>654.93000000000006</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="338">
+      <c r="A10" s="230">
         <v>44805</v>
       </c>
-      <c r="B10">
-        <f>F10+G10+H10</f>
-        <v>1747.2076999999997</v>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>998.40439999999978</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -17511,28 +17511,28 @@
         <v>19866.209999999995</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>3311.0349999999994</v>
+        <f t="shared" si="1"/>
+        <v>1892.0199999999995</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1655.5174999999997</v>
+        <f t="shared" si="2"/>
+        <v>946.00999999999976</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>91.690200000000004</v>
+        <f t="shared" si="3"/>
+        <v>52.394400000000005</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="338">
+      <c r="A11" s="230">
         <v>44835</v>
       </c>
-      <c r="B11">
-        <f>F11+G11+H11</f>
-        <v>3347.0045</v>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1912.5739999999998</v>
       </c>
       <c r="C11">
         <v>45</v>
@@ -17541,28 +17541,28 @@
         <v>13753.529999999997</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2292.2549999999997</v>
+        <f t="shared" si="1"/>
+        <v>1309.8599999999997</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1146.1274999999998</v>
+        <f t="shared" si="2"/>
+        <v>654.92999999999984</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>2200.877</v>
+        <f t="shared" si="3"/>
+        <v>1257.644</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="338">
+      <c r="A12" s="230">
         <v>44866</v>
       </c>
-      <c r="B12">
-        <f>F12+G12+H12</f>
-        <v>3005.4009999999994</v>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1717.3719999999998</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -17571,28 +17571,28 @@
         <v>24450.719999999994</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>4075.119999999999</v>
+        <f t="shared" si="1"/>
+        <v>2328.6399999999994</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>2037.5599999999995</v>
+        <f t="shared" si="2"/>
+        <v>1164.3199999999997</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>967.84100000000001</v>
+        <f t="shared" si="3"/>
+        <v>553.05200000000002</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="338">
+      <c r="A13" s="230">
         <v>44896</v>
       </c>
-      <c r="B13">
-        <f>F13+G13+H13</f>
-        <v>4457.1625000000004</v>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2546.9499999999998</v>
       </c>
       <c r="C13">
         <v>105</v>
@@ -17601,28 +17601,28 @@
         <v>38204.25</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>6367.375</v>
+        <f t="shared" si="1"/>
+        <v>3638.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>3183.6875</v>
+        <f t="shared" si="2"/>
+        <v>1819.25</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>1273.4750000000001</v>
+        <f t="shared" si="3"/>
+        <v>727.7</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="338">
+      <c r="A14" s="230">
         <v>44927</v>
       </c>
-      <c r="B14">
-        <f>F14+G14+H14</f>
-        <v>5776.4825999999994</v>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>3300.8472000000002</v>
       </c>
       <c r="C14">
         <v>125</v>
@@ -17631,29 +17631,29 @@
         <v>45845.1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>7640.8499999999995</v>
+        <f t="shared" si="1"/>
+        <v>4366.2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>3820.4249999999997</v>
+        <f t="shared" si="2"/>
+        <v>2183.1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1069.7189999999998</v>
+        <f t="shared" si="3"/>
+        <v>611.26799999999992</v>
       </c>
       <c r="H14">
         <f>G8</f>
-        <v>886.33860000000004</v>
+        <v>506.47920000000005</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="338">
+      <c r="A15" s="230">
         <v>44958</v>
       </c>
-      <c r="B15">
-        <f>F15+G15+H15</f>
-        <v>7704.5237500000003</v>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>4402.5850000000009</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -17662,29 +17662,29 @@
         <v>67239.48000000001</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>6403.7600000000011</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3201.8800000000006</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>545.77499999999986</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H65" si="4">G9</f>
+        <v>654.93000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="230">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>11206.580000000002</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>5603.2900000000009</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>955.1062499999997</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H65" si="3">G9</f>
-        <v>1146.1275000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="338">
-        <v>44986</v>
-      </c>
-      <c r="B16">
-        <f>F16+G16+H16</f>
-        <v>2192.9239499999999</v>
+        <v>1253.0993999999998</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -17693,29 +17693,29 @@
         <v>15281.7</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1455.4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>727.7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>473.00499999999988</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>52.394400000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="230">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>2546.9500000000003</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1273.4750000000001</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>827.75874999999985</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>91.690200000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="338">
-        <v>45017</v>
-      </c>
-      <c r="B17">
-        <f>F17+G17+H17</f>
-        <v>9497.8887500000001</v>
+        <v>5427.3650000000007</v>
       </c>
       <c r="C17">
         <v>220</v>
@@ -17724,29 +17724,29 @@
         <v>80687.376000000004</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>7684.5120000000006</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>3842.2560000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>327.46499999999992</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>1257.644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="230">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>13447.896000000001</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>6723.9480000000003</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>573.06374999999991</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>2200.877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="338">
-        <v>45047</v>
-      </c>
-      <c r="B18">
-        <f>F18+G18+H18</f>
-        <v>9933.1049999999996</v>
+        <v>5676.0599999999995</v>
       </c>
       <c r="C18">
         <v>260</v>
@@ -17755,29 +17755,29 @@
         <v>95357.808000000005</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>9081.6959999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>4540.848</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>582.15999999999985</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>553.05200000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="230">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>15892.968000000001</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>7946.4840000000004</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1018.7799999999997</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>967.84100000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="338">
-        <v>45078</v>
-      </c>
-      <c r="B19">
-        <f>F19+G19+H19</f>
-        <v>9894.9007499999989</v>
+        <v>5654.2290000000003</v>
       </c>
       <c r="C19">
         <v>230</v>
@@ -17786,29 +17786,29 @@
         <v>84354.983999999997</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>8033.808</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>4016.904</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>909.625</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>727.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="230">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>14059.163999999999</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>7029.5819999999994</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1591.84375</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>1273.4750000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="338">
-        <v>45108</v>
-      </c>
-      <c r="B20">
-        <f>F20+G20+H20</f>
-        <v>8786.9774999999991</v>
+        <v>5021.13</v>
       </c>
       <c r="C20">
         <v>190</v>
@@ -17817,29 +17817,29 @@
         <v>69684.551999999996</v>
       </c>
       <c r="E20">
+        <f t="shared" si="1"/>
+        <v>6636.6239999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3318.3119999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>1091.55</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>611.26799999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="230">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>11614.091999999999</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>5807.0459999999994</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>1910.2124999999999</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1069.7189999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="338">
-        <v>45139</v>
-      </c>
-      <c r="B21">
-        <f>F21+G21+H21</f>
-        <v>8341.2612499999996</v>
+        <v>4766.4350000000004</v>
       </c>
       <c r="C21">
         <v>150</v>
@@ -17848,29 +17848,29 @@
         <v>55014.12</v>
       </c>
       <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5239.4400000000005</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2619.7200000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1600.9400000000003</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>545.77499999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="230">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>9169.02</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>4584.51</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>2801.6450000000004</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>955.1062499999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="338">
-        <v>45170</v>
-      </c>
-      <c r="B22">
-        <f>F22+G22+H22</f>
-        <v>5743.3722500000003</v>
+        <v>3281.9269999999997</v>
       </c>
       <c r="C22">
         <v>140</v>
@@ -17879,29 +17879,29 @@
         <v>51346.512000000002</v>
       </c>
       <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4890.1440000000002</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>2445.0720000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>363.85</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>473.00499999999988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="230">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>8557.7520000000004</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>4278.8760000000002</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>636.73750000000007</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>827.75874999999985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="338">
-        <v>45200</v>
-      </c>
-      <c r="B23">
-        <f>F23+G23+H23</f>
-        <v>8213.9137499999997</v>
+        <v>4693.6650000000009</v>
       </c>
       <c r="C23">
         <v>140</v>
@@ -17910,29 +17910,29 @@
         <v>51346.512000000002</v>
       </c>
       <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4890.1440000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2445.0720000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1921.1280000000002</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>327.46499999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="230">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>8557.7520000000004</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>4278.8760000000002</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>3361.9740000000002</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>573.06374999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="338">
-        <v>45231</v>
-      </c>
-      <c r="B24">
-        <f>F24+G24+H24</f>
-        <v>8965.2639999999992</v>
+        <v>5123.0079999999998</v>
       </c>
       <c r="C24">
         <v>130</v>
@@ -17941,29 +17941,29 @@
         <v>47678.904000000002</v>
       </c>
       <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4540.848</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2270.424</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>2270.424</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>582.15999999999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="230">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>7946.4840000000004</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>3973.2420000000002</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>3973.2420000000002</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>1018.7799999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="338">
-        <v>45261</v>
-      </c>
-      <c r="B25">
-        <f>F25+G25+H25</f>
-        <v>10811.802750000001</v>
+        <v>6178.1729999999998</v>
       </c>
       <c r="C25">
         <v>160</v>
@@ -17972,29 +17972,29 @@
         <v>68462.016000000003</v>
       </c>
       <c r="E25">
+        <f t="shared" si="1"/>
+        <v>6520.192</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3260.096</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>2008.452</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>909.625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="230">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>11410.336000000001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>5705.1680000000006</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>3514.7909999999997</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>1591.84375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="338">
-        <v>45292</v>
-      </c>
-      <c r="B26">
-        <f>F26+G26+H26</f>
-        <v>11690.500499999998</v>
+        <v>6680.2859999999991</v>
       </c>
       <c r="C26">
         <v>225</v>
@@ -18003,29 +18003,29 @@
         <v>82521.179999999978</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
+        <v>7859.159999999998</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3929.579999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1659.1559999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>1091.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="230">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>13753.529999999997</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>6876.7649999999985</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>2903.5229999999997</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>1910.2124999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="338">
-        <v>45323</v>
-      </c>
-      <c r="B27">
-        <f>F27+G27+H27</f>
-        <v>16555.174999999999</v>
+        <v>9460.1</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -18034,29 +18034,29 @@
         <v>137535.29999999999</v>
       </c>
       <c r="E27">
+        <f t="shared" si="1"/>
+        <v>13098.599999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>6549.2999999999993</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1309.8600000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1600.9400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="230">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>22922.55</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>11461.275</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>2292.2550000000001</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>2801.6450000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="338">
-        <v>45352</v>
-      </c>
-      <c r="B28">
-        <f>F28+G28+H28</f>
-        <v>5068.4305000000004</v>
+        <v>2896.2460000000001</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -18065,29 +18065,29 @@
         <v>27507.06</v>
       </c>
       <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2619.7200000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1309.8600000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>1222.5360000000001</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>363.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="230">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>4584.51</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>2292.2550000000001</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2139.4380000000001</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>636.73750000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="338">
-        <v>45383</v>
-      </c>
-      <c r="B29">
-        <f>F29+G29+H29</f>
-        <v>15434.517</v>
+        <v>8819.7240000000002</v>
       </c>
       <c r="C29">
         <v>400</v>
@@ -18096,29 +18096,29 @@
         <v>119197.26</v>
       </c>
       <c r="E29">
+        <f t="shared" si="1"/>
+        <v>11352.119999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>5676.0599999999995</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>1222.5360000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1921.1280000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="230">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>19866.21</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>9933.1049999999996</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>2139.4380000000001</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>3361.9740000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="338">
-        <v>45413</v>
-      </c>
-      <c r="B30">
-        <f>F30+G30+H30</f>
-        <v>17277.872062499999</v>
+        <v>9873.0697500000024</v>
       </c>
       <c r="C30">
         <v>475</v>
@@ -18127,29 +18127,29 @@
         <v>135816.10875000001</v>
       </c>
       <c r="E30">
+        <f t="shared" si="1"/>
+        <v>12934.867500000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>6467.4337500000011</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1135.212</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>2270.424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="230">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>22636.018125000002</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>11318.009062500001</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>1986.6210000000001</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>3973.2420000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="338">
-        <v>45444</v>
-      </c>
-      <c r="B31">
-        <f>F31+G31+H31</f>
-        <v>16682.522500000003</v>
+        <v>9532.869999999999</v>
       </c>
       <c r="C31">
         <v>450</v>
@@ -18158,29 +18158,29 @@
         <v>123781.77</v>
       </c>
       <c r="E31">
+        <f t="shared" si="1"/>
+        <v>11788.74</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>5894.37</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>1630.048</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>2008.452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="230">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>20630.295000000002</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>10315.147500000001</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>2852.5840000000003</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>3514.7909999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="338">
-        <v>45474</v>
-      </c>
-      <c r="B32">
-        <f>F32+G32+H32</f>
-        <v>16083.989249999999</v>
+        <v>9190.8509999999987</v>
       </c>
       <c r="C32">
         <v>425</v>
@@ -18189,29 +18189,29 @@
         <v>116905.005</v>
       </c>
       <c r="E32">
+        <f t="shared" si="1"/>
+        <v>11133.810000000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>5566.9050000000007</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>1964.7899999999995</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>1659.1559999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="230">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>19484.1675</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>9742.0837499999998</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>3438.3824999999993</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>2903.5229999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="338">
-        <v>45505</v>
-      </c>
-      <c r="B33">
-        <f>F33+G33+H33</f>
-        <v>17191.912500000002</v>
+        <v>9823.9500000000007</v>
       </c>
       <c r="C33">
         <v>400</v>
@@ -18220,29 +18220,29 @@
         <v>110028.24</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>18338.04</v>
+        <f t="shared" si="1"/>
+        <v>10478.880000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>9169.02</v>
+        <f t="shared" si="2"/>
+        <v>5239.4400000000005</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>5730.6374999999998</v>
+        <f t="shared" si="3"/>
+        <v>3274.6499999999996</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>2292.2550000000001</v>
+        <f t="shared" si="4"/>
+        <v>1309.8600000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="338">
+      <c r="A34" s="230">
         <v>45536</v>
       </c>
-      <c r="B34">
-        <f>F34+G34+H34</f>
-        <v>11881.521750000002</v>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B65" si="5">F34+G34+H34</f>
+        <v>6789.4410000000007</v>
       </c>
       <c r="C34">
         <v>375</v>
@@ -18251,29 +18251,29 @@
         <v>103151.47500000001</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>17191.912500000002</v>
+        <f t="shared" si="1"/>
+        <v>9823.9500000000007</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>8595.9562500000011</v>
+        <f t="shared" si="2"/>
+        <v>4911.9750000000004</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
-        <v>1146.1275000000001</v>
+        <f t="shared" si="3"/>
+        <v>654.93000000000006</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>2139.4380000000001</v>
+        <f t="shared" si="4"/>
+        <v>1222.5360000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="338">
+      <c r="A35" s="230">
         <v>45566</v>
       </c>
-      <c r="B35">
-        <f>F35+G35+H35</f>
-        <v>16275.0105</v>
+      <c r="B35" s="1">
+        <f t="shared" si="5"/>
+        <v>9300.0060000000012</v>
       </c>
       <c r="C35">
         <v>400</v>
@@ -18282,29 +18282,29 @@
         <v>110028.24</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>18338.04</v>
+        <f t="shared" si="1"/>
+        <v>10478.880000000001</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>9169.02</v>
+        <f t="shared" si="2"/>
+        <v>5239.4400000000005</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
-        <v>4966.5524999999998</v>
+        <f t="shared" si="3"/>
+        <v>2838.0299999999997</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
-        <v>2139.4380000000001</v>
+        <f t="shared" si="4"/>
+        <v>1222.5360000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="338">
+      <c r="A36" s="230">
         <v>45597</v>
       </c>
-      <c r="B36">
-        <f>F36+G36+H36</f>
-        <v>18820.368656250001</v>
+      <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>10754.496375000001</v>
       </c>
       <c r="C36">
         <v>450</v>
@@ -18313,29 +18313,29 @@
         <v>134096.91750000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>22349.486250000002</v>
+        <f t="shared" si="1"/>
+        <v>12771.135</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>11174.743125000001</v>
+        <f t="shared" si="2"/>
+        <v>6385.5675000000001</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>5659.0045312500006</v>
+        <f t="shared" si="3"/>
+        <v>3233.7168750000005</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>1986.6210000000001</v>
+        <f t="shared" si="4"/>
+        <v>1135.212</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="338">
+      <c r="A37" s="230">
         <v>45627</v>
       </c>
-      <c r="B37">
-        <f>F37+G37+H37</f>
-        <v>23769.410875000001</v>
+      <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>13582.520500000001</v>
       </c>
       <c r="C37">
         <v>500</v>
@@ -18344,29 +18344,29 @@
         <v>189111.03750000001</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>31518.506250000002</v>
+        <f t="shared" si="1"/>
+        <v>18010.575000000001</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>15759.253125000001</v>
+        <f t="shared" si="2"/>
+        <v>9005.2875000000004</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
-        <v>5157.5737500000005</v>
+        <f t="shared" si="3"/>
+        <v>2947.1849999999999</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>2852.5840000000003</v>
+        <f t="shared" si="4"/>
+        <v>1630.048</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="338">
+      <c r="A38" s="230">
         <v>45658</v>
       </c>
-      <c r="B38">
-        <f>F38+G38+H38</f>
-        <v>28175.634374999998</v>
+      <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>16100.362499999997</v>
       </c>
       <c r="C38">
         <v>520</v>
@@ -18375,29 +18375,29 @@
         <v>238394.52</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>39732.42</v>
+        <f t="shared" si="1"/>
+        <v>22704.239999999998</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>19866.21</v>
+        <f t="shared" si="2"/>
+        <v>11352.119999999999</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
-        <v>4871.0418749999999</v>
+        <f t="shared" si="3"/>
+        <v>2783.4525000000003</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
-        <v>3438.3824999999993</v>
+        <f t="shared" si="4"/>
+        <v>1964.7899999999995</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="338">
+      <c r="A39" s="230">
         <v>45689</v>
       </c>
-      <c r="B39">
-        <f>F39+G39+H39</f>
-        <v>27507.06</v>
+      <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>15718.320000000002</v>
       </c>
       <c r="C39">
         <v>450</v>
@@ -18406,29 +18406,29 @@
         <v>206302.95</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>34383.825000000004</v>
+        <f t="shared" si="1"/>
+        <v>19647.900000000001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>17191.912500000002</v>
+        <f t="shared" si="2"/>
+        <v>9823.9500000000007</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
-        <v>4584.51</v>
+        <f t="shared" si="3"/>
+        <v>2619.7200000000003</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
-        <v>5730.6374999999998</v>
+        <f t="shared" si="4"/>
+        <v>3274.6499999999996</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="338">
+      <c r="A40" s="230">
         <v>45717</v>
       </c>
-      <c r="B40">
-        <f>F40+G40+H40</f>
-        <v>9356.2208250000022</v>
+      <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>5346.411900000001</v>
       </c>
       <c r="C40">
         <v>106</v>
@@ -18437,785 +18437,786 @@
         <v>46945.382400000002</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>7824.2304000000004</v>
+        <f t="shared" si="1"/>
+        <v>4470.9888000000001</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>3912.1152000000002</v>
+        <f t="shared" si="2"/>
+        <v>2235.4944</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
-        <v>4297.9781250000005</v>
+        <f t="shared" si="3"/>
+        <v>2455.9875000000002</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
-        <v>1146.1275000000001</v>
+        <f t="shared" si="4"/>
+        <v>654.93000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="338">
+      <c r="A41" s="230">
         <v>45748</v>
       </c>
-      <c r="B41">
-        <f>F41+G41+H41</f>
-        <v>31695.110801886789</v>
+      <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>18111.49188679245</v>
       </c>
       <c r="C41">
         <v>600</v>
       </c>
       <c r="D41">
-        <f>$D$40/$C$40*C41</f>
+        <f t="shared" ref="D41:D65" si="6">$D$40/$C$40*C41</f>
         <v>265728.5796226415</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>44288.096603773585</v>
+        <f t="shared" si="1"/>
+        <v>25307.483773584903</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>22144.048301886793</v>
+        <f t="shared" si="2"/>
+        <v>12653.741886792452</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
-        <v>4584.51</v>
+        <f t="shared" si="3"/>
+        <v>2619.7200000000003</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
-        <v>4966.5524999999998</v>
+        <f t="shared" si="4"/>
+        <v>2838.0299999999997</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="338">
+      <c r="A42" s="230">
         <v>45778</v>
       </c>
-      <c r="B42">
-        <f>F42+G42+H42</f>
-        <v>36158.430433372647</v>
+      <c r="B42" s="1">
+        <f t="shared" si="5"/>
+        <v>20661.960247641513</v>
       </c>
       <c r="C42">
         <v>675</v>
       </c>
       <c r="D42">
-        <f>$D$40/$C$40*C42</f>
+        <f t="shared" si="6"/>
         <v>298944.65207547171</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>49824.108679245284</v>
+        <f t="shared" si="1"/>
+        <v>28470.919245283021</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>24912.054339622642</v>
+        <f t="shared" si="2"/>
+        <v>14235.459622641511</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
-        <v>5587.3715625000004</v>
+        <f t="shared" si="3"/>
+        <v>3192.7837500000001</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
-        <v>5659.0045312500006</v>
+        <f t="shared" si="4"/>
+        <v>3233.7168750000005</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="338">
+      <c r="A43" s="230">
         <v>45809</v>
       </c>
-      <c r="B43">
-        <f>F43+G43+H43</f>
-        <v>38502.855859669813</v>
+      <c r="B43" s="1">
+        <f t="shared" si="5"/>
+        <v>22001.631919811323</v>
       </c>
       <c r="C43">
         <v>690</v>
       </c>
       <c r="D43">
-        <f>$D$40/$C$40*C43</f>
+        <f t="shared" si="6"/>
         <v>305587.86656603776</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>50931.311094339624</v>
+        <f t="shared" si="1"/>
+        <v>29103.606339622645</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>25465.655547169812</v>
+        <f t="shared" si="2"/>
+        <v>14551.803169811323</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
-        <v>7879.6265625000005</v>
+        <f t="shared" si="3"/>
+        <v>4502.6437500000002</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
-        <v>5157.5737500000005</v>
+        <f t="shared" si="4"/>
+        <v>2947.1849999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="338">
+      <c r="A44" s="230">
         <v>45839</v>
       </c>
-      <c r="B44">
-        <f>F44+G44+H44</f>
-        <v>41746.07230896227</v>
+      <c r="B44" s="1">
+        <f t="shared" si="5"/>
+        <v>23854.898462264151</v>
       </c>
       <c r="C44">
         <v>730</v>
       </c>
       <c r="D44">
-        <f>$D$40/$C$40*C44</f>
+        <f t="shared" si="6"/>
         <v>323303.1052075472</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>53883.850867924535</v>
+        <f t="shared" si="1"/>
+        <v>30790.771924528304</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>26941.925433962268</v>
+        <f t="shared" si="2"/>
+        <v>15395.385962264152</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
-        <v>9933.1049999999996</v>
+        <f t="shared" si="3"/>
+        <v>5676.0599999999995</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
-        <v>4871.0418749999999</v>
+        <f t="shared" si="4"/>
+        <v>2783.4525000000003</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="338">
+      <c r="A45" s="230">
         <v>45870</v>
       </c>
-      <c r="B45">
-        <f>F45+G45+H45</f>
-        <v>39015.189268867929</v>
+      <c r="B45" s="1">
+        <f t="shared" si="5"/>
+        <v>22294.393867924529</v>
       </c>
       <c r="C45">
         <v>700</v>
       </c>
       <c r="D45">
-        <f>$D$40/$C$40*C45</f>
+        <f t="shared" si="6"/>
         <v>310016.67622641509</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>51669.446037735848</v>
+        <f t="shared" si="1"/>
+        <v>29525.397735849056</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>25834.723018867924</v>
+        <f t="shared" si="2"/>
+        <v>14762.698867924528</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
-        <v>8595.9562500000011</v>
+        <f t="shared" si="3"/>
+        <v>4911.9750000000004</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
-        <v>4584.51</v>
+        <f t="shared" si="4"/>
+        <v>2619.7200000000003</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="338">
+      <c r="A46" s="230">
         <v>45901</v>
       </c>
-      <c r="B46">
-        <f>F46+G46+H46</f>
-        <v>33011.427423113208</v>
+      <c r="B46" s="1">
+        <f t="shared" si="5"/>
+        <v>18863.672813207548</v>
       </c>
       <c r="C46">
         <v>725</v>
       </c>
       <c r="D46">
-        <f>$D$40/$C$40*C46</f>
+        <f t="shared" si="6"/>
         <v>321088.70037735847</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>53514.783396226412</v>
+        <f t="shared" si="1"/>
+        <v>30579.876226415094</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>26757.391698113206</v>
+        <f t="shared" si="2"/>
+        <v>15289.938113207547</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
-        <v>1956.0576000000001</v>
+        <f t="shared" si="3"/>
+        <v>1117.7472</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
-        <v>4297.9781250000005</v>
+        <f t="shared" si="4"/>
+        <v>2455.9875000000002</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="338">
+      <c r="A47" s="230">
         <v>45931</v>
       </c>
-      <c r="B47">
-        <f>F47+G47+H47</f>
-        <v>44259.26320754717</v>
+      <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>25291.007547169811</v>
       </c>
       <c r="C47">
         <v>775</v>
       </c>
       <c r="D47">
-        <f>$D$40/$C$40*C47</f>
+        <f t="shared" si="6"/>
         <v>343232.7486792453</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>57205.458113207547</v>
+        <f t="shared" si="1"/>
+        <v>32688.83320754717</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>28602.729056603774</v>
+        <f t="shared" si="2"/>
+        <v>16344.416603773585</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
-        <v>11072.024150943396</v>
+        <f t="shared" si="3"/>
+        <v>6326.8709433962258</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
-        <v>4584.51</v>
+        <f t="shared" si="4"/>
+        <v>2619.7200000000003</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="338">
+      <c r="A48" s="230">
         <v>45962</v>
       </c>
-      <c r="B48">
-        <f>F48+G48+H48</f>
-        <v>47568.796468160377</v>
+      <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>27182.169410377355</v>
       </c>
       <c r="C48">
         <v>800</v>
       </c>
       <c r="D48">
-        <f>$D$40/$C$40*C48</f>
+        <f t="shared" si="6"/>
         <v>354304.77283018868</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>59050.795471698111</v>
+        <f t="shared" si="1"/>
+        <v>33743.311698113204</v>
       </c>
       <c r="F48">
+        <f t="shared" si="2"/>
+        <v>16871.655849056602</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>7117.7298113207553</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>3192.7837500000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="230">
+        <v>45992</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>28650.201183962261</v>
+      </c>
+      <c r="C49">
+        <v>800</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>354304.77283018868</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>33743.311698113204</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>16871.655849056602</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>7275.9015849056614</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>4502.6437500000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="230">
+        <v>46023</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="5"/>
+        <v>28136.451849056604</v>
+      </c>
+      <c r="C50">
+        <v>700</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>310016.67622641509</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="1"/>
         <v>29525.397735849056</v>
       </c>
-      <c r="G48">
+      <c r="F50">
         <f t="shared" si="2"/>
-        <v>12456.027169811321</v>
-      </c>
-      <c r="H48">
+        <v>14762.698867924528</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="3"/>
-        <v>5587.3715625000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="338">
-        <v>45992</v>
-      </c>
-      <c r="B49">
-        <f>F49+G49+H49</f>
-        <v>50137.852071933965</v>
-      </c>
-      <c r="C49">
-        <v>800</v>
-      </c>
-      <c r="D49">
-        <f>$D$40/$C$40*C49</f>
-        <v>354304.77283018868</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>59050.795471698111</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>29525.397735849056</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>12732.827773584906</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>7879.6265625000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="338">
-        <v>46023</v>
-      </c>
-      <c r="B50">
-        <f>F50+G50+H50</f>
-        <v>49238.790735849063</v>
-      </c>
-      <c r="C50">
-        <v>700</v>
-      </c>
-      <c r="D50">
-        <f>$D$40/$C$40*C50</f>
-        <v>310016.67622641509</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>51669.446037735848</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>25834.723018867924</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>13470.962716981134</v>
+        <v>7697.6929811320761</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
-        <v>9933.1049999999996</v>
+        <f t="shared" si="4"/>
+        <v>5676.0599999999995</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="338">
+      <c r="A51" s="230">
         <v>46054</v>
       </c>
-      <c r="B51">
-        <f>F51+G51+H51</f>
-        <v>49193.378136792453</v>
+      <c r="B51" s="1">
+        <f t="shared" si="5"/>
+        <v>28110.501792452829</v>
       </c>
       <c r="C51">
         <v>750</v>
       </c>
       <c r="D51">
-        <f>$D$40/$C$40*C51</f>
+        <f t="shared" si="6"/>
         <v>332160.72452830186</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>55360.120754716976</v>
+        <f t="shared" si="1"/>
+        <v>31634.354716981128</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>27680.060377358488</v>
+        <f t="shared" si="2"/>
+        <v>15817.177358490564</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
-        <v>12917.361509433962</v>
+        <f t="shared" si="3"/>
+        <v>7381.3494339622639</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
-        <v>8595.9562500000011</v>
+        <f t="shared" si="4"/>
+        <v>4911.9750000000004</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="338">
+      <c r="A52" s="230">
         <v>46082</v>
       </c>
-      <c r="B52">
-        <f>F52+G52+H52</f>
-        <v>17733.692015094341</v>
+      <c r="B52" s="1">
+        <f t="shared" si="5"/>
+        <v>10133.538294339622</v>
       </c>
       <c r="C52">
         <v>65</v>
       </c>
       <c r="D52">
-        <f>$D$40/$C$40*C52</f>
+        <f t="shared" si="6"/>
         <v>28787.262792452831</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>4797.8771320754722</v>
+        <f t="shared" si="1"/>
+        <v>2741.6440754716982</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>2398.9385660377361</v>
+        <f t="shared" si="2"/>
+        <v>1370.8220377358491</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
-        <v>13378.695849056603</v>
+        <f t="shared" si="3"/>
+        <v>7644.9690566037734</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
-        <v>1956.0576000000001</v>
+        <f t="shared" si="4"/>
+        <v>1117.7472</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="338">
+      <c r="A53" s="230">
         <v>46113</v>
       </c>
-      <c r="B53">
-        <f>F53+G53+H53</f>
-        <v>25373.388679245283</v>
+      <c r="B53" s="1">
+        <f t="shared" si="5"/>
+        <v>14499.079245283017</v>
       </c>
       <c r="D53">
-        <f>$D$40/$C$40*C53</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G53">
-        <f t="shared" si="2"/>
-        <v>14301.364528301887</v>
+        <f t="shared" si="3"/>
+        <v>8172.2083018867925</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
-        <v>11072.024150943396</v>
+        <f t="shared" si="4"/>
+        <v>6326.8709433962258</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="338">
+      <c r="A54" s="230">
         <v>46143</v>
       </c>
-      <c r="B54">
-        <f>F54+G54+H54</f>
-        <v>27218.726037735847</v>
+      <c r="B54" s="1">
+        <f t="shared" si="5"/>
+        <v>15553.557735849055</v>
       </c>
       <c r="D54">
-        <f>$D$40/$C$40*C54</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G54">
-        <f t="shared" si="2"/>
-        <v>14762.698867924528</v>
+        <f t="shared" si="3"/>
+        <v>8435.8279245283011</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
-        <v>12456.027169811321</v>
+        <f t="shared" si="4"/>
+        <v>7117.7298113207553</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="338">
+      <c r="A55" s="230">
         <v>46174</v>
       </c>
-      <c r="B55">
-        <f>F55+G55+H55</f>
-        <v>27495.526641509434</v>
+      <c r="B55" s="1">
+        <f t="shared" si="5"/>
+        <v>15711.729509433962</v>
       </c>
       <c r="D55">
-        <f>$D$40/$C$40*C55</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G55">
-        <f t="shared" si="2"/>
-        <v>14762.698867924528</v>
+        <f t="shared" si="3"/>
+        <v>8435.8279245283011</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
-        <v>12732.827773584906</v>
+        <f t="shared" si="4"/>
+        <v>7275.9015849056614</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="338">
+      <c r="A56" s="230">
         <v>46204</v>
       </c>
-      <c r="B56">
-        <f>F56+G56+H56</f>
-        <v>26388.324226415098</v>
+      <c r="B56" s="1">
+        <f t="shared" si="5"/>
+        <v>15079.04241509434</v>
       </c>
       <c r="D56">
-        <f>$D$40/$C$40*C56</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G56">
-        <f t="shared" si="2"/>
-        <v>12917.361509433962</v>
+        <f t="shared" si="3"/>
+        <v>7381.3494339622639</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
-        <v>13470.962716981134</v>
+        <f t="shared" si="4"/>
+        <v>7697.6929811320761</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="338">
+      <c r="A57" s="230">
         <v>46235</v>
       </c>
-      <c r="B57">
-        <f>F57+G57+H57</f>
-        <v>26757.391698113206</v>
+      <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>15289.938113207547</v>
       </c>
       <c r="D57">
-        <f>$D$40/$C$40*C57</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G57">
-        <f t="shared" si="2"/>
-        <v>13840.030188679244</v>
+        <f t="shared" si="3"/>
+        <v>7908.588679245282</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
-        <v>12917.361509433962</v>
+        <f t="shared" si="4"/>
+        <v>7381.3494339622639</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="338">
+      <c r="A58" s="230">
         <v>46266</v>
       </c>
-      <c r="B58">
-        <f>F58+G58+H58</f>
-        <v>14578.165132075472</v>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>8330.3800754716976</v>
       </c>
       <c r="D58">
-        <f>$D$40/$C$40*C58</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G58">
-        <f t="shared" si="2"/>
-        <v>1199.4692830188681</v>
+        <f t="shared" si="3"/>
+        <v>685.41101886792455</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
-        <v>13378.695849056603</v>
+        <f t="shared" si="4"/>
+        <v>7644.9690566037734</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="338">
+      <c r="A59" s="230">
         <v>46296</v>
       </c>
-      <c r="B59">
-        <f>F59+G59+H59</f>
-        <v>14301.364528301887</v>
+      <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>8172.2083018867925</v>
       </c>
       <c r="D59">
-        <f>$D$40/$C$40*C59</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="F59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H59">
-        <f t="shared" si="3"/>
-        <v>14301.364528301887</v>
+        <f t="shared" si="4"/>
+        <v>8172.2083018867925</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="338">
+      <c r="A60" s="230">
         <v>46327</v>
       </c>
-      <c r="B60">
-        <f>F60+G60+H60</f>
-        <v>14762.698867924528</v>
+      <c r="B60" s="1">
+        <f t="shared" si="5"/>
+        <v>8435.8279245283011</v>
       </c>
       <c r="D60">
-        <f>$D$40/$C$40*C60</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="F60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H60">
-        <f t="shared" si="3"/>
-        <v>14762.698867924528</v>
+        <f t="shared" si="4"/>
+        <v>8435.8279245283011</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="338">
+      <c r="A61" s="230">
         <v>46357</v>
       </c>
-      <c r="B61">
-        <f>F61+G61+H61</f>
-        <v>14762.698867924528</v>
+      <c r="B61" s="1">
+        <f t="shared" si="5"/>
+        <v>8435.8279245283011</v>
       </c>
       <c r="D61">
-        <f>$D$40/$C$40*C61</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="F61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H61">
-        <f t="shared" si="3"/>
-        <v>14762.698867924528</v>
+        <f t="shared" si="4"/>
+        <v>8435.8279245283011</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="338">
+      <c r="A62" s="230">
         <v>46388</v>
       </c>
-      <c r="B62">
-        <f>F62+G62+H62</f>
-        <v>12917.361509433962</v>
+      <c r="B62" s="1">
+        <f t="shared" si="5"/>
+        <v>7381.3494339622639</v>
       </c>
       <c r="D62">
-        <f>$D$40/$C$40*C62</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="F62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H62">
-        <f t="shared" si="3"/>
-        <v>12917.361509433962</v>
+        <f t="shared" si="4"/>
+        <v>7381.3494339622639</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="338">
+      <c r="A63" s="230">
         <v>46419</v>
       </c>
-      <c r="B63">
-        <f>F63+G63+H63</f>
-        <v>13840.030188679244</v>
+      <c r="B63" s="1">
+        <f t="shared" si="5"/>
+        <v>7908.588679245282</v>
       </c>
       <c r="D63">
-        <f>$D$40/$C$40*C63</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="F63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H63">
-        <f t="shared" si="3"/>
-        <v>13840.030188679244</v>
+        <f t="shared" si="4"/>
+        <v>7908.588679245282</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="338">
+      <c r="A64" s="230">
         <v>46447</v>
       </c>
-      <c r="B64">
-        <f>F64+G64+H64</f>
-        <v>1199.4692830188681</v>
+      <c r="B64" s="1">
+        <f t="shared" si="5"/>
+        <v>685.41101886792455</v>
       </c>
       <c r="D64">
-        <f>$D$40/$C$40*C64</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="F64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="H64">
-        <f t="shared" si="3"/>
-        <v>1199.4692830188681</v>
+        <f t="shared" si="4"/>
+        <v>685.41101886792455</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="338">
+      <c r="A65" s="230">
         <v>46478</v>
       </c>
-      <c r="B65">
-        <f>F65+G65+H65</f>
+      <c r="B65" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>$D$40/$C$40*C65</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="F65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="G65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BusinessManagement/FinancialPlanning.xlsx
+++ b/BusinessManagement/FinancialPlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="PartnerPayoutStructure" sheetId="4" r:id="rId3"/>
     <sheet name="Graphs" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="IT Budget" sheetId="8" r:id="rId6"/>
+    <sheet name="Content Budget" sheetId="9" r:id="rId7"/>
+    <sheet name="Total Cost" sheetId="10" r:id="rId8"/>
+    <sheet name="Sales Estimates" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -94,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
   <si>
     <t>Max Price</t>
   </si>
@@ -559,12 +564,245 @@
   <si>
     <t>Payout Per Course (₹)</t>
   </si>
+  <si>
+    <t>Perdiem</t>
+  </si>
+  <si>
+    <t>Rate $/hr</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>Total USD</t>
+  </si>
+  <si>
+    <t>Total AUD</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Java, Hibernate</t>
+  </si>
+  <si>
+    <t>Student App</t>
+  </si>
+  <si>
+    <t>Mobile Dev</t>
+  </si>
+  <si>
+    <t>Content Creation App</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Admin App</t>
+  </si>
+  <si>
+    <t>Graphics Designer</t>
+  </si>
+  <si>
+    <t>Testers</t>
+  </si>
+  <si>
+    <t>Automation Testers</t>
+  </si>
+  <si>
+    <t>Performance Tester</t>
+  </si>
+  <si>
+    <t>Security Tester</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Kubernetes Engineer</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
+  </si>
+  <si>
+    <t>Analytics, Data Science</t>
+  </si>
+  <si>
+    <t>Tech support</t>
+  </si>
+  <si>
+    <t>Infra</t>
+  </si>
+  <si>
+    <t>Software Licencing</t>
+  </si>
+  <si>
+    <t>Time (months)</t>
+  </si>
+  <si>
+    <t>Shooting Floor</t>
+  </si>
+  <si>
+    <t>Shooting Equipments</t>
+  </si>
+  <si>
+    <t>Ops &amp; Admin</t>
+  </si>
+  <si>
+    <t>Rate $/day</t>
+  </si>
+  <si>
+    <t>CTC INR</t>
+  </si>
+  <si>
+    <t>Admin Stuff</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Hr</t>
+  </si>
+  <si>
+    <t>Licencing &amp; Cloud</t>
+  </si>
+  <si>
+    <t>Maths, Physics, Computers</t>
+  </si>
+  <si>
+    <t>Infra / Ops</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Chemistry, Biology</t>
+  </si>
+  <si>
+    <t>English, Geography, Accounts, Business</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>IT Components</t>
+  </si>
+  <si>
+    <t>Content Budget USD</t>
+  </si>
+  <si>
+    <t>IT Budget USD</t>
+  </si>
+  <si>
+    <t>Total Cost AUD</t>
+  </si>
+  <si>
+    <t>Total Cost USD</t>
+  </si>
+  <si>
+    <t>Marketing Cost (20%)</t>
+  </si>
+  <si>
+    <t>Pessimistic Profit</t>
+  </si>
+  <si>
+    <t>Optimistic Profit</t>
+  </si>
+  <si>
+    <t>Time (years)</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Optimum Revenue</t>
+  </si>
+  <si>
+    <t>Pesimistic Revenue</t>
+  </si>
+  <si>
+    <t>Optimistic Revenue</t>
+  </si>
+  <si>
+    <t>Optimum Sales</t>
+  </si>
+  <si>
+    <t>Optimistic Sales</t>
+  </si>
+  <si>
+    <t>Expected Sales (million)</t>
+  </si>
+  <si>
+    <t>Courses Sold Per 100 Students</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Cumulative Cost (million US$)</t>
+  </si>
+  <si>
+    <t>Profit (million US$)</t>
+  </si>
+  <si>
+    <t>Expected Revenue (million US$)</t>
+  </si>
+  <si>
+    <t>Cumulative Expected Revenue (million US$)</t>
+  </si>
+  <si>
+    <t>Duration (months)</t>
+  </si>
+  <si>
+    <t>Content Budget</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>IT Budget</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Mathematics Physics
+Computers</t>
+  </si>
+  <si>
+    <t>Chemistry
+Biology</t>
+  </si>
+  <si>
+    <t>English Geography Accounts Business</t>
+  </si>
+  <si>
+    <t>** All amounts in US$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,8 +940,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,8 +1067,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1598,11 +1877,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,6 +2563,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2333,180 +2794,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2581,6 +2871,55 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,7 +2978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3203,11 +3541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="727994688"/>
-        <c:axId val="727996864"/>
+        <c:axId val="-84969216"/>
+        <c:axId val="-84980096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="727994688"/>
+        <c:axId val="-84969216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,12 +3602,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727996864"/>
+        <c:crossAx val="-84980096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="727996864"/>
+        <c:axId val="-84980096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727994688"/>
+        <c:crossAx val="-84969216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3415,7 +3753,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3990,11 +4327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="727997408"/>
-        <c:axId val="727998496"/>
+        <c:axId val="-84977920"/>
+        <c:axId val="-84983904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="727997408"/>
+        <c:axId val="-84977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,12 +4388,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727998496"/>
+        <c:crossAx val="-84983904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="727998496"/>
+        <c:axId val="-84983904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727997408"/>
+        <c:crossAx val="-84977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4202,7 +4539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4766,11 +5102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="643384656"/>
-        <c:axId val="929144848"/>
+        <c:axId val="-84975744"/>
+        <c:axId val="-84971936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="643384656"/>
+        <c:axId val="-84975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,12 +5163,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929144848"/>
+        <c:crossAx val="-84971936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="929144848"/>
+        <c:axId val="-84971936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +5225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643384656"/>
+        <c:crossAx val="-84975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5439,11 +5775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="929149744"/>
-        <c:axId val="929155184"/>
+        <c:axId val="-84976832"/>
+        <c:axId val="-84976288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="929149744"/>
+        <c:axId val="-84976832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,12 +5836,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929155184"/>
+        <c:crossAx val="-84976288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="929155184"/>
+        <c:axId val="-84976288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5562,7 +5898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929149744"/>
+        <c:crossAx val="-84976832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6073,11 +6409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="929154096"/>
-        <c:axId val="929145392"/>
+        <c:axId val="-84975200"/>
+        <c:axId val="-84974656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="929154096"/>
+        <c:axId val="-84975200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,12 +6470,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929145392"/>
+        <c:crossAx val="-84974656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="929145392"/>
+        <c:axId val="-84974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6196,7 +6532,730 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="929154096"/>
+        <c:crossAx val="-84975200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17533108361454816"/>
+          <c:y val="6.0601851851851872E-2"/>
+          <c:w val="0.75266891638545186"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales Estimates'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Cost (million US$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0244099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8292919999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6341739999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales Estimates'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Expected Revenue (million US$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-21582416"/>
+        <c:axId val="-21583504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-21582416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-21583504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-21583504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-21582416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Profit Margin</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sales Estimates'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit (million US$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sales Estimates'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.0244099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.170708000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.365825999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293.56094400000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>652.75606200000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1091.95118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1591.1462979999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-21584048"/>
+        <c:axId val="-21584592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-21584048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-21584592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-21584592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-21584048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6406,6 +7465,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9025,6 +10164,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9386,6 +11557,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>671512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9807,16 +12043,343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="343" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="342" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="342" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="342" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="342" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="342" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="342" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="342" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="342" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="342" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="345">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="344">
+        <f>4.02441*(1+B2*20%)</f>
+        <v>4.0244099999999996</v>
+      </c>
+      <c r="D2" s="345">
+        <v>0</v>
+      </c>
+      <c r="E2" s="345">
+        <f>D2*2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="345">
+        <f>D2*4</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="345">
+        <f>D2*2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="345">
+        <f>D2*2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="345">
+        <f>E2*200000</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344">
+        <f>G2-C2</f>
+        <v>-4.0244099999999996</v>
+      </c>
+      <c r="L2" s="344">
+        <f>I2-C2</f>
+        <v>-4.0244099999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="345">
+        <v>2022</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="344">
+        <f>4.02441*(1+B3*20%)</f>
+        <v>4.8292919999999997</v>
+      </c>
+      <c r="D3" s="345">
+        <v>8</v>
+      </c>
+      <c r="E3" s="345">
+        <f>D3*2</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="345">
+        <f>D3*4</f>
+        <v>32</v>
+      </c>
+      <c r="G3" s="345">
+        <f>D3*2</f>
+        <v>16</v>
+      </c>
+      <c r="H3" s="345">
+        <f>D3*2</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="345">
+        <f>E3*2</f>
+        <v>32</v>
+      </c>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344">
+        <f>G3-C3</f>
+        <v>11.170708000000001</v>
+      </c>
+      <c r="L3" s="344">
+        <f>I3-C3</f>
+        <v>27.170708000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="345">
+        <v>2023</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="344">
+        <f>4.02441*(1+B4*20%)</f>
+        <v>5.6341739999999989</v>
+      </c>
+      <c r="D4" s="345">
+        <v>32</v>
+      </c>
+      <c r="E4" s="345">
+        <f>D4*2</f>
+        <v>64</v>
+      </c>
+      <c r="F4" s="345">
+        <f>D4*4</f>
+        <v>128</v>
+      </c>
+      <c r="G4" s="345">
+        <f>D4*2</f>
+        <v>64</v>
+      </c>
+      <c r="H4" s="345">
+        <f>D4*2</f>
+        <v>64</v>
+      </c>
+      <c r="I4" s="345">
+        <f>E4*2</f>
+        <v>128</v>
+      </c>
+      <c r="J4" s="344"/>
+      <c r="K4" s="344">
+        <f>G4-C4</f>
+        <v>58.365825999999998</v>
+      </c>
+      <c r="L4" s="344">
+        <f>I4-C4</f>
+        <v>122.365826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="345">
+        <v>2024</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="344">
+        <f>4.02441*(1+B5*20%)</f>
+        <v>6.4390559999999999</v>
+      </c>
+      <c r="D5" s="345">
+        <v>80</v>
+      </c>
+      <c r="E5" s="345">
+        <f>D5*2</f>
+        <v>160</v>
+      </c>
+      <c r="F5" s="345">
+        <f>D5*4</f>
+        <v>320</v>
+      </c>
+      <c r="G5" s="345">
+        <f>D5*2</f>
+        <v>160</v>
+      </c>
+      <c r="H5" s="345">
+        <f>D5*2</f>
+        <v>160</v>
+      </c>
+      <c r="I5" s="345">
+        <f>E5*2</f>
+        <v>320</v>
+      </c>
+      <c r="J5" s="344"/>
+      <c r="K5" s="344">
+        <f>G5-C5</f>
+        <v>153.56094400000001</v>
+      </c>
+      <c r="L5" s="344">
+        <f>I5-C5</f>
+        <v>313.56094400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="345">
+        <v>2025</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="344">
+        <f>4.02441*(1+B6*20%)</f>
+        <v>7.2439379999999991</v>
+      </c>
+      <c r="D6" s="345">
+        <v>136</v>
+      </c>
+      <c r="E6" s="345">
+        <f>D6*2</f>
+        <v>272</v>
+      </c>
+      <c r="F6" s="345">
+        <f>D6*4</f>
+        <v>544</v>
+      </c>
+      <c r="G6" s="345">
+        <f>D6*2</f>
+        <v>272</v>
+      </c>
+      <c r="H6" s="345">
+        <f>D6*2</f>
+        <v>272</v>
+      </c>
+      <c r="I6" s="345">
+        <f>E6*2</f>
+        <v>544</v>
+      </c>
+      <c r="J6" s="344"/>
+      <c r="K6" s="344">
+        <f>G6-C6</f>
+        <v>264.75606199999999</v>
+      </c>
+      <c r="L6" s="344">
+        <f>I6-C6</f>
+        <v>536.75606200000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="345">
+        <v>2026</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="344">
+        <f>4.02441*(1+B7*20%)</f>
+        <v>8.0488199999999992</v>
+      </c>
+      <c r="D7" s="345">
+        <v>168</v>
+      </c>
+      <c r="E7" s="345">
+        <f>D7*2</f>
+        <v>336</v>
+      </c>
+      <c r="F7" s="345">
+        <f>D7*4</f>
+        <v>672</v>
+      </c>
+      <c r="G7" s="345">
+        <f>D7*2</f>
+        <v>336</v>
+      </c>
+      <c r="H7" s="345">
+        <f>D7*2</f>
+        <v>336</v>
+      </c>
+      <c r="I7" s="345">
+        <f>E7*2</f>
+        <v>672</v>
+      </c>
+      <c r="J7" s="344"/>
+      <c r="K7" s="344">
+        <f>G7-C7</f>
+        <v>327.95118000000002</v>
+      </c>
+      <c r="L7" s="344">
+        <f>I7-C7</f>
+        <v>663.95118000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BH33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK23" sqref="AK20:AK23"/>
+      <selection pane="bottomRight" activeCell="AN7" sqref="AN7:AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9881,71 +12444,71 @@
   <sheetData>
     <row r="1" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:46" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="293" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="238"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="295"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN3" s="279" t="s">
+      <c r="AN3" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="280"/>
-      <c r="AP3" s="281"/>
+      <c r="AO3" s="273"/>
+      <c r="AP3" s="274"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="239" t="s">
+      <c r="E4" s="296" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="240"/>
-      <c r="S4" s="241"/>
-      <c r="U4" s="273" t="s">
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="298"/>
+      <c r="U4" s="266" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="274"/>
-      <c r="W4" s="275"/>
-      <c r="AN4" s="282"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="284"/>
+      <c r="V4" s="267"/>
+      <c r="W4" s="268"/>
+      <c r="AN4" s="275"/>
+      <c r="AO4" s="276"/>
+      <c r="AP4" s="277"/>
       <c r="AQ4" s="51"/>
       <c r="AR4" s="51"/>
       <c r="AS4" s="51"/>
@@ -9957,24 +12520,24 @@
       <c r="C5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="242"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="243"/>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="243"/>
-      <c r="S5" s="244"/>
-      <c r="U5" s="276"/>
-      <c r="V5" s="277"/>
-      <c r="W5" s="278"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="300"/>
+      <c r="K5" s="300"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="300"/>
+      <c r="N5" s="300"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="300"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="301"/>
+      <c r="U5" s="269"/>
+      <c r="V5" s="270"/>
+      <c r="W5" s="271"/>
       <c r="X5" s="7"/>
       <c r="AN5" s="120" t="s">
         <v>41</v>
@@ -9995,21 +12558,21 @@
         <f>IF($C$5=$L$9,$M$9,IF($C$5=$L$10,$M$10,IF($C$5=$L$11,$M11,IF($C$5=$L$12,$M$12,IF($C$5=$L$13,$M$13,IF($C$5=$L$14,$M$14,$M$15))))))</f>
         <v>72.77</v>
       </c>
-      <c r="E6" s="245"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="246"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="246"/>
-      <c r="M6" s="246"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="246"/>
-      <c r="P6" s="246"/>
-      <c r="Q6" s="246"/>
-      <c r="R6" s="246"/>
-      <c r="S6" s="247"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="303"/>
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="303"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="304"/>
       <c r="U6" s="113" t="s">
         <v>30</v>
       </c>
@@ -10061,10 +12624,10 @@
       <c r="L8" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="257" t="s">
+      <c r="M8" s="313" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="257"/>
+      <c r="N8" s="313"/>
       <c r="U8" s="115" t="s">
         <v>32</v>
       </c>
@@ -10098,10 +12661,10 @@
       <c r="L9" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="256">
+      <c r="M9" s="286">
         <v>1.29</v>
       </c>
-      <c r="N9" s="256"/>
+      <c r="N9" s="286"/>
       <c r="U9" s="115" t="s">
         <v>33</v>
       </c>
@@ -10135,10 +12698,10 @@
       <c r="L10" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="256">
+      <c r="M10" s="286">
         <v>72.77</v>
       </c>
-      <c r="N10" s="256"/>
+      <c r="N10" s="286"/>
       <c r="U10" s="115" t="s">
         <v>34</v>
       </c>
@@ -10169,25 +12732,25 @@
         <f>D10*2</f>
         <v>4366.2</v>
       </c>
-      <c r="F11" s="252" t="s">
+      <c r="F11" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="253"/>
-      <c r="H11" s="248">
+      <c r="G11" s="310"/>
+      <c r="H11" s="305">
         <f>40*C6</f>
         <v>2910.7999999999997</v>
       </c>
-      <c r="I11" s="250" t="str">
+      <c r="I11" s="307" t="str">
         <f>C5</f>
         <v>INR</v>
       </c>
       <c r="L11" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="256">
+      <c r="M11" s="286">
         <v>0.73</v>
       </c>
-      <c r="N11" s="256"/>
+      <c r="N11" s="286"/>
       <c r="U11" s="115" t="s">
         <v>35</v>
       </c>
@@ -10218,17 +12781,17 @@
         <f>D11*2</f>
         <v>8732.4</v>
       </c>
-      <c r="F12" s="254"/>
-      <c r="G12" s="255"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="251"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="312"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="308"/>
       <c r="L12" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="256">
+      <c r="M12" s="286">
         <v>6.4</v>
       </c>
-      <c r="N12" s="256"/>
+      <c r="N12" s="286"/>
       <c r="U12" s="115" t="s">
         <v>36</v>
       </c>
@@ -10262,10 +12825,10 @@
       <c r="L13" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="256">
+      <c r="M13" s="286">
         <v>0.83</v>
       </c>
-      <c r="N13" s="256"/>
+      <c r="N13" s="286"/>
       <c r="U13" s="115" t="s">
         <v>37</v>
       </c>
@@ -10299,18 +12862,18 @@
       <c r="L14" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="256">
+      <c r="M14" s="286">
         <v>104.95</v>
       </c>
-      <c r="N14" s="256"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="286"/>
+      <c r="N14" s="286"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="279"/>
       <c r="W14" s="11">
         <f>SUM(W6:W13)</f>
         <v>100</v>
       </c>
-      <c r="AN14" s="265"/>
-      <c r="AO14" s="266"/>
+      <c r="AN14" s="258"/>
+      <c r="AO14" s="259"/>
       <c r="AP14" s="25">
         <f>SUM(AP5:AP13)</f>
         <v>100</v>
@@ -10327,10 +12890,10 @@
       <c r="L15" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="256">
+      <c r="M15" s="286">
         <v>1</v>
       </c>
-      <c r="N15" s="256"/>
+      <c r="N15" s="286"/>
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
       <c r="W15" s="51"/>
@@ -10348,188 +12911,188 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="290" t="s">
+      <c r="C17" s="261"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="291"/>
-      <c r="G17" s="298" t="s">
+      <c r="F17" s="283"/>
+      <c r="G17" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="299"/>
-      <c r="I17" s="290" t="s">
+      <c r="H17" s="240"/>
+      <c r="I17" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="302"/>
-      <c r="K17" s="311" t="s">
+      <c r="J17" s="244"/>
+      <c r="K17" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="312"/>
-      <c r="M17" s="312"/>
-      <c r="N17" s="312"/>
-      <c r="O17" s="312"/>
-      <c r="P17" s="312"/>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="312"/>
-      <c r="S17" s="312"/>
-      <c r="T17" s="313"/>
-      <c r="U17" s="287" t="s">
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="256"/>
+      <c r="T17" s="257"/>
+      <c r="U17" s="280" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="288"/>
-      <c r="W17" s="288"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="288"/>
-      <c r="Z17" s="288"/>
-      <c r="AA17" s="288"/>
-      <c r="AB17" s="288"/>
-      <c r="AC17" s="288"/>
-      <c r="AD17" s="288"/>
-      <c r="AE17" s="288"/>
-      <c r="AF17" s="288"/>
-      <c r="AG17" s="288"/>
-      <c r="AH17" s="288"/>
-      <c r="AI17" s="288"/>
-      <c r="AJ17" s="288"/>
-      <c r="AK17" s="288"/>
-      <c r="AL17" s="288"/>
-      <c r="AM17" s="289"/>
-      <c r="AN17" s="295" t="s">
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
+      <c r="Z17" s="281"/>
+      <c r="AA17" s="281"/>
+      <c r="AB17" s="281"/>
+      <c r="AC17" s="281"/>
+      <c r="AD17" s="281"/>
+      <c r="AE17" s="281"/>
+      <c r="AF17" s="281"/>
+      <c r="AG17" s="281"/>
+      <c r="AH17" s="281"/>
+      <c r="AI17" s="281"/>
+      <c r="AJ17" s="281"/>
+      <c r="AK17" s="281"/>
+      <c r="AL17" s="281"/>
+      <c r="AM17" s="282"/>
+      <c r="AN17" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="AO17" s="296"/>
-      <c r="AP17" s="296"/>
-      <c r="AQ17" s="296"/>
-      <c r="AR17" s="296"/>
-      <c r="AS17" s="296"/>
-      <c r="AT17" s="296"/>
-      <c r="AU17" s="296"/>
-      <c r="AV17" s="296"/>
-      <c r="AW17" s="296"/>
-      <c r="AX17" s="296"/>
-      <c r="AY17" s="296"/>
-      <c r="AZ17" s="296"/>
-      <c r="BA17" s="296"/>
-      <c r="BB17" s="296"/>
-      <c r="BC17" s="296"/>
-      <c r="BD17" s="296"/>
-      <c r="BE17" s="296"/>
-      <c r="BF17" s="296"/>
-      <c r="BG17" s="296"/>
-      <c r="BH17" s="297"/>
+      <c r="AO17" s="237"/>
+      <c r="AP17" s="237"/>
+      <c r="AQ17" s="237"/>
+      <c r="AR17" s="237"/>
+      <c r="AS17" s="237"/>
+      <c r="AT17" s="237"/>
+      <c r="AU17" s="237"/>
+      <c r="AV17" s="237"/>
+      <c r="AW17" s="237"/>
+      <c r="AX17" s="237"/>
+      <c r="AY17" s="237"/>
+      <c r="AZ17" s="237"/>
+      <c r="BA17" s="237"/>
+      <c r="BB17" s="237"/>
+      <c r="BC17" s="237"/>
+      <c r="BD17" s="237"/>
+      <c r="BE17" s="237"/>
+      <c r="BF17" s="237"/>
+      <c r="BG17" s="237"/>
+      <c r="BH17" s="238"/>
     </row>
     <row r="18" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="270"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="301"/>
-      <c r="I18" s="303"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="294" t="s">
+      <c r="B18" s="263"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="284"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258" t="s">
+      <c r="L18" s="288"/>
+      <c r="M18" s="288" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="258"/>
-      <c r="O18" s="258" t="s">
+      <c r="N18" s="288"/>
+      <c r="O18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258" t="s">
+      <c r="P18" s="288"/>
+      <c r="Q18" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258" t="s">
+      <c r="R18" s="288"/>
+      <c r="S18" s="288" t="s">
         <v>0</v>
       </c>
-      <c r="T18" s="261"/>
-      <c r="U18" s="262" t="s">
+      <c r="T18" s="289"/>
+      <c r="U18" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="263"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="259" t="s">
+      <c r="V18" s="291"/>
+      <c r="W18" s="292"/>
+      <c r="X18" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="259" t="s">
+      <c r="Y18" s="254"/>
+      <c r="Z18" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="259" t="s">
+      <c r="AA18" s="254"/>
+      <c r="AB18" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="259" t="s">
+      <c r="AC18" s="254"/>
+      <c r="AD18" s="253" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="259" t="s">
+      <c r="AE18" s="254"/>
+      <c r="AF18" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="259" t="s">
+      <c r="AG18" s="254"/>
+      <c r="AH18" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" s="260"/>
-      <c r="AJ18" s="259" t="s">
+      <c r="AI18" s="254"/>
+      <c r="AJ18" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="259" t="s">
+      <c r="AK18" s="254"/>
+      <c r="AL18" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" s="260"/>
-      <c r="AN18" s="307" t="s">
+      <c r="AM18" s="254"/>
+      <c r="AN18" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="308"/>
-      <c r="AP18" s="309"/>
-      <c r="AQ18" s="305" t="s">
+      <c r="AO18" s="250"/>
+      <c r="AP18" s="251"/>
+      <c r="AQ18" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="306"/>
-      <c r="AS18" s="305" t="s">
+      <c r="AR18" s="248"/>
+      <c r="AS18" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="AT18" s="306"/>
-      <c r="AU18" s="310" t="s">
+      <c r="AT18" s="248"/>
+      <c r="AU18" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="306"/>
-      <c r="AW18" s="305" t="s">
+      <c r="AV18" s="248"/>
+      <c r="AW18" s="247" t="s">
         <v>50</v>
       </c>
-      <c r="AX18" s="306"/>
-      <c r="AY18" s="305" t="s">
+      <c r="AX18" s="248"/>
+      <c r="AY18" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="AZ18" s="306"/>
-      <c r="BA18" s="305" t="s">
+      <c r="AZ18" s="248"/>
+      <c r="BA18" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="BB18" s="306"/>
-      <c r="BC18" s="305" t="s">
+      <c r="BB18" s="248"/>
+      <c r="BC18" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="BD18" s="306"/>
-      <c r="BE18" s="305" t="s">
+      <c r="BD18" s="248"/>
+      <c r="BE18" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="306"/>
-      <c r="BG18" s="305" t="s">
+      <c r="BF18" s="248"/>
+      <c r="BG18" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="BH18" s="306"/>
+      <c r="BH18" s="248"/>
     </row>
     <row r="19" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
@@ -11867,6 +14430,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="E4:S6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="U4:W5"/>
+    <mergeCell ref="AN3:AP4"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U17:AM17"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="AN17:BH17"/>
     <mergeCell ref="G17:H18"/>
     <mergeCell ref="I17:J18"/>
@@ -11883,38 +14478,6 @@
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="K17:T17"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="U4:W5"/>
-    <mergeCell ref="AN3:AP4"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U17:AM17"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="E4:S6"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
@@ -17221,7 +19784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E65"/>
     </sheetView>
   </sheetViews>
@@ -19219,4 +21782,1596 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="339" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="230" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="230" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="230" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="230" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="230" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>2000*D3*C3</f>
+        <v>180000</v>
+      </c>
+      <c r="F3">
+        <f>E3*1.3</f>
+        <v>234000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1">
+        <f>E22*L3%</f>
+        <v>553520</v>
+      </c>
+      <c r="N3" s="1">
+        <f>M3*1.3</f>
+        <v>719576</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E18" si="0">2000*D4*C4</f>
+        <v>120000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F21" si="1">E4*1.3</f>
+        <v>156000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <f>E22*L4%</f>
+        <v>374000</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N5" si="2">M4*1.3</f>
+        <v>486200</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5">
+        <v>38</v>
+      </c>
+      <c r="M5" s="1">
+        <f>E22*L5%</f>
+        <v>568480</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>739024</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+      <c r="L6">
+        <f>SUM(L3:L5)</f>
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(M3:M5)</f>
+        <v>1496000</v>
+      </c>
+      <c r="N6" s="1">
+        <f>M6*1.3</f>
+        <v>1944800</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUM(O3:O5)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="339" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="1">
+        <f>5*SUM(E3:E18)%</f>
+        <v>68000</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="1">
+        <f>5*SUM(E3:E18)%</f>
+        <v>68000</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <f>SUM(D3:D21)</f>
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(E3:E21)</f>
+        <v>1496000</v>
+      </c>
+      <c r="F22" s="1">
+        <f>E22*1.3</f>
+        <v>1944800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="339" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="339" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="339" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="340" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="340" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="340" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="340" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="340" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="340" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="340" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="340" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <f>C3*250*70</f>
+        <v>612500</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <f>250*E3*C3</f>
+        <v>280000</v>
+      </c>
+      <c r="G3">
+        <f>F3*1.3</f>
+        <v>364000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1">
+        <f>F19*L3%</f>
+        <v>379312.5</v>
+      </c>
+      <c r="N3" s="1">
+        <f>M3*1.3</f>
+        <v>493106.25</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D13" si="0">C4*250*70</f>
+        <v>1137500</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">250*E4*C4</f>
+        <v>146250</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="2">F4*1.3</f>
+        <v>190125</v>
+      </c>
+      <c r="K4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1">
+        <f>F19*L4%</f>
+        <v>270937.5</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N5" si="3">M4*1.3</f>
+        <v>352218.75</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>45500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1">
+        <f>F19*L5%</f>
+        <v>433500</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="3"/>
+        <v>563550</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>45500</v>
+      </c>
+      <c r="L6">
+        <f>SUM(L3:L5)</f>
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(M3:M5)</f>
+        <v>1083750</v>
+      </c>
+      <c r="N6" s="1">
+        <f>M6*1.3</f>
+        <v>1408875</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUM(O3:O5)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>250*E11*C11</f>
+        <v>8750</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>612500</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="4">250*E12*C12</f>
+        <v>17500</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>22750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="339" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="1">
+        <f>15*SUM(F3:F13)%</f>
+        <v>108375</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G16" si="5">F15*1.3</f>
+        <v>140887.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="1">
+        <f>10*SUM(F3:F13)%</f>
+        <v>72250</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>93925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1">
+        <f>10*SUM(F3:F13)%</f>
+        <v>72250</v>
+      </c>
+      <c r="G17" s="1">
+        <f>F17*1.3</f>
+        <v>93925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1">
+        <f>15*SUM(F3:F13)%</f>
+        <v>108375</v>
+      </c>
+      <c r="G18" s="1">
+        <f>15*SUM(G3:G13)%</f>
+        <v>140887.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="341">
+        <f>SUM(E3:E18)</f>
+        <v>78</v>
+      </c>
+      <c r="F19" s="341">
+        <f t="shared" ref="F19:G19" si="6">SUM(F3:F18)</f>
+        <v>1083750</v>
+      </c>
+      <c r="G19" s="341">
+        <f t="shared" si="6"/>
+        <v>1408875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="339" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="339" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="339" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="339" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="339" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="339" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="339" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="339" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="339" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="353" t="s">
+        <v>181</v>
+      </c>
+      <c r="N2" s="354" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="354" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="354" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q2" s="354" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="354" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="354" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="355" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="1">
+        <v>379312.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1">
+        <v>553520</v>
+      </c>
+      <c r="G3" s="1">
+        <f>20*(D3+F3)%</f>
+        <v>186566.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>D3+F3+G3</f>
+        <v>1119399</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3*1.3</f>
+        <v>1455218.7</v>
+      </c>
+      <c r="M3" s="356">
+        <v>1</v>
+      </c>
+      <c r="N3" s="348">
+        <v>4</v>
+      </c>
+      <c r="O3" s="349" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="350">
+        <v>379312.5</v>
+      </c>
+      <c r="Q3" s="349" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="350">
+        <v>553520</v>
+      </c>
+      <c r="S3" s="350">
+        <f>20*(P3+R3)%</f>
+        <v>186566.5</v>
+      </c>
+      <c r="T3" s="351">
+        <f>P3+R3+S3</f>
+        <v>1119399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="1">
+        <v>270937.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="1">
+        <v>374000</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G5" si="0">20*(D4+F4)%</f>
+        <v>128987.5</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H5" si="1">D4+F4+G4</f>
+        <v>773925</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I5" si="2">H4*1.3</f>
+        <v>1006102.5</v>
+      </c>
+      <c r="M4" s="356">
+        <v>2</v>
+      </c>
+      <c r="N4" s="348">
+        <v>3</v>
+      </c>
+      <c r="O4" s="349" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="350">
+        <v>270937.5</v>
+      </c>
+      <c r="Q4" s="349" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="350">
+        <v>374000</v>
+      </c>
+      <c r="S4" s="350">
+        <f t="shared" ref="S4:S5" si="3">20*(P4+R4)%</f>
+        <v>128987.5</v>
+      </c>
+      <c r="T4" s="351">
+        <f t="shared" ref="T4" si="4">P4+R4+S4</f>
+        <v>773925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1">
+        <v>433500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1">
+        <v>568480</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>200396</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5+F5+G5</f>
+        <v>1202376</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H5*1.3</f>
+        <v>1563088.8</v>
+      </c>
+      <c r="M5" s="356">
+        <v>3</v>
+      </c>
+      <c r="N5" s="348">
+        <v>5</v>
+      </c>
+      <c r="O5" s="349" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="350">
+        <v>433500</v>
+      </c>
+      <c r="Q5" s="349" t="s">
+        <v>149</v>
+      </c>
+      <c r="R5" s="350">
+        <v>568480</v>
+      </c>
+      <c r="S5" s="350">
+        <f t="shared" si="3"/>
+        <v>200396</v>
+      </c>
+      <c r="T5" s="351">
+        <f>P5+R5+S5</f>
+        <v>1202376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="341">
+        <f>SUM(D3:D5)</f>
+        <v>1083750</v>
+      </c>
+      <c r="F6" s="341">
+        <f>SUM(F3:F5)</f>
+        <v>1496000</v>
+      </c>
+      <c r="G6" s="341">
+        <f>SUM(G3:G5)</f>
+        <v>515950</v>
+      </c>
+      <c r="H6" s="341">
+        <f>D6+F6+G6</f>
+        <v>3095700</v>
+      </c>
+      <c r="I6" s="341">
+        <f>H6*1.3</f>
+        <v>4024410</v>
+      </c>
+      <c r="M6" s="357" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="358"/>
+      <c r="O6" s="358"/>
+      <c r="P6" s="358"/>
+      <c r="Q6" s="358"/>
+      <c r="R6" s="358"/>
+      <c r="S6" s="359"/>
+      <c r="T6" s="352">
+        <f>SUM(T3:T5)</f>
+        <v>3095700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M7" s="347"/>
+      <c r="N7" s="347"/>
+      <c r="O7" s="347"/>
+      <c r="P7" s="347"/>
+      <c r="Q7" s="347"/>
+      <c r="R7" s="347"/>
+      <c r="S7" s="347"/>
+      <c r="T7" s="347"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>20*H6%</f>
+        <v>619140</v>
+      </c>
+      <c r="I10">
+        <f>20*I6%</f>
+        <v>804882</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="343" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="342" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="342" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="342" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="343" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="345">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="345">
+        <f>D2-C2</f>
+        <v>-4.0244099999999996</v>
+      </c>
+      <c r="C2" s="345">
+        <f>4.02441*(1+(A2-2021)*20%)</f>
+        <v>4.0244099999999996</v>
+      </c>
+      <c r="D2" s="345">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="345">
+        <f>F2*20</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="345">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="345">
+        <f>D3-C3</f>
+        <v>15.170708000000001</v>
+      </c>
+      <c r="C3" s="345">
+        <f>4.02441*(1+(A3-2021)*20%)</f>
+        <v>4.8292919999999997</v>
+      </c>
+      <c r="D3" s="345">
+        <f>D2+E3</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="345">
+        <f>F3*20</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="345">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="345">
+        <f>D4-C4</f>
+        <v>94.365825999999998</v>
+      </c>
+      <c r="C4" s="345">
+        <f>4.02441*(1+(A4-2021)*20%)</f>
+        <v>5.6341739999999989</v>
+      </c>
+      <c r="D4" s="345">
+        <f>D3+E4</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="345">
+        <f>F4*20</f>
+        <v>80</v>
+      </c>
+      <c r="F4" s="345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="345">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="345">
+        <f>D5-C5</f>
+        <v>293.56094400000001</v>
+      </c>
+      <c r="C5" s="345">
+        <f>4.02441*(1+(A5-2021)*20%)</f>
+        <v>6.4390559999999999</v>
+      </c>
+      <c r="D5" s="345">
+        <f>D4+E5</f>
+        <v>300</v>
+      </c>
+      <c r="E5" s="345">
+        <f>F5*20</f>
+        <v>200</v>
+      </c>
+      <c r="F5" s="345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="345">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="345">
+        <f>D6-C6</f>
+        <v>652.75606200000004</v>
+      </c>
+      <c r="C6" s="345">
+        <f>4.02441*(1+(A6-2021)*20%)</f>
+        <v>7.2439379999999991</v>
+      </c>
+      <c r="D6" s="345">
+        <f>D5+E6</f>
+        <v>660</v>
+      </c>
+      <c r="E6" s="345">
+        <f>F6*20</f>
+        <v>360</v>
+      </c>
+      <c r="F6" s="345">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="345">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="345">
+        <f>D7-C7</f>
+        <v>1091.95118</v>
+      </c>
+      <c r="C7" s="345">
+        <f>4.02441*(1+(A7-2021)*20%)</f>
+        <v>8.0488199999999992</v>
+      </c>
+      <c r="D7" s="345">
+        <f>D6+E7</f>
+        <v>1100</v>
+      </c>
+      <c r="E7" s="345">
+        <f>F7*20</f>
+        <v>440</v>
+      </c>
+      <c r="F7" s="345">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="345">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="345">
+        <f>D8-C8</f>
+        <v>1591.1462979999999</v>
+      </c>
+      <c r="C8" s="345">
+        <f>4.02441*(1+(A8-2021)*20%)</f>
+        <v>8.8537020000000002</v>
+      </c>
+      <c r="D8" s="345">
+        <f>D7+E8</f>
+        <v>1600</v>
+      </c>
+      <c r="E8" s="345">
+        <f>F8*20</f>
+        <v>500</v>
+      </c>
+      <c r="F8" s="345">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="345"/>
+      <c r="B9" s="345"/>
+      <c r="C9" s="345"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="346"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="345"/>
+      <c r="B10" s="345"/>
+      <c r="C10" s="345"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="345"/>
+      <c r="F10" s="346"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="345"/>
+      <c r="B11" s="345"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="346"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="345"/>
+      <c r="B12" s="345"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="346"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BusinessManagement/FinancialPlanning.xlsx
+++ b/BusinessManagement/FinancialPlanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="757" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
     <sheet name="IT Budget" sheetId="8" r:id="rId6"/>
     <sheet name="Content Budget" sheetId="9" r:id="rId7"/>
-    <sheet name="Total Cost" sheetId="10" r:id="rId8"/>
-    <sheet name="Sales Estimates" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId10"/>
+    <sheet name="ContentBudgetPhase1" sheetId="13" r:id="rId8"/>
+    <sheet name="Total Cost" sheetId="10" r:id="rId9"/>
+    <sheet name="Sales Estimates" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="220">
   <si>
     <t>Max Price</t>
   </si>
@@ -794,15 +795,34 @@
   <si>
     <t>** All amounts in US$</t>
   </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>USD / day</t>
+  </si>
+  <si>
+    <t>Needs change</t>
+  </si>
+  <si>
+    <t>Marketing cannot be percentage of ops</t>
+  </si>
+  <si>
+    <t>Shooting equipments must be 3 sets</t>
+  </si>
+  <si>
+    <t>Expenditure for local lan, computers, storage and network set up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +985,29 @@
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1892,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2552,326 +2595,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2912,6 +2635,326 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -2920,6 +2963,71 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3047,121 +3155,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2,026</c:v>
+                    <c:v>21,272</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>210</c:v>
+                    <c:v>2,201</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5,031</c:v>
+                    <c:v>52,821</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2,212</c:v>
+                    <c:v>23,228</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2,911</c:v>
+                    <c:v>30,563</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2,445</c:v>
+                    <c:v>25,673</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2,183</c:v>
+                    <c:v>22,923</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1,892</c:v>
+                    <c:v>19,866</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1,310</c:v>
+                    <c:v>13,754</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2,329</c:v>
+                    <c:v>24,451</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3,639</c:v>
+                    <c:v>38,204</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4,366</c:v>
+                    <c:v>45,845</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6,404</c:v>
+                    <c:v>67,239</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1,455</c:v>
+                    <c:v>15,282</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>7,685</c:v>
+                    <c:v>80,687</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>9,082</c:v>
+                    <c:v>95,358</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>8,034</c:v>
+                    <c:v>84,355</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>6,637</c:v>
+                    <c:v>69,685</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>5,239</c:v>
+                    <c:v>55,014</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>4,541</c:v>
+                    <c:v>47,679</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>6,520</c:v>
+                    <c:v>68,462</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7,859</c:v>
+                    <c:v>82,521</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>13,099</c:v>
+                    <c:v>137,535</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>11,352</c:v>
+                    <c:v>119,197</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>12,935</c:v>
+                    <c:v>135,816</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>11,789</c:v>
+                    <c:v>123,782</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>11,134</c:v>
+                    <c:v>116,905</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>9,824</c:v>
+                    <c:v>103,151</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>12,771</c:v>
+                    <c:v>134,097</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>18,011</c:v>
+                    <c:v>189,111</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>22,704</c:v>
+                    <c:v>238,395</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>19,648</c:v>
+                    <c:v>206,303</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>4,471</c:v>
+                    <c:v>46,945</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3412,121 +3520,121 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>1012.9584</c:v>
+                  <c:v>10636.063200000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1309.8600000000001</c:v>
+                  <c:v>13753.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.78879999999999</c:v>
+                  <c:v>1100.2824000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2515.288</c:v>
+                  <c:v>26410.524000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1106.104</c:v>
+                  <c:v>11614.092000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1455.4</c:v>
+                  <c:v>15281.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1729.0152</c:v>
+                  <c:v>18154.659599999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1746.4799999999998</c:v>
+                  <c:v>18338.039999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>998.40439999999978</c:v>
+                  <c:v>10483.246199999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1912.5739999999998</c:v>
+                  <c:v>20082.026999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1717.3719999999998</c:v>
+                  <c:v>18032.405999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2546.9499999999998</c:v>
+                  <c:v>26742.974999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3300.8472000000002</c:v>
+                  <c:v>34658.895599999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4402.585</c:v>
+                  <c:v>46227.142500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1253.0993999999998</c:v>
+                  <c:v>13157.5437</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5427.3649999999998</c:v>
+                  <c:v>56987.332500000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5676.0599999999995</c:v>
+                  <c:v>59598.630000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5654.2290000000003</c:v>
+                  <c:v>59369.404499999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5021.13</c:v>
+                  <c:v>52721.864999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4766.4349999999995</c:v>
+                  <c:v>50047.567500000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3281.9269999999997</c:v>
+                  <c:v>34460.233500000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4693.665</c:v>
+                  <c:v>49283.482500000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5123.0079999999998</c:v>
+                  <c:v>53791.584000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6178.1729999999998</c:v>
+                  <c:v>64870.816500000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6680.2859999999991</c:v>
+                  <c:v>70143.002999999982</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9460.0999999999985</c:v>
+                  <c:v>99331.049999999988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2896.2459999999996</c:v>
+                  <c:v>30410.583000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8819.7240000000002</c:v>
+                  <c:v>92607.101999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9873.0697500000024</c:v>
+                  <c:v>103667.23237500001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9532.869999999999</c:v>
+                  <c:v>100095.13499999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9190.8509999999987</c:v>
+                  <c:v>96503.935499999992</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9823.9500000000007</c:v>
+                  <c:v>103151.47500000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6789.4410000000007</c:v>
+                  <c:v>71289.130499999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9300.0059999999994</c:v>
+                  <c:v>97650.062999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10754.496374999999</c:v>
+                  <c:v>112922.2119375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13582.520499999999</c:v>
+                  <c:v>142616.46525000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16100.362499999999</c:v>
+                  <c:v>169053.80624999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15718.32</c:v>
+                  <c:v>165042.35999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5346.411900000001</c:v>
+                  <c:v>56137.324950000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,11 +3649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84969216"/>
-        <c:axId val="-84980096"/>
+        <c:axId val="64721392"/>
+        <c:axId val="64728464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84969216"/>
+        <c:axId val="64721392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3602,12 +3710,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84980096"/>
+        <c:crossAx val="64728464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84980096"/>
+        <c:axId val="64728464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84969216"/>
+        <c:crossAx val="64721392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3833,121 +3941,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2,026</c:v>
+                    <c:v>21,272</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>210</c:v>
+                    <c:v>2,201</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5,031</c:v>
+                    <c:v>52,821</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2,212</c:v>
+                    <c:v>23,228</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2,911</c:v>
+                    <c:v>30,563</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2,445</c:v>
+                    <c:v>25,673</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2,183</c:v>
+                    <c:v>22,923</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1,892</c:v>
+                    <c:v>19,866</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1,310</c:v>
+                    <c:v>13,754</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2,329</c:v>
+                    <c:v>24,451</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3,639</c:v>
+                    <c:v>38,204</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4,366</c:v>
+                    <c:v>45,845</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6,404</c:v>
+                    <c:v>67,239</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1,455</c:v>
+                    <c:v>15,282</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>7,685</c:v>
+                    <c:v>80,687</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>9,082</c:v>
+                    <c:v>95,358</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>8,034</c:v>
+                    <c:v>84,355</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>6,637</c:v>
+                    <c:v>69,685</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>5,239</c:v>
+                    <c:v>55,014</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>4,541</c:v>
+                    <c:v>47,679</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>6,520</c:v>
+                    <c:v>68,462</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7,859</c:v>
+                    <c:v>82,521</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>13,099</c:v>
+                    <c:v>137,535</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>11,352</c:v>
+                    <c:v>119,197</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>12,935</c:v>
+                    <c:v>135,816</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>11,789</c:v>
+                    <c:v>123,782</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>11,134</c:v>
+                    <c:v>116,905</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>9,824</c:v>
+                    <c:v>103,151</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>12,771</c:v>
+                    <c:v>134,097</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>18,011</c:v>
+                    <c:v>189,111</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>22,704</c:v>
+                    <c:v>238,395</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>19,648</c:v>
+                    <c:v>206,303</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>4,471</c:v>
+                    <c:v>46,945</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4327,11 +4435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84977920"/>
-        <c:axId val="-84983904"/>
+        <c:axId val="2123973248"/>
+        <c:axId val="2123977600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84977920"/>
+        <c:axId val="2123973248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,12 +4496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84983904"/>
+        <c:crossAx val="2123977600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84983904"/>
+        <c:axId val="2123977600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84977920"/>
+        <c:crossAx val="2123973248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4608,121 +4716,121 @@
                 <c:ptCount val="39"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2,026</c:v>
+                    <c:v>21,272</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>210</c:v>
+                    <c:v>2,201</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5,031</c:v>
+                    <c:v>52,821</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2,212</c:v>
+                    <c:v>23,228</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2,911</c:v>
+                    <c:v>30,563</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2,445</c:v>
+                    <c:v>25,673</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2,183</c:v>
+                    <c:v>22,923</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1,892</c:v>
+                    <c:v>19,866</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1,310</c:v>
+                    <c:v>13,754</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2,329</c:v>
+                    <c:v>24,451</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3,639</c:v>
+                    <c:v>38,204</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4,366</c:v>
+                    <c:v>45,845</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6,404</c:v>
+                    <c:v>67,239</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1,455</c:v>
+                    <c:v>15,282</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>7,685</c:v>
+                    <c:v>80,687</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>9,082</c:v>
+                    <c:v>95,358</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>8,034</c:v>
+                    <c:v>84,355</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>6,637</c:v>
+                    <c:v>69,685</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>5,239</c:v>
+                    <c:v>55,014</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>4,890</c:v>
+                    <c:v>51,347</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>4,541</c:v>
+                    <c:v>47,679</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>6,520</c:v>
+                    <c:v>68,462</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7,859</c:v>
+                    <c:v>82,521</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>13,099</c:v>
+                    <c:v>137,535</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>2,620</c:v>
+                    <c:v>27,507</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>11,352</c:v>
+                    <c:v>119,197</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>12,935</c:v>
+                    <c:v>135,816</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>11,789</c:v>
+                    <c:v>123,782</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>11,134</c:v>
+                    <c:v>116,905</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>9,824</c:v>
+                    <c:v>103,151</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>10,479</c:v>
+                    <c:v>110,028</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>12,771</c:v>
+                    <c:v>134,097</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>18,011</c:v>
+                    <c:v>189,111</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>22,704</c:v>
+                    <c:v>238,395</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>19,648</c:v>
+                    <c:v>206,303</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>4,471</c:v>
+                    <c:v>46,945</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5102,11 +5210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84975744"/>
-        <c:axId val="-84971936"/>
+        <c:axId val="251711280"/>
+        <c:axId val="251714544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84975744"/>
+        <c:axId val="251711280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,12 +5271,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84971936"/>
+        <c:crossAx val="251714544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84971936"/>
+        <c:axId val="251714544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84975744"/>
+        <c:crossAx val="251711280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5289,7 +5397,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5775,11 +5882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84976832"/>
-        <c:axId val="-84976288"/>
+        <c:axId val="251710736"/>
+        <c:axId val="251704208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84976832"/>
+        <c:axId val="251710736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,12 +5943,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84976288"/>
+        <c:crossAx val="251704208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84976288"/>
+        <c:axId val="251704208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,7 +6005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84976832"/>
+        <c:crossAx val="251710736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5962,7 +6069,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6409,11 +6515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-84975200"/>
-        <c:axId val="-84974656"/>
+        <c:axId val="251700400"/>
+        <c:axId val="251706928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-84975200"/>
+        <c:axId val="251700400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6470,12 +6576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84974656"/>
+        <c:crossAx val="251706928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-84974656"/>
+        <c:axId val="251706928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6532,7 +6638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-84975200"/>
+        <c:crossAx val="251700400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6771,11 +6877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-21582416"/>
-        <c:axId val="-21583504"/>
+        <c:axId val="251703120"/>
+        <c:axId val="251699856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-21582416"/>
+        <c:axId val="251703120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6832,12 +6938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21583504"/>
+        <c:crossAx val="251699856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-21583504"/>
+        <c:axId val="251699856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,7 +7000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21582416"/>
+        <c:crossAx val="251703120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7132,11 +7238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-21584048"/>
-        <c:axId val="-21584592"/>
+        <c:axId val="251699312"/>
+        <c:axId val="251700944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-21584048"/>
+        <c:axId val="251699312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7193,12 +7299,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21584592"/>
+        <c:crossAx val="251700944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-21584592"/>
+        <c:axId val="251700944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +7361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21584048"/>
+        <c:crossAx val="251699312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11902,31 +12008,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="249" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
@@ -12044,6 +12150,250 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="235" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="234" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="234" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="234" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="235" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="237">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="237">
+        <f t="shared" ref="B2:B8" si="0">D2-C2</f>
+        <v>-4.0244099999999996</v>
+      </c>
+      <c r="C2" s="237">
+        <f t="shared" ref="C2:C8" si="1">4.02441*(1+(A2-2021)*20%)</f>
+        <v>4.0244099999999996</v>
+      </c>
+      <c r="D2" s="237">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="237">
+        <f t="shared" ref="E2:E8" si="2">F2*20</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="237">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="237">
+        <f t="shared" si="0"/>
+        <v>15.170708000000001</v>
+      </c>
+      <c r="C3" s="237">
+        <f t="shared" si="1"/>
+        <v>4.8292919999999997</v>
+      </c>
+      <c r="D3" s="237">
+        <f t="shared" ref="D3:D8" si="3">D2+E3</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="237">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="237">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="237">
+        <f t="shared" si="0"/>
+        <v>94.365825999999998</v>
+      </c>
+      <c r="C4" s="237">
+        <f t="shared" si="1"/>
+        <v>5.6341739999999989</v>
+      </c>
+      <c r="D4" s="237">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E4" s="237">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F4" s="237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="237">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="237">
+        <f t="shared" si="0"/>
+        <v>293.56094400000001</v>
+      </c>
+      <c r="C5" s="237">
+        <f t="shared" si="1"/>
+        <v>6.4390559999999999</v>
+      </c>
+      <c r="D5" s="237">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="E5" s="237">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="F5" s="237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="237">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="237">
+        <f t="shared" si="0"/>
+        <v>652.75606200000004</v>
+      </c>
+      <c r="C6" s="237">
+        <f t="shared" si="1"/>
+        <v>7.2439379999999991</v>
+      </c>
+      <c r="D6" s="237">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="E6" s="237">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="F6" s="237">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="237">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="237">
+        <f t="shared" si="0"/>
+        <v>1091.95118</v>
+      </c>
+      <c r="C7" s="237">
+        <f t="shared" si="1"/>
+        <v>8.0488199999999992</v>
+      </c>
+      <c r="D7" s="237">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="E7" s="237">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="F7" s="237">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="237">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="237">
+        <f t="shared" si="0"/>
+        <v>1591.1462979999999</v>
+      </c>
+      <c r="C8" s="237">
+        <f t="shared" si="1"/>
+        <v>8.8537020000000002</v>
+      </c>
+      <c r="D8" s="237">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="E8" s="237">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F8" s="237">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="237"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="238"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="237"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="238"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="237"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="237"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="238"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -12066,302 +12416,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="342" t="s">
+      <c r="B1" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="342" t="s">
+      <c r="C1" s="234" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="342" t="s">
+      <c r="D1" s="234" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="342" t="s">
+      <c r="E1" s="234" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="342" t="s">
+      <c r="F1" s="234" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="342" t="s">
+      <c r="G1" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="342" t="s">
+      <c r="H1" s="234" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="342" t="s">
+      <c r="I1" s="234" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342" t="s">
+      <c r="J1" s="234"/>
+      <c r="K1" s="234" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="342" t="s">
+      <c r="L1" s="234" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="345">
+      <c r="A2" s="237">
         <v>2021</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="344">
-        <f>4.02441*(1+B2*20%)</f>
+      <c r="C2" s="236">
+        <f t="shared" ref="C2:C7" si="0">4.02441*(1+B2*20%)</f>
         <v>4.0244099999999996</v>
       </c>
-      <c r="D2" s="345">
+      <c r="D2" s="237">
         <v>0</v>
       </c>
-      <c r="E2" s="345">
-        <f>D2*2</f>
+      <c r="E2" s="237">
+        <f t="shared" ref="E2:E7" si="1">D2*2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="345">
-        <f>D2*4</f>
+      <c r="F2" s="237">
+        <f t="shared" ref="F2:F7" si="2">D2*4</f>
         <v>0</v>
       </c>
-      <c r="G2" s="345">
-        <f>D2*2</f>
+      <c r="G2" s="237">
+        <f t="shared" ref="G2:G7" si="3">D2*2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="345">
-        <f>D2*2</f>
+      <c r="H2" s="237">
+        <f t="shared" ref="H2:H7" si="4">D2*2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="345">
+      <c r="I2" s="237">
         <f>E2*200000</f>
         <v>0</v>
       </c>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344">
-        <f>G2-C2</f>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236">
+        <f t="shared" ref="K2:K7" si="5">G2-C2</f>
         <v>-4.0244099999999996</v>
       </c>
-      <c r="L2" s="344">
-        <f>I2-C2</f>
+      <c r="L2" s="236">
+        <f t="shared" ref="L2:L7" si="6">I2-C2</f>
         <v>-4.0244099999999996</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="345">
+      <c r="A3" s="237">
         <v>2022</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="344">
-        <f>4.02441*(1+B3*20%)</f>
+      <c r="C3" s="236">
+        <f t="shared" si="0"/>
         <v>4.8292919999999997</v>
       </c>
-      <c r="D3" s="345">
+      <c r="D3" s="237">
         <v>8</v>
       </c>
-      <c r="E3" s="345">
-        <f>D3*2</f>
+      <c r="E3" s="237">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F3" s="345">
-        <f>D3*4</f>
+      <c r="F3" s="237">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G3" s="345">
-        <f>D3*2</f>
+      <c r="G3" s="237">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H3" s="345">
-        <f>D3*2</f>
+      <c r="H3" s="237">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I3" s="345">
+      <c r="I3" s="237">
         <f>E3*2</f>
         <v>32</v>
       </c>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344">
-        <f>G3-C3</f>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236">
+        <f t="shared" si="5"/>
         <v>11.170708000000001</v>
       </c>
-      <c r="L3" s="344">
-        <f>I3-C3</f>
+      <c r="L3" s="236">
+        <f t="shared" si="6"/>
         <v>27.170708000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="345">
+      <c r="A4" s="237">
         <v>2023</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="344">
-        <f>4.02441*(1+B4*20%)</f>
+      <c r="C4" s="236">
+        <f t="shared" si="0"/>
         <v>5.6341739999999989</v>
       </c>
-      <c r="D4" s="345">
+      <c r="D4" s="237">
         <v>32</v>
       </c>
-      <c r="E4" s="345">
-        <f>D4*2</f>
+      <c r="E4" s="237">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F4" s="345">
-        <f>D4*4</f>
+      <c r="F4" s="237">
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="G4" s="345">
-        <f>D4*2</f>
+      <c r="G4" s="237">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="H4" s="345">
-        <f>D4*2</f>
+      <c r="H4" s="237">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="I4" s="345">
+      <c r="I4" s="237">
         <f>E4*2</f>
         <v>128</v>
       </c>
-      <c r="J4" s="344"/>
-      <c r="K4" s="344">
-        <f>G4-C4</f>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236">
+        <f t="shared" si="5"/>
         <v>58.365825999999998</v>
       </c>
-      <c r="L4" s="344">
-        <f>I4-C4</f>
+      <c r="L4" s="236">
+        <f t="shared" si="6"/>
         <v>122.365826</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="345">
+      <c r="A5" s="237">
         <v>2024</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="344">
-        <f>4.02441*(1+B5*20%)</f>
+      <c r="C5" s="236">
+        <f t="shared" si="0"/>
         <v>6.4390559999999999</v>
       </c>
-      <c r="D5" s="345">
+      <c r="D5" s="237">
         <v>80</v>
       </c>
-      <c r="E5" s="345">
-        <f>D5*2</f>
+      <c r="E5" s="237">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="F5" s="345">
-        <f>D5*4</f>
+      <c r="F5" s="237">
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="G5" s="345">
-        <f>D5*2</f>
+      <c r="G5" s="237">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="H5" s="345">
-        <f>D5*2</f>
+      <c r="H5" s="237">
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="I5" s="345">
+      <c r="I5" s="237">
         <f>E5*2</f>
         <v>320</v>
       </c>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344">
-        <f>G5-C5</f>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236">
+        <f t="shared" si="5"/>
         <v>153.56094400000001</v>
       </c>
-      <c r="L5" s="344">
-        <f>I5-C5</f>
+      <c r="L5" s="236">
+        <f t="shared" si="6"/>
         <v>313.56094400000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="345">
+      <c r="A6" s="237">
         <v>2025</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="344">
-        <f>4.02441*(1+B6*20%)</f>
+      <c r="C6" s="236">
+        <f t="shared" si="0"/>
         <v>7.2439379999999991</v>
       </c>
-      <c r="D6" s="345">
+      <c r="D6" s="237">
         <v>136</v>
       </c>
-      <c r="E6" s="345">
-        <f>D6*2</f>
+      <c r="E6" s="237">
+        <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="F6" s="345">
-        <f>D6*4</f>
+      <c r="F6" s="237">
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
-      <c r="G6" s="345">
-        <f>D6*2</f>
+      <c r="G6" s="237">
+        <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="H6" s="345">
-        <f>D6*2</f>
+      <c r="H6" s="237">
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="I6" s="345">
+      <c r="I6" s="237">
         <f>E6*2</f>
         <v>544</v>
       </c>
-      <c r="J6" s="344"/>
-      <c r="K6" s="344">
-        <f>G6-C6</f>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236">
+        <f t="shared" si="5"/>
         <v>264.75606199999999</v>
       </c>
-      <c r="L6" s="344">
-        <f>I6-C6</f>
+      <c r="L6" s="236">
+        <f t="shared" si="6"/>
         <v>536.75606200000004</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="345">
+      <c r="A7" s="237">
         <v>2026</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="344">
-        <f>4.02441*(1+B7*20%)</f>
+      <c r="C7" s="236">
+        <f t="shared" si="0"/>
         <v>8.0488199999999992</v>
       </c>
-      <c r="D7" s="345">
+      <c r="D7" s="237">
         <v>168</v>
       </c>
-      <c r="E7" s="345">
-        <f>D7*2</f>
+      <c r="E7" s="237">
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="F7" s="345">
-        <f>D7*4</f>
+      <c r="F7" s="237">
+        <f t="shared" si="2"/>
         <v>672</v>
       </c>
-      <c r="G7" s="345">
-        <f>D7*2</f>
+      <c r="G7" s="237">
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H7" s="345">
-        <f>D7*2</f>
+      <c r="H7" s="237">
+        <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="I7" s="345">
+      <c r="I7" s="237">
         <f>E7*2</f>
         <v>672</v>
       </c>
-      <c r="J7" s="344"/>
-      <c r="K7" s="344">
-        <f>G7-C7</f>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236">
+        <f t="shared" si="5"/>
         <v>327.95118000000002</v>
       </c>
-      <c r="L7" s="344">
-        <f>I7-C7</f>
+      <c r="L7" s="236">
+        <f t="shared" si="6"/>
         <v>663.95118000000002</v>
       </c>
     </row>
@@ -12444,71 +12794,71 @@
   <sheetData>
     <row r="1" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:46" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="295"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="256"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN3" s="272" t="s">
+      <c r="AN3" s="297" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="273"/>
-      <c r="AP3" s="274"/>
+      <c r="AO3" s="298"/>
+      <c r="AP3" s="299"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
     </row>
     <row r="4" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="296" t="s">
+      <c r="E4" s="257" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="298"/>
-      <c r="U4" s="266" t="s">
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
+      <c r="O4" s="258"/>
+      <c r="P4" s="258"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="258"/>
+      <c r="S4" s="259"/>
+      <c r="U4" s="291" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="267"/>
-      <c r="W4" s="268"/>
-      <c r="AN4" s="275"/>
-      <c r="AO4" s="276"/>
-      <c r="AP4" s="277"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="293"/>
+      <c r="AN4" s="300"/>
+      <c r="AO4" s="301"/>
+      <c r="AP4" s="302"/>
       <c r="AQ4" s="51"/>
       <c r="AR4" s="51"/>
       <c r="AS4" s="51"/>
@@ -12520,24 +12870,24 @@
       <c r="C5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="299"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="301"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="270"/>
-      <c r="W5" s="271"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="261"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="262"/>
+      <c r="U5" s="294"/>
+      <c r="V5" s="295"/>
+      <c r="W5" s="296"/>
       <c r="X5" s="7"/>
       <c r="AN5" s="120" t="s">
         <v>41</v>
@@ -12558,21 +12908,21 @@
         <f>IF($C$5=$L$9,$M$9,IF($C$5=$L$10,$M$10,IF($C$5=$L$11,$M11,IF($C$5=$L$12,$M$12,IF($C$5=$L$13,$M$13,IF($C$5=$L$14,$M$14,$M$15))))))</f>
         <v>72.77</v>
       </c>
-      <c r="E6" s="302"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="304"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="264"/>
+      <c r="L6" s="264"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="264"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="264"/>
+      <c r="Q6" s="264"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="265"/>
       <c r="U6" s="113" t="s">
         <v>30</v>
       </c>
@@ -12624,10 +12974,10 @@
       <c r="L8" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="313" t="s">
+      <c r="M8" s="275" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="313"/>
+      <c r="N8" s="275"/>
       <c r="U8" s="115" t="s">
         <v>32</v>
       </c>
@@ -12661,10 +13011,10 @@
       <c r="L9" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="286">
+      <c r="M9" s="274">
         <v>1.29</v>
       </c>
-      <c r="N9" s="286"/>
+      <c r="N9" s="274"/>
       <c r="U9" s="115" t="s">
         <v>33</v>
       </c>
@@ -12698,10 +13048,10 @@
       <c r="L10" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="286">
+      <c r="M10" s="274">
         <v>72.77</v>
       </c>
-      <c r="N10" s="286"/>
+      <c r="N10" s="274"/>
       <c r="U10" s="115" t="s">
         <v>34</v>
       </c>
@@ -12732,25 +13082,25 @@
         <f>D10*2</f>
         <v>4366.2</v>
       </c>
-      <c r="F11" s="309" t="s">
+      <c r="F11" s="270" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="310"/>
-      <c r="H11" s="305">
+      <c r="G11" s="271"/>
+      <c r="H11" s="266">
         <f>40*C6</f>
         <v>2910.7999999999997</v>
       </c>
-      <c r="I11" s="307" t="str">
+      <c r="I11" s="268" t="str">
         <f>C5</f>
         <v>INR</v>
       </c>
       <c r="L11" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="286">
+      <c r="M11" s="274">
         <v>0.73</v>
       </c>
-      <c r="N11" s="286"/>
+      <c r="N11" s="274"/>
       <c r="U11" s="115" t="s">
         <v>35</v>
       </c>
@@ -12781,17 +13131,17 @@
         <f>D11*2</f>
         <v>8732.4</v>
       </c>
-      <c r="F12" s="311"/>
-      <c r="G12" s="312"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="308"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="269"/>
       <c r="L12" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="286">
+      <c r="M12" s="274">
         <v>6.4</v>
       </c>
-      <c r="N12" s="286"/>
+      <c r="N12" s="274"/>
       <c r="U12" s="115" t="s">
         <v>36</v>
       </c>
@@ -12825,10 +13175,10 @@
       <c r="L13" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="286">
+      <c r="M13" s="274">
         <v>0.83</v>
       </c>
-      <c r="N13" s="286"/>
+      <c r="N13" s="274"/>
       <c r="U13" s="115" t="s">
         <v>37</v>
       </c>
@@ -12862,18 +13212,18 @@
       <c r="L14" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="286">
+      <c r="M14" s="274">
         <v>104.95</v>
       </c>
-      <c r="N14" s="286"/>
-      <c r="U14" s="278"/>
-      <c r="V14" s="279"/>
+      <c r="N14" s="274"/>
+      <c r="U14" s="303"/>
+      <c r="V14" s="304"/>
       <c r="W14" s="11">
         <f>SUM(W6:W13)</f>
         <v>100</v>
       </c>
-      <c r="AN14" s="258"/>
-      <c r="AO14" s="259"/>
+      <c r="AN14" s="283"/>
+      <c r="AO14" s="284"/>
       <c r="AP14" s="25">
         <f>SUM(AP5:AP13)</f>
         <v>100</v>
@@ -12890,10 +13240,10 @@
       <c r="L15" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="286">
+      <c r="M15" s="274">
         <v>1</v>
       </c>
-      <c r="N15" s="286"/>
+      <c r="N15" s="274"/>
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
       <c r="W15" s="51"/>
@@ -12911,188 +13261,188 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:60" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="260" t="s">
+      <c r="B17" s="285" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="261"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="243" t="s">
+      <c r="C17" s="286"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="308" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="283"/>
-      <c r="G17" s="239" t="s">
+      <c r="F17" s="309"/>
+      <c r="G17" s="316" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="240"/>
-      <c r="I17" s="243" t="s">
+      <c r="H17" s="317"/>
+      <c r="I17" s="308" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="244"/>
-      <c r="K17" s="255" t="s">
+      <c r="J17" s="320"/>
+      <c r="K17" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="257"/>
-      <c r="U17" s="280" t="s">
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="330"/>
+      <c r="S17" s="330"/>
+      <c r="T17" s="331"/>
+      <c r="U17" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="281"/>
-      <c r="W17" s="281"/>
-      <c r="X17" s="281"/>
-      <c r="Y17" s="281"/>
-      <c r="Z17" s="281"/>
-      <c r="AA17" s="281"/>
-      <c r="AB17" s="281"/>
-      <c r="AC17" s="281"/>
-      <c r="AD17" s="281"/>
-      <c r="AE17" s="281"/>
-      <c r="AF17" s="281"/>
-      <c r="AG17" s="281"/>
-      <c r="AH17" s="281"/>
-      <c r="AI17" s="281"/>
-      <c r="AJ17" s="281"/>
-      <c r="AK17" s="281"/>
-      <c r="AL17" s="281"/>
-      <c r="AM17" s="282"/>
-      <c r="AN17" s="236" t="s">
+      <c r="V17" s="306"/>
+      <c r="W17" s="306"/>
+      <c r="X17" s="306"/>
+      <c r="Y17" s="306"/>
+      <c r="Z17" s="306"/>
+      <c r="AA17" s="306"/>
+      <c r="AB17" s="306"/>
+      <c r="AC17" s="306"/>
+      <c r="AD17" s="306"/>
+      <c r="AE17" s="306"/>
+      <c r="AF17" s="306"/>
+      <c r="AG17" s="306"/>
+      <c r="AH17" s="306"/>
+      <c r="AI17" s="306"/>
+      <c r="AJ17" s="306"/>
+      <c r="AK17" s="306"/>
+      <c r="AL17" s="306"/>
+      <c r="AM17" s="307"/>
+      <c r="AN17" s="313" t="s">
         <v>49</v>
       </c>
-      <c r="AO17" s="237"/>
-      <c r="AP17" s="237"/>
-      <c r="AQ17" s="237"/>
-      <c r="AR17" s="237"/>
-      <c r="AS17" s="237"/>
-      <c r="AT17" s="237"/>
-      <c r="AU17" s="237"/>
-      <c r="AV17" s="237"/>
-      <c r="AW17" s="237"/>
-      <c r="AX17" s="237"/>
-      <c r="AY17" s="237"/>
-      <c r="AZ17" s="237"/>
-      <c r="BA17" s="237"/>
-      <c r="BB17" s="237"/>
-      <c r="BC17" s="237"/>
-      <c r="BD17" s="237"/>
-      <c r="BE17" s="237"/>
-      <c r="BF17" s="237"/>
-      <c r="BG17" s="237"/>
-      <c r="BH17" s="238"/>
+      <c r="AO17" s="314"/>
+      <c r="AP17" s="314"/>
+      <c r="AQ17" s="314"/>
+      <c r="AR17" s="314"/>
+      <c r="AS17" s="314"/>
+      <c r="AT17" s="314"/>
+      <c r="AU17" s="314"/>
+      <c r="AV17" s="314"/>
+      <c r="AW17" s="314"/>
+      <c r="AX17" s="314"/>
+      <c r="AY17" s="314"/>
+      <c r="AZ17" s="314"/>
+      <c r="BA17" s="314"/>
+      <c r="BB17" s="314"/>
+      <c r="BC17" s="314"/>
+      <c r="BD17" s="314"/>
+      <c r="BE17" s="314"/>
+      <c r="BF17" s="314"/>
+      <c r="BG17" s="314"/>
+      <c r="BH17" s="315"/>
     </row>
     <row r="18" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="263"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="285"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="287" t="s">
+      <c r="B18" s="288"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="310"/>
+      <c r="F18" s="311"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="319"/>
+      <c r="I18" s="321"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288" t="s">
+      <c r="L18" s="276"/>
+      <c r="M18" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288" t="s">
+      <c r="N18" s="276"/>
+      <c r="O18" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288" t="s">
+      <c r="P18" s="276"/>
+      <c r="Q18" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288" t="s">
+      <c r="R18" s="276"/>
+      <c r="S18" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="T18" s="289"/>
-      <c r="U18" s="290" t="s">
+      <c r="T18" s="279"/>
+      <c r="U18" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="291"/>
-      <c r="W18" s="292"/>
-      <c r="X18" s="253" t="s">
+      <c r="V18" s="281"/>
+      <c r="W18" s="282"/>
+      <c r="X18" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" s="254"/>
-      <c r="Z18" s="253" t="s">
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="AA18" s="254"/>
-      <c r="AB18" s="253" t="s">
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="254"/>
-      <c r="AD18" s="253" t="s">
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="AE18" s="254"/>
-      <c r="AF18" s="253" t="s">
+      <c r="AE18" s="278"/>
+      <c r="AF18" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="254"/>
-      <c r="AH18" s="253" t="s">
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="AI18" s="254"/>
-      <c r="AJ18" s="253" t="s">
+      <c r="AI18" s="278"/>
+      <c r="AJ18" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="AK18" s="254"/>
-      <c r="AL18" s="253" t="s">
+      <c r="AK18" s="278"/>
+      <c r="AL18" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" s="254"/>
-      <c r="AN18" s="249" t="s">
+      <c r="AM18" s="278"/>
+      <c r="AN18" s="325" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="250"/>
-      <c r="AP18" s="251"/>
-      <c r="AQ18" s="247" t="s">
+      <c r="AO18" s="326"/>
+      <c r="AP18" s="327"/>
+      <c r="AQ18" s="323" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="248"/>
-      <c r="AS18" s="247" t="s">
+      <c r="AR18" s="324"/>
+      <c r="AS18" s="323" t="s">
         <v>42</v>
       </c>
-      <c r="AT18" s="248"/>
-      <c r="AU18" s="252" t="s">
+      <c r="AT18" s="324"/>
+      <c r="AU18" s="328" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="248"/>
-      <c r="AW18" s="247" t="s">
+      <c r="AV18" s="324"/>
+      <c r="AW18" s="323" t="s">
         <v>50</v>
       </c>
-      <c r="AX18" s="248"/>
-      <c r="AY18" s="247" t="s">
+      <c r="AX18" s="324"/>
+      <c r="AY18" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="AZ18" s="248"/>
-      <c r="BA18" s="247" t="s">
+      <c r="AZ18" s="324"/>
+      <c r="BA18" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="BB18" s="248"/>
-      <c r="BC18" s="247" t="s">
+      <c r="BB18" s="324"/>
+      <c r="BC18" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="BD18" s="248"/>
-      <c r="BE18" s="247" t="s">
+      <c r="BD18" s="324"/>
+      <c r="BE18" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="248"/>
-      <c r="BG18" s="247" t="s">
+      <c r="BF18" s="324"/>
+      <c r="BG18" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="BH18" s="248"/>
+      <c r="BH18" s="324"/>
     </row>
     <row r="19" spans="2:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
@@ -14430,22 +14780,22 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="E4:S6"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AN17:BH17"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="BA18:BB18"/>
+    <mergeCell ref="BC18:BD18"/>
+    <mergeCell ref="BE18:BF18"/>
+    <mergeCell ref="BG18:BH18"/>
+    <mergeCell ref="AQ18:AR18"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AW18:AX18"/>
+    <mergeCell ref="AY18:AZ18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="K17:T17"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="B17:D18"/>
     <mergeCell ref="U4:W5"/>
@@ -14462,22 +14812,22 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="AN17:BH17"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="BA18:BB18"/>
-    <mergeCell ref="BC18:BD18"/>
-    <mergeCell ref="BE18:BF18"/>
-    <mergeCell ref="BG18:BH18"/>
-    <mergeCell ref="AQ18:AR18"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AW18:AX18"/>
-    <mergeCell ref="AY18:AZ18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="E4:S6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
@@ -14495,7 +14845,7 @@
   <dimension ref="A1:AR1048562"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14569,42 +14919,42 @@
       <c r="C2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="326" t="s">
+      <c r="E2" s="344" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="328"/>
-      <c r="J2" s="336" t="s">
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="346"/>
+      <c r="J2" s="354" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
-      <c r="S2" s="337"/>
-      <c r="T2" s="337"/>
-      <c r="U2" s="337"/>
-      <c r="V2" s="338"/>
+      <c r="K2" s="355"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="355"/>
+      <c r="N2" s="355"/>
+      <c r="O2" s="355"/>
+      <c r="P2" s="355"/>
+      <c r="Q2" s="355"/>
+      <c r="R2" s="355"/>
+      <c r="S2" s="355"/>
+      <c r="T2" s="355"/>
+      <c r="U2" s="355"/>
+      <c r="V2" s="356"/>
       <c r="W2"/>
-      <c r="X2" s="314" t="s">
+      <c r="X2" s="332" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" s="335"/>
-      <c r="Z2" s="335"/>
-      <c r="AA2" s="335"/>
-      <c r="AB2" s="335"/>
-      <c r="AC2" s="335"/>
-      <c r="AD2" s="315"/>
+      <c r="Y2" s="353"/>
+      <c r="Z2" s="353"/>
+      <c r="AA2" s="353"/>
+      <c r="AB2" s="353"/>
+      <c r="AC2" s="353"/>
+      <c r="AD2" s="333"/>
       <c r="AE2"/>
-      <c r="AF2" s="314" t="s">
+      <c r="AF2" s="332" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" s="315"/>
+      <c r="AG2" s="333"/>
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
@@ -14617,10 +14967,10 @@
         <f>IF($C$2=OrganizationalFinPlan!$L$9,OrganizationalFinPlan!$M$9,IF($C$2=OrganizationalFinPlan!$L$10,OrganizationalFinPlan!$M$10,IF($C$2=OrganizationalFinPlan!$L$11,OrganizationalFinPlan!$M11,IF($C$2=OrganizationalFinPlan!$L$12,OrganizationalFinPlan!$M$12,IF($C$2=OrganizationalFinPlan!$L$13,OrganizationalFinPlan!$M$13,IF($C$2=OrganizationalFinPlan!$L$14,OrganizationalFinPlan!$M$14,OrganizationalFinPlan!$M$15))))))</f>
         <v>72.77</v>
       </c>
-      <c r="E3" s="329"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="331"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="349"/>
       <c r="J3" s="144" t="s">
         <v>113</v>
       </c>
@@ -14697,10 +15047,10 @@
       </c>
     </row>
     <row r="4" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="332"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="334"/>
+      <c r="E4" s="350"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="352"/>
       <c r="J4" s="149">
         <v>1</v>
       </c>
@@ -14742,7 +15092,7 @@
       </c>
       <c r="U4" s="152">
         <f>IF($S4&lt;$C$13,$D$13,IF($S4&lt;$C$14,$D$14,IF($S4&lt;$C$15,$D$15,IF($S4&lt;$C$16,$D$16,$D$17))))*($R4*$H$6*$H$8)/1000000</f>
-        <v>104.78879999999999</v>
+        <v>1100.2824000000001</v>
       </c>
       <c r="V4" s="153">
         <f>IF($S4&lt;$C$13,$H$13,IF($S4&lt;$C$14,$H$14,IF($S4&lt;$C$15,$H$15,IF($S4&lt;$C$16,$H$16,$H$17))))*$R4/100</f>
@@ -14757,11 +15107,11 @@
       </c>
       <c r="Z4" s="205">
         <f>($U$4+$U$5+$U$6)</f>
-        <v>2025.9168</v>
+        <v>21272.126400000001</v>
       </c>
       <c r="AA4" s="205">
         <f>$AJ$3*Z4%</f>
-        <v>1012.9584</v>
+        <v>10636.063200000001</v>
       </c>
       <c r="AB4" s="205">
         <v>0</v>
@@ -14771,7 +15121,7 @@
       </c>
       <c r="AD4" s="224">
         <f>AA4+AB4+AC4</f>
-        <v>1012.9584</v>
+        <v>10636.063200000001</v>
       </c>
       <c r="AE4"/>
       <c r="AF4" s="224">
@@ -14846,7 +15196,7 @@
       </c>
       <c r="U5" s="161">
         <f t="shared" ref="U5:U6" si="3">IF($S5&lt;$C$13,$D$13,IF($S5&lt;$C$14,$D$14,IF($S5&lt;$C$15,$D$15,IF($S5&lt;$C$16,$D$16,$D$17))))*($R5*$H$6*$H$8)/1000000</f>
-        <v>349.29599999999994</v>
+        <v>3667.6079999999993</v>
       </c>
       <c r="V5" s="162">
         <f t="shared" ref="V5:V55" si="4">IF($S5&lt;$C$13,$H$13,IF($S5&lt;$C$14,$H$14,IF($S5&lt;$C$15,$H$15,IF($S5&lt;$C$16,$H$16,$H$17))))*$R5/100</f>
@@ -14861,11 +15211,11 @@
       </c>
       <c r="Z5" s="165">
         <f>$U$7+$U$8</f>
-        <v>2619.7200000000003</v>
+        <v>27507.06</v>
       </c>
       <c r="AA5" s="165">
         <f t="shared" ref="AA5:AA41" si="5">$AJ$3*Z5%</f>
-        <v>1309.8600000000001</v>
+        <v>13753.53</v>
       </c>
       <c r="AB5" s="165">
         <v>0</v>
@@ -14875,7 +15225,7 @@
       </c>
       <c r="AD5" s="166">
         <f t="shared" ref="AD5:AD56" si="6">AA5+AB5+AC5</f>
-        <v>1309.8600000000001</v>
+        <v>13753.53</v>
       </c>
       <c r="AE5"/>
       <c r="AF5" s="166">
@@ -14915,14 +15265,14 @@
         <v>80</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" s="127" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="128">
         <f>IF($F$6=OrganizationalFinPlan!$U$6,OrganizationalFinPlan!$W$6,IF($F$6=OrganizationalFinPlan!$U$7,OrganizationalFinPlan!$W$7,IF($F$6=OrganizationalFinPlan!$U$8,OrganizationalFinPlan!$W$8,IF($F$6=OrganizationalFinPlan!$U$9,OrganizationalFinPlan!$W$9,IF($F$6=OrganizationalFinPlan!$U$10,OrganizationalFinPlan!$W$10,IF($F$6=OrganizationalFinPlan!$U$11,OrganizationalFinPlan!$W$11,IF($F$6=OrganizationalFinPlan!$U$12,OrganizationalFinPlan!$W$12,OrganizationalFinPlan!$W$13)))))))</f>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J6" s="157">
         <v>3</v>
@@ -14965,7 +15315,7 @@
       </c>
       <c r="U6" s="161">
         <f t="shared" si="3"/>
-        <v>1571.8320000000001</v>
+        <v>16504.236000000001</v>
       </c>
       <c r="V6" s="162">
         <f t="shared" si="4"/>
@@ -14980,11 +15330,11 @@
       </c>
       <c r="Z6" s="171">
         <f>$U$9</f>
-        <v>209.57759999999999</v>
+        <v>2200.5648000000001</v>
       </c>
       <c r="AA6" s="171">
         <f t="shared" si="5"/>
-        <v>104.78879999999999</v>
+        <v>1100.2824000000001</v>
       </c>
       <c r="AB6" s="171">
         <v>0</v>
@@ -14994,7 +15344,7 @@
       </c>
       <c r="AD6" s="172">
         <f t="shared" si="6"/>
-        <v>104.78879999999999</v>
+        <v>1100.2824000000001</v>
       </c>
       <c r="AE6"/>
       <c r="AF6" s="172">
@@ -15066,7 +15416,7 @@
       </c>
       <c r="U7" s="174">
         <f t="shared" ref="U7:U29" si="11">IF($S7&lt;$C$13,$D$13,IF($S7&lt;$C$14,$D$14,IF($S7&lt;$C$15,$D$15,IF($S7&lt;$C$16,$D$16,$D$17))))*($R7*$H$6*$H$8)/1000000</f>
-        <v>1047.8879999999999</v>
+        <v>11002.824000000001</v>
       </c>
       <c r="V7" s="175">
         <f t="shared" si="4"/>
@@ -15081,11 +15431,11 @@
       </c>
       <c r="Z7" s="178">
         <f>$U$10+$U$11+$U$12</f>
-        <v>5030.576</v>
+        <v>52821.048000000003</v>
       </c>
       <c r="AA7" s="178">
         <f t="shared" si="5"/>
-        <v>2515.288</v>
+        <v>26410.524000000005</v>
       </c>
       <c r="AB7" s="178">
         <v>0</v>
@@ -15095,7 +15445,7 @@
       </c>
       <c r="AD7" s="179">
         <f t="shared" si="6"/>
-        <v>2515.288</v>
+        <v>26410.524000000005</v>
       </c>
       <c r="AE7"/>
       <c r="AF7" s="179">
@@ -15126,12 +15476,12 @@
         <f>$C$7*4</f>
         <v>17464.8</v>
       </c>
-      <c r="E8" s="322" t="s">
+      <c r="E8" s="340" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="323"/>
-      <c r="G8" s="323"/>
-      <c r="H8" s="320">
+      <c r="F8" s="341"/>
+      <c r="G8" s="341"/>
+      <c r="H8" s="338">
         <v>100</v>
       </c>
       <c r="J8" s="163">
@@ -15175,7 +15525,7 @@
       </c>
       <c r="U8" s="174">
         <f t="shared" si="11"/>
-        <v>1571.8320000000001</v>
+        <v>16504.236000000001</v>
       </c>
       <c r="V8" s="175">
         <f t="shared" si="4"/>
@@ -15190,11 +15540,11 @@
       </c>
       <c r="Z8" s="159">
         <f>$U$13</f>
-        <v>2212.2080000000001</v>
+        <v>23228.184000000001</v>
       </c>
       <c r="AA8" s="159">
         <f t="shared" si="5"/>
-        <v>1106.104</v>
+        <v>11614.092000000001</v>
       </c>
       <c r="AB8" s="159">
         <v>0</v>
@@ -15204,7 +15554,7 @@
       </c>
       <c r="AD8" s="180">
         <f t="shared" si="6"/>
-        <v>1106.104</v>
+        <v>11614.092000000001</v>
       </c>
       <c r="AE8"/>
       <c r="AF8" s="180">
@@ -15230,10 +15580,10 @@
     <row r="9" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="325"/>
-      <c r="H9" s="321"/>
+      <c r="E9" s="342"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="343"/>
+      <c r="H9" s="339"/>
       <c r="J9" s="181">
         <v>8</v>
       </c>
@@ -15275,7 +15625,7 @@
       </c>
       <c r="U9" s="185">
         <f t="shared" si="11"/>
-        <v>209.57759999999999</v>
+        <v>2200.5648000000001</v>
       </c>
       <c r="V9" s="186">
         <f t="shared" si="4"/>
@@ -15290,11 +15640,11 @@
       </c>
       <c r="Z9" s="165">
         <f>$U$14</f>
-        <v>2910.8</v>
+        <v>30563.4</v>
       </c>
       <c r="AA9" s="165">
         <f t="shared" si="5"/>
-        <v>1455.4</v>
+        <v>15281.7</v>
       </c>
       <c r="AB9" s="165">
         <v>0</v>
@@ -15304,7 +15654,7 @@
       </c>
       <c r="AD9" s="166">
         <f t="shared" si="6"/>
-        <v>1455.4</v>
+        <v>15281.7</v>
       </c>
       <c r="AE9"/>
       <c r="AF9" s="166">
@@ -15369,7 +15719,7 @@
       </c>
       <c r="U10" s="188">
         <f t="shared" si="11"/>
-        <v>2095.7759999999998</v>
+        <v>22005.648000000001</v>
       </c>
       <c r="V10" s="189">
         <f t="shared" si="4"/>
@@ -15384,22 +15734,22 @@
       </c>
       <c r="Z10" s="171">
         <f>$U$15</f>
-        <v>2445.0720000000001</v>
+        <v>25673.255999999998</v>
       </c>
       <c r="AA10" s="171">
         <f t="shared" si="5"/>
-        <v>1222.5360000000001</v>
+        <v>12836.627999999999</v>
       </c>
       <c r="AB10" s="171">
         <f>$Z4*$AJ$4%</f>
-        <v>506.47919999999999</v>
+        <v>5318.0316000000003</v>
       </c>
       <c r="AC10" s="171">
         <v>0</v>
       </c>
       <c r="AD10" s="172">
         <f t="shared" si="6"/>
-        <v>1729.0152</v>
+        <v>18154.659599999999</v>
       </c>
       <c r="AE10"/>
       <c r="AF10" s="172">
@@ -15423,17 +15773,17 @@
       <c r="AR10" s="1"/>
     </row>
     <row r="11" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="316" t="s">
+      <c r="B11" s="334" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="317"/>
-      <c r="D11" s="318" t="s">
+      <c r="C11" s="335"/>
+      <c r="D11" s="336" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="319"/>
+      <c r="E11" s="337"/>
       <c r="F11" s="129" t="str">
         <f>$F$6</f>
-        <v>Admin / Manager</v>
+        <v>Teacher</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>93</v>
@@ -15481,7 +15831,7 @@
       </c>
       <c r="U11" s="194">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="V11" s="195">
         <f t="shared" si="4"/>
@@ -15496,22 +15846,22 @@
       </c>
       <c r="Z11" s="178">
         <f>$U$16</f>
-        <v>2183.0999999999995</v>
+        <v>22922.549999999992</v>
       </c>
       <c r="AA11" s="178">
         <f t="shared" si="5"/>
-        <v>1091.5499999999997</v>
+        <v>11461.274999999996</v>
       </c>
       <c r="AB11" s="178">
         <f t="shared" ref="AB11:AB56" si="13">$Z5*$AJ$4%</f>
-        <v>654.93000000000006</v>
+        <v>6876.7650000000003</v>
       </c>
       <c r="AC11" s="178">
         <v>0</v>
       </c>
       <c r="AD11" s="179">
         <f t="shared" si="6"/>
-        <v>1746.4799999999998</v>
+        <v>18338.039999999997</v>
       </c>
       <c r="AE11"/>
       <c r="AF11" s="179">
@@ -15597,7 +15947,7 @@
       </c>
       <c r="U12" s="200">
         <f t="shared" si="11"/>
-        <v>2910.8</v>
+        <v>30563.4</v>
       </c>
       <c r="V12" s="201">
         <f t="shared" si="4"/>
@@ -15612,22 +15962,22 @@
       </c>
       <c r="Z12" s="159">
         <f>$U$17</f>
-        <v>1892.0199999999995</v>
+        <v>19866.209999999995</v>
       </c>
       <c r="AA12" s="159">
         <f t="shared" si="5"/>
-        <v>946.00999999999976</v>
+        <v>9933.1049999999977</v>
       </c>
       <c r="AB12" s="159">
         <f t="shared" si="13"/>
-        <v>52.394399999999997</v>
+        <v>550.14120000000003</v>
       </c>
       <c r="AC12" s="159">
         <v>0</v>
       </c>
       <c r="AD12" s="180">
         <f t="shared" si="6"/>
-        <v>998.40439999999978</v>
+        <v>10483.246199999998</v>
       </c>
       <c r="AE12"/>
       <c r="AF12" s="180">
@@ -15667,11 +16017,11 @@
       </c>
       <c r="F13" s="14">
         <f>E13*$H$6%</f>
-        <v>8732.4</v>
+        <v>91690.2</v>
       </c>
       <c r="G13" s="14">
         <f>$H$8%*F13</f>
-        <v>8732.4</v>
+        <v>91690.2</v>
       </c>
       <c r="H13" s="138">
         <f>100-2*D13-20</f>
@@ -15718,7 +16068,7 @@
       </c>
       <c r="U13" s="161">
         <f t="shared" si="11"/>
-        <v>2212.2080000000001</v>
+        <v>23228.184000000001</v>
       </c>
       <c r="V13" s="162">
         <f t="shared" si="4"/>
@@ -15733,22 +16083,22 @@
       </c>
       <c r="Z13" s="165">
         <f>$U$18</f>
-        <v>1309.8599999999997</v>
+        <v>13753.529999999997</v>
       </c>
       <c r="AA13" s="165">
         <f t="shared" si="5"/>
-        <v>654.92999999999984</v>
+        <v>6876.7649999999985</v>
       </c>
       <c r="AB13" s="165">
         <f t="shared" si="13"/>
-        <v>1257.644</v>
+        <v>13205.262000000001</v>
       </c>
       <c r="AC13" s="165">
         <v>0</v>
       </c>
       <c r="AD13" s="166">
         <f t="shared" si="6"/>
-        <v>1912.5739999999998</v>
+        <v>20082.026999999998</v>
       </c>
       <c r="AE13"/>
       <c r="AF13" s="166">
@@ -15788,11 +16138,11 @@
       </c>
       <c r="F14" s="14">
         <f>E14*$H$6%</f>
-        <v>30563.4</v>
+        <v>320915.7</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" ref="G14:G16" si="16">$H$8%*F14</f>
-        <v>30563.4</v>
+        <v>320915.7</v>
       </c>
       <c r="H14" s="139">
         <f t="shared" ref="H14:H16" si="17">100-2*D14-20</f>
@@ -15839,7 +16189,7 @@
       </c>
       <c r="U14" s="174">
         <f t="shared" si="11"/>
-        <v>2910.8</v>
+        <v>30563.4</v>
       </c>
       <c r="V14" s="175">
         <f t="shared" si="4"/>
@@ -15854,22 +16204,22 @@
       </c>
       <c r="Z14" s="171">
         <f>$U$19</f>
-        <v>2328.6399999999994</v>
+        <v>24450.719999999994</v>
       </c>
       <c r="AA14" s="171">
         <f t="shared" si="5"/>
-        <v>1164.3199999999997</v>
+        <v>12225.359999999997</v>
       </c>
       <c r="AB14" s="171">
         <f t="shared" si="13"/>
-        <v>553.05200000000002</v>
+        <v>5807.0460000000003</v>
       </c>
       <c r="AC14" s="171">
         <v>0</v>
       </c>
       <c r="AD14" s="172">
         <f t="shared" si="6"/>
-        <v>1717.3719999999998</v>
+        <v>18032.405999999995</v>
       </c>
       <c r="AE14"/>
       <c r="AF14" s="172">
@@ -15909,11 +16259,11 @@
       </c>
       <c r="F15" s="14">
         <f>E15*$H$6%</f>
-        <v>100422.6</v>
+        <v>1054437.3</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="16"/>
-        <v>100422.6</v>
+        <v>1054437.3</v>
       </c>
       <c r="H15" s="139">
         <f t="shared" si="17"/>
@@ -15960,7 +16310,7 @@
       </c>
       <c r="U15" s="185">
         <f t="shared" si="11"/>
-        <v>2445.0720000000001</v>
+        <v>25673.255999999998</v>
       </c>
       <c r="V15" s="186">
         <f t="shared" si="4"/>
@@ -15975,22 +16325,22 @@
       </c>
       <c r="Z15" s="178">
         <f>$U$20+$U$21</f>
-        <v>3638.4999999999995</v>
+        <v>38204.25</v>
       </c>
       <c r="AA15" s="178">
         <f t="shared" si="5"/>
-        <v>1819.25</v>
+        <v>19102.125</v>
       </c>
       <c r="AB15" s="178">
         <f t="shared" si="13"/>
-        <v>727.7</v>
+        <v>7640.85</v>
       </c>
       <c r="AC15" s="178">
         <v>0</v>
       </c>
       <c r="AD15" s="179">
         <f t="shared" si="6"/>
-        <v>2546.9499999999998</v>
+        <v>26742.974999999999</v>
       </c>
       <c r="AE15"/>
       <c r="AF15" s="179">
@@ -16030,11 +16380,11 @@
       </c>
       <c r="F16" s="14">
         <f>E16*$H$6%</f>
-        <v>310000.2</v>
+        <v>3255002.1</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="16"/>
-        <v>310000.2</v>
+        <v>3255002.1</v>
       </c>
       <c r="H16" s="139">
         <f t="shared" si="17"/>
@@ -16081,7 +16431,7 @@
       </c>
       <c r="U16" s="188">
         <f t="shared" si="11"/>
-        <v>2183.0999999999995</v>
+        <v>22922.549999999992</v>
       </c>
       <c r="V16" s="189">
         <f t="shared" si="4"/>
@@ -16096,23 +16446,23 @@
       </c>
       <c r="Z16" s="159">
         <f>$U$22</f>
-        <v>4366.2</v>
+        <v>45845.1</v>
       </c>
       <c r="AA16" s="159">
         <f t="shared" si="5"/>
-        <v>2183.1</v>
+        <v>22922.55</v>
       </c>
       <c r="AB16" s="159">
         <f t="shared" si="13"/>
-        <v>611.26800000000003</v>
+        <v>6418.3139999999994</v>
       </c>
       <c r="AC16" s="159">
         <f>$Z4*$AJ$5%</f>
-        <v>506.47919999999999</v>
+        <v>5318.0316000000003</v>
       </c>
       <c r="AD16" s="180">
         <f t="shared" si="6"/>
-        <v>3300.8472000000002</v>
+        <v>34658.895599999996</v>
       </c>
       <c r="AE16"/>
       <c r="AF16" s="180">
@@ -16198,7 +16548,7 @@
       </c>
       <c r="U17" s="161">
         <f t="shared" si="11"/>
-        <v>1892.0199999999995</v>
+        <v>19866.209999999995</v>
       </c>
       <c r="V17" s="162">
         <f t="shared" si="4"/>
@@ -16213,23 +16563,23 @@
       </c>
       <c r="Z17" s="165">
         <f>$U$23+$U$24</f>
-        <v>6403.76</v>
+        <v>67239.48000000001</v>
       </c>
       <c r="AA17" s="165">
         <f t="shared" si="5"/>
-        <v>3201.88</v>
+        <v>33619.740000000005</v>
       </c>
       <c r="AB17" s="165">
         <f t="shared" si="13"/>
-        <v>545.77499999999986</v>
+        <v>5730.637499999998</v>
       </c>
       <c r="AC17" s="165">
         <f t="shared" ref="AC17:AC56" si="20">$Z5*$AJ$5%</f>
-        <v>654.93000000000006</v>
+        <v>6876.7650000000003</v>
       </c>
       <c r="AD17" s="166">
         <f t="shared" si="6"/>
-        <v>4402.585</v>
+        <v>46227.142500000002</v>
       </c>
       <c r="AE17"/>
       <c r="AF17" s="166">
@@ -16297,7 +16647,7 @@
       </c>
       <c r="U18" s="174">
         <f t="shared" si="11"/>
-        <v>1309.8599999999997</v>
+        <v>13753.529999999997</v>
       </c>
       <c r="V18" s="175">
         <f t="shared" si="4"/>
@@ -16312,23 +16662,23 @@
       </c>
       <c r="Z18" s="171">
         <f>$U$25+$U$26</f>
-        <v>1455.4</v>
+        <v>15281.7</v>
       </c>
       <c r="AA18" s="171">
         <f t="shared" si="5"/>
-        <v>727.7</v>
+        <v>7640.85</v>
       </c>
       <c r="AB18" s="171">
         <f t="shared" si="13"/>
-        <v>473.00499999999988</v>
+        <v>4966.5524999999989</v>
       </c>
       <c r="AC18" s="171">
         <f t="shared" si="20"/>
-        <v>52.394399999999997</v>
+        <v>550.14120000000003</v>
       </c>
       <c r="AD18" s="172">
         <f t="shared" si="6"/>
-        <v>1253.0993999999998</v>
+        <v>13157.5437</v>
       </c>
       <c r="AE18"/>
       <c r="AF18" s="172">
@@ -16393,7 +16743,7 @@
       </c>
       <c r="U19" s="185">
         <f t="shared" si="11"/>
-        <v>2328.6399999999994</v>
+        <v>24450.719999999994</v>
       </c>
       <c r="V19" s="186">
         <f t="shared" si="4"/>
@@ -16408,23 +16758,23 @@
       </c>
       <c r="Z19" s="178">
         <f>$U$27</f>
-        <v>7684.5119999999997</v>
+        <v>80687.376000000004</v>
       </c>
       <c r="AA19" s="178">
         <f t="shared" si="5"/>
-        <v>3842.2559999999999</v>
+        <v>40343.688000000002</v>
       </c>
       <c r="AB19" s="178">
         <f t="shared" si="13"/>
-        <v>327.46499999999992</v>
+        <v>3438.3824999999993</v>
       </c>
       <c r="AC19" s="178">
         <f t="shared" si="20"/>
-        <v>1257.644</v>
+        <v>13205.262000000001</v>
       </c>
       <c r="AD19" s="179">
         <f t="shared" si="6"/>
-        <v>5427.3649999999998</v>
+        <v>56987.332500000004</v>
       </c>
       <c r="AE19"/>
       <c r="AF19" s="179">
@@ -16489,7 +16839,7 @@
       </c>
       <c r="U20" s="188">
         <f t="shared" si="11"/>
-        <v>1892.0199999999995</v>
+        <v>19866.209999999995</v>
       </c>
       <c r="V20" s="189">
         <f t="shared" si="4"/>
@@ -16504,23 +16854,23 @@
       </c>
       <c r="Z20" s="159">
         <f>$U$28</f>
-        <v>9081.6959999999999</v>
+        <v>95357.808000000005</v>
       </c>
       <c r="AA20" s="159">
         <f t="shared" si="5"/>
-        <v>4540.848</v>
+        <v>47678.904000000002</v>
       </c>
       <c r="AB20" s="159">
         <f t="shared" si="13"/>
-        <v>582.15999999999985</v>
+        <v>6112.6799999999985</v>
       </c>
       <c r="AC20" s="159">
         <f t="shared" si="20"/>
-        <v>553.05200000000002</v>
+        <v>5807.0460000000003</v>
       </c>
       <c r="AD20" s="180">
         <f t="shared" si="6"/>
-        <v>5676.0599999999995</v>
+        <v>59598.630000000005</v>
       </c>
       <c r="AE20"/>
       <c r="AF20" s="180">
@@ -16585,7 +16935,7 @@
       </c>
       <c r="U21" s="194">
         <f t="shared" si="11"/>
-        <v>1746.48</v>
+        <v>18338.04</v>
       </c>
       <c r="V21" s="195">
         <f t="shared" si="4"/>
@@ -16600,23 +16950,23 @@
       </c>
       <c r="Z21" s="165">
         <f>$U$29</f>
-        <v>8033.808</v>
+        <v>84354.983999999997</v>
       </c>
       <c r="AA21" s="165">
         <f t="shared" si="5"/>
-        <v>4016.9040000000005</v>
+        <v>42177.491999999998</v>
       </c>
       <c r="AB21" s="165">
         <f t="shared" si="13"/>
-        <v>909.62499999999989</v>
+        <v>9551.0625</v>
       </c>
       <c r="AC21" s="165">
         <f t="shared" si="20"/>
-        <v>727.7</v>
+        <v>7640.85</v>
       </c>
       <c r="AD21" s="166">
         <f t="shared" si="6"/>
-        <v>5654.2290000000003</v>
+        <v>59369.404499999997</v>
       </c>
       <c r="AE21"/>
       <c r="AF21" s="166">
@@ -16681,7 +17031,7 @@
       </c>
       <c r="U22" s="152">
         <f t="shared" si="11"/>
-        <v>4366.2</v>
+        <v>45845.1</v>
       </c>
       <c r="V22" s="153">
         <f t="shared" si="4"/>
@@ -16696,23 +17046,23 @@
       </c>
       <c r="Z22" s="171">
         <f>$U$30</f>
-        <v>6636.6239999999998</v>
+        <v>69684.551999999996</v>
       </c>
       <c r="AA22" s="171">
         <f t="shared" si="5"/>
-        <v>3318.3120000000004</v>
+        <v>34842.275999999998</v>
       </c>
       <c r="AB22" s="171">
         <f t="shared" si="13"/>
-        <v>1091.55</v>
+        <v>11461.275</v>
       </c>
       <c r="AC22" s="171">
         <f t="shared" si="20"/>
-        <v>611.26800000000003</v>
+        <v>6418.3139999999994</v>
       </c>
       <c r="AD22" s="172">
         <f t="shared" si="6"/>
-        <v>5021.13</v>
+        <v>52721.864999999998</v>
       </c>
       <c r="AE22"/>
       <c r="AF22" s="172">
@@ -16777,7 +17127,7 @@
       </c>
       <c r="U23" s="174">
         <f t="shared" si="11"/>
-        <v>3492.96</v>
+        <v>36676.080000000002</v>
       </c>
       <c r="V23" s="175">
         <f t="shared" si="4"/>
@@ -16792,23 +17142,23 @@
       </c>
       <c r="Z23" s="178">
         <f>$U$31</f>
-        <v>5239.4399999999996</v>
+        <v>55014.12</v>
       </c>
       <c r="AA23" s="178">
         <f t="shared" si="5"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AB23" s="178">
         <f t="shared" si="13"/>
-        <v>1600.94</v>
+        <v>16809.870000000003</v>
       </c>
       <c r="AC23" s="178">
         <f t="shared" si="20"/>
-        <v>545.77499999999986</v>
+        <v>5730.637499999998</v>
       </c>
       <c r="AD23" s="179">
         <f t="shared" si="6"/>
-        <v>4766.4349999999995</v>
+        <v>50047.567500000005</v>
       </c>
       <c r="AE23"/>
       <c r="AF23" s="179">
@@ -16873,7 +17223,7 @@
       </c>
       <c r="U24" s="174">
         <f t="shared" si="11"/>
-        <v>2910.8</v>
+        <v>30563.4</v>
       </c>
       <c r="V24" s="175">
         <f t="shared" si="4"/>
@@ -16888,23 +17238,23 @@
       </c>
       <c r="Z24" s="159">
         <f>$U$32</f>
-        <v>4890.1440000000002</v>
+        <v>51346.512000000002</v>
       </c>
       <c r="AA24" s="159">
         <f t="shared" si="5"/>
-        <v>2445.0720000000001</v>
+        <v>25673.256000000005</v>
       </c>
       <c r="AB24" s="159">
         <f t="shared" si="13"/>
-        <v>363.85</v>
+        <v>3820.4250000000002</v>
       </c>
       <c r="AC24" s="159">
         <f t="shared" si="20"/>
-        <v>473.00499999999988</v>
+        <v>4966.5524999999989</v>
       </c>
       <c r="AD24" s="180">
         <f t="shared" si="6"/>
-        <v>3281.9269999999997</v>
+        <v>34460.233500000002</v>
       </c>
       <c r="AE24"/>
       <c r="AF24" s="180">
@@ -16969,7 +17319,7 @@
       </c>
       <c r="U25" s="185">
         <f t="shared" si="11"/>
-        <v>1455.4</v>
+        <v>15281.7</v>
       </c>
       <c r="V25" s="186">
         <f t="shared" si="4"/>
@@ -16984,23 +17334,23 @@
       </c>
       <c r="Z25" s="165">
         <f>$U$33</f>
-        <v>4890.1440000000002</v>
+        <v>51346.512000000002</v>
       </c>
       <c r="AA25" s="165">
         <f t="shared" si="5"/>
-        <v>2445.0720000000001</v>
+        <v>25673.256000000005</v>
       </c>
       <c r="AB25" s="165">
         <f t="shared" si="13"/>
-        <v>1921.1279999999999</v>
+        <v>20171.844000000001</v>
       </c>
       <c r="AC25" s="165">
         <f t="shared" si="20"/>
-        <v>327.46499999999992</v>
+        <v>3438.3824999999993</v>
       </c>
       <c r="AD25" s="166">
         <f t="shared" si="6"/>
-        <v>4693.665</v>
+        <v>49283.482500000006</v>
       </c>
       <c r="AE25"/>
       <c r="AF25" s="166">
@@ -17080,23 +17430,23 @@
       </c>
       <c r="Z26" s="171">
         <f>$U$34</f>
-        <v>4540.848</v>
+        <v>47678.904000000002</v>
       </c>
       <c r="AA26" s="171">
         <f t="shared" si="5"/>
-        <v>2270.424</v>
+        <v>23839.452000000001</v>
       </c>
       <c r="AB26" s="171">
         <f t="shared" si="13"/>
-        <v>2270.424</v>
+        <v>23839.452000000001</v>
       </c>
       <c r="AC26" s="171">
         <f t="shared" si="20"/>
-        <v>582.15999999999985</v>
+        <v>6112.6799999999985</v>
       </c>
       <c r="AD26" s="172">
         <f t="shared" si="6"/>
-        <v>5123.0079999999998</v>
+        <v>53791.584000000003</v>
       </c>
       <c r="AE26"/>
       <c r="AF26" s="172">
@@ -17161,7 +17511,7 @@
       </c>
       <c r="U27" s="188">
         <f t="shared" si="11"/>
-        <v>7684.5119999999997</v>
+        <v>80687.376000000004</v>
       </c>
       <c r="V27" s="189">
         <f t="shared" si="4"/>
@@ -17176,23 +17526,23 @@
       </c>
       <c r="Z27" s="178">
         <f>$U$35+$U$36</f>
-        <v>6520.1919999999991</v>
+        <v>68462.016000000003</v>
       </c>
       <c r="AA27" s="178">
         <f t="shared" si="5"/>
-        <v>3260.0959999999995</v>
+        <v>34231.008000000002</v>
       </c>
       <c r="AB27" s="178">
         <f t="shared" si="13"/>
-        <v>2008.452</v>
+        <v>21088.745999999999</v>
       </c>
       <c r="AC27" s="178">
         <f t="shared" si="20"/>
-        <v>909.62499999999989</v>
+        <v>9551.0625</v>
       </c>
       <c r="AD27" s="179">
         <f t="shared" si="6"/>
-        <v>6178.1729999999998</v>
+        <v>64870.816500000001</v>
       </c>
       <c r="AE27"/>
       <c r="AF27" s="179">
@@ -17257,7 +17607,7 @@
       </c>
       <c r="U28" s="161">
         <f t="shared" si="11"/>
-        <v>9081.6959999999999</v>
+        <v>95357.808000000005</v>
       </c>
       <c r="V28" s="162">
         <f t="shared" si="4"/>
@@ -17272,23 +17622,23 @@
       </c>
       <c r="Z28" s="159">
         <f>$U$37</f>
-        <v>7859.159999999998</v>
+        <v>82521.179999999978</v>
       </c>
       <c r="AA28" s="159">
         <f t="shared" si="5"/>
-        <v>3929.5799999999995</v>
+        <v>41260.589999999989</v>
       </c>
       <c r="AB28" s="159">
         <f t="shared" si="13"/>
-        <v>1659.1559999999999</v>
+        <v>17421.137999999999</v>
       </c>
       <c r="AC28" s="159">
         <f t="shared" si="20"/>
-        <v>1091.55</v>
+        <v>11461.275</v>
       </c>
       <c r="AD28" s="180">
         <f t="shared" si="6"/>
-        <v>6680.2859999999991</v>
+        <v>70143.002999999982</v>
       </c>
       <c r="AE28"/>
       <c r="AF28" s="180">
@@ -17353,7 +17703,7 @@
       </c>
       <c r="U29" s="174">
         <f t="shared" si="11"/>
-        <v>8033.808</v>
+        <v>84354.983999999997</v>
       </c>
       <c r="V29" s="175">
         <f t="shared" si="4"/>
@@ -17368,23 +17718,23 @@
       </c>
       <c r="Z29" s="165">
         <f>$U$38</f>
-        <v>13098.6</v>
+        <v>137535.29999999999</v>
       </c>
       <c r="AA29" s="165">
         <f t="shared" si="5"/>
-        <v>6549.2999999999993</v>
+        <v>68767.649999999994</v>
       </c>
       <c r="AB29" s="165">
         <f t="shared" si="13"/>
-        <v>1309.8599999999999</v>
+        <v>13753.53</v>
       </c>
       <c r="AC29" s="165">
         <f t="shared" si="20"/>
-        <v>1600.94</v>
+        <v>16809.870000000003</v>
       </c>
       <c r="AD29" s="166">
         <f t="shared" si="6"/>
-        <v>9460.0999999999985</v>
+        <v>99331.049999999988</v>
       </c>
       <c r="AE29"/>
       <c r="AF29" s="166">
@@ -17449,7 +17799,7 @@
       </c>
       <c r="U30" s="185">
         <f t="shared" ref="U30:U39" si="24">IF($S30&lt;$C$13,$D$13,IF($S30&lt;$C$14,$D$14,IF($S30&lt;$C$15,$D$15,IF($S30&lt;$C$16,$D$16,$D$17))))*($R30*$H$6*$H$8)/1000000</f>
-        <v>6636.6239999999998</v>
+        <v>69684.551999999996</v>
       </c>
       <c r="V30" s="186">
         <f t="shared" si="4"/>
@@ -17464,23 +17814,23 @@
       </c>
       <c r="Z30" s="171">
         <f>$U$39+$U$40</f>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AA30" s="171">
         <f t="shared" si="5"/>
-        <v>1309.8599999999999</v>
+        <v>13753.53</v>
       </c>
       <c r="AB30" s="171">
         <f t="shared" si="13"/>
-        <v>1222.5360000000001</v>
+        <v>12836.628000000001</v>
       </c>
       <c r="AC30" s="171">
         <f t="shared" si="20"/>
-        <v>363.85</v>
+        <v>3820.4250000000002</v>
       </c>
       <c r="AD30" s="172">
         <f t="shared" si="6"/>
-        <v>2896.2459999999996</v>
+        <v>30410.583000000002</v>
       </c>
       <c r="AE30"/>
       <c r="AF30" s="172">
@@ -17545,7 +17895,7 @@
       </c>
       <c r="U31" s="188">
         <f t="shared" si="24"/>
-        <v>5239.4399999999996</v>
+        <v>55014.12</v>
       </c>
       <c r="V31" s="189">
         <f t="shared" si="4"/>
@@ -17560,23 +17910,23 @@
       </c>
       <c r="Z31" s="178">
         <f>$U$41</f>
-        <v>11352.12</v>
+        <v>119197.26</v>
       </c>
       <c r="AA31" s="178">
         <f t="shared" si="5"/>
-        <v>5676.06</v>
+        <v>59598.630000000005</v>
       </c>
       <c r="AB31" s="178">
         <f t="shared" si="13"/>
-        <v>1222.5360000000001</v>
+        <v>12836.628000000001</v>
       </c>
       <c r="AC31" s="178">
         <f t="shared" si="20"/>
-        <v>1921.1279999999999</v>
+        <v>20171.844000000001</v>
       </c>
       <c r="AD31" s="179">
         <f t="shared" si="6"/>
-        <v>8819.7240000000002</v>
+        <v>92607.101999999999</v>
       </c>
       <c r="AE31"/>
       <c r="AF31" s="179">
@@ -17641,7 +17991,7 @@
       </c>
       <c r="U32" s="161">
         <f t="shared" si="24"/>
-        <v>4890.1440000000002</v>
+        <v>51346.512000000002</v>
       </c>
       <c r="V32" s="162">
         <f t="shared" si="4"/>
@@ -17656,23 +18006,23 @@
       </c>
       <c r="Z32" s="159">
         <f>$U$42+$U$43</f>
-        <v>12934.8675</v>
+        <v>135816.10875000001</v>
       </c>
       <c r="AA32" s="159">
         <f t="shared" si="5"/>
-        <v>6467.4337500000011</v>
+        <v>67908.054375000007</v>
       </c>
       <c r="AB32" s="159">
         <f t="shared" si="13"/>
-        <v>1135.212</v>
+        <v>11919.726000000001</v>
       </c>
       <c r="AC32" s="159">
         <f t="shared" si="20"/>
-        <v>2270.424</v>
+        <v>23839.452000000001</v>
       </c>
       <c r="AD32" s="180">
         <f t="shared" si="6"/>
-        <v>9873.0697500000024</v>
+        <v>103667.23237500001</v>
       </c>
       <c r="AE32"/>
       <c r="AF32" s="180">
@@ -17737,7 +18087,7 @@
       </c>
       <c r="U33" s="174">
         <f t="shared" si="24"/>
-        <v>4890.1440000000002</v>
+        <v>51346.512000000002</v>
       </c>
       <c r="V33" s="175">
         <f t="shared" si="4"/>
@@ -17752,23 +18102,23 @@
       </c>
       <c r="Z33" s="165">
         <f>$U$44</f>
-        <v>11788.74</v>
+        <v>123781.77</v>
       </c>
       <c r="AA33" s="165">
         <f t="shared" si="5"/>
-        <v>5894.37</v>
+        <v>61890.885000000002</v>
       </c>
       <c r="AB33" s="165">
         <f t="shared" si="13"/>
-        <v>1630.0479999999998</v>
+        <v>17115.504000000001</v>
       </c>
       <c r="AC33" s="165">
         <f t="shared" si="20"/>
-        <v>2008.452</v>
+        <v>21088.745999999999</v>
       </c>
       <c r="AD33" s="166">
         <f t="shared" si="6"/>
-        <v>9532.869999999999</v>
+        <v>100095.13499999999</v>
       </c>
       <c r="AE33"/>
       <c r="AF33" s="166">
@@ -17833,7 +18183,7 @@
       </c>
       <c r="U34" s="185">
         <f t="shared" si="24"/>
-        <v>4540.848</v>
+        <v>47678.904000000002</v>
       </c>
       <c r="V34" s="186">
         <f t="shared" si="4"/>
@@ -17848,23 +18198,23 @@
       </c>
       <c r="Z34" s="171">
         <f>$U$45</f>
-        <v>11133.81</v>
+        <v>116905.005</v>
       </c>
       <c r="AA34" s="171">
         <f t="shared" si="5"/>
-        <v>5566.9049999999997</v>
+        <v>58452.502500000002</v>
       </c>
       <c r="AB34" s="171">
         <f t="shared" si="13"/>
-        <v>1964.7899999999995</v>
+        <v>20630.294999999995</v>
       </c>
       <c r="AC34" s="171">
         <f t="shared" si="20"/>
-        <v>1659.1559999999999</v>
+        <v>17421.137999999999</v>
       </c>
       <c r="AD34" s="172">
         <f t="shared" si="6"/>
-        <v>9190.8509999999987</v>
+        <v>96503.935499999992</v>
       </c>
       <c r="AE34"/>
       <c r="AF34" s="172">
@@ -17929,7 +18279,7 @@
       </c>
       <c r="U35" s="188">
         <f t="shared" si="24"/>
-        <v>2794.3679999999999</v>
+        <v>29340.864000000001</v>
       </c>
       <c r="V35" s="189">
         <f t="shared" si="4"/>
@@ -17944,23 +18294,23 @@
       </c>
       <c r="Z35" s="178">
         <f>$U$46</f>
-        <v>10478.879999999999</v>
+        <v>110028.24</v>
       </c>
       <c r="AA35" s="178">
         <f t="shared" si="5"/>
-        <v>5239.4399999999996</v>
+        <v>55014.12</v>
       </c>
       <c r="AB35" s="178">
         <f t="shared" si="13"/>
-        <v>3274.65</v>
+        <v>34383.824999999997</v>
       </c>
       <c r="AC35" s="178">
         <f t="shared" si="20"/>
-        <v>1309.8599999999999</v>
+        <v>13753.53</v>
       </c>
       <c r="AD35" s="179">
         <f t="shared" si="6"/>
-        <v>9823.9500000000007</v>
+        <v>103151.47500000001</v>
       </c>
       <c r="AE35"/>
       <c r="AF35" s="179">
@@ -18025,7 +18375,7 @@
       </c>
       <c r="U36" s="194">
         <f t="shared" si="24"/>
-        <v>3725.8239999999996</v>
+        <v>39121.151999999995</v>
       </c>
       <c r="V36" s="195">
         <f t="shared" si="4"/>
@@ -18040,23 +18390,23 @@
       </c>
       <c r="Z36" s="159">
         <f>$U$47</f>
-        <v>9823.9500000000007</v>
+        <v>103151.47500000001</v>
       </c>
       <c r="AA36" s="159">
         <f t="shared" si="5"/>
-        <v>4911.9750000000004</v>
+        <v>51575.737500000003</v>
       </c>
       <c r="AB36" s="159">
         <f t="shared" si="13"/>
-        <v>654.92999999999995</v>
+        <v>6876.7650000000003</v>
       </c>
       <c r="AC36" s="159">
         <f t="shared" si="20"/>
-        <v>1222.5360000000001</v>
+        <v>12836.628000000001</v>
       </c>
       <c r="AD36" s="180">
         <f>AA36+AB36+AC36</f>
-        <v>6789.4410000000007</v>
+        <v>71289.130499999999</v>
       </c>
       <c r="AE36"/>
       <c r="AF36" s="180">
@@ -18121,7 +18471,7 @@
       </c>
       <c r="U37" s="207">
         <f t="shared" si="24"/>
-        <v>7859.159999999998</v>
+        <v>82521.179999999978</v>
       </c>
       <c r="V37" s="208">
         <f t="shared" si="4"/>
@@ -18136,23 +18486,23 @@
       </c>
       <c r="Z37" s="165">
         <f>$U$48</f>
-        <v>10478.879999999999</v>
+        <v>110028.24</v>
       </c>
       <c r="AA37" s="165">
         <f t="shared" si="5"/>
-        <v>5239.4399999999996</v>
+        <v>55014.12</v>
       </c>
       <c r="AB37" s="165">
         <f t="shared" si="13"/>
-        <v>2838.03</v>
+        <v>29799.314999999999</v>
       </c>
       <c r="AC37" s="165">
         <f t="shared" si="20"/>
-        <v>1222.5360000000001</v>
+        <v>12836.628000000001</v>
       </c>
       <c r="AD37" s="166">
         <f t="shared" si="6"/>
-        <v>9300.0059999999994</v>
+        <v>97650.062999999995</v>
       </c>
       <c r="AE37"/>
       <c r="AF37" s="166">
@@ -18217,7 +18567,7 @@
       </c>
       <c r="U38" s="174">
         <f t="shared" si="24"/>
-        <v>13098.6</v>
+        <v>137535.29999999999</v>
       </c>
       <c r="V38" s="175">
         <f t="shared" si="4"/>
@@ -18232,23 +18582,23 @@
       </c>
       <c r="Z38" s="171">
         <f>$U$49</f>
-        <v>12771.135</v>
+        <v>134096.91750000001</v>
       </c>
       <c r="AA38" s="171">
         <f t="shared" si="5"/>
-        <v>6385.5675000000001</v>
+        <v>67048.458750000005</v>
       </c>
       <c r="AB38" s="171">
         <f t="shared" si="13"/>
-        <v>3233.7168750000001</v>
+        <v>33954.027187500003</v>
       </c>
       <c r="AC38" s="171">
         <f t="shared" si="20"/>
-        <v>1135.212</v>
+        <v>11919.726000000001</v>
       </c>
       <c r="AD38" s="172">
         <f t="shared" si="6"/>
-        <v>10754.496374999999</v>
+        <v>112922.2119375</v>
       </c>
       <c r="AE38"/>
       <c r="AF38" s="172">
@@ -18313,7 +18663,7 @@
       </c>
       <c r="U39" s="185">
         <f t="shared" si="24"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="V39" s="186">
         <f t="shared" si="4"/>
@@ -18328,23 +18678,23 @@
       </c>
       <c r="Z39" s="178">
         <f>$U$50+$U$51</f>
-        <v>18010.575000000001</v>
+        <v>189111.03750000001</v>
       </c>
       <c r="AA39" s="178">
         <f t="shared" si="5"/>
-        <v>9005.2875000000004</v>
+        <v>94555.518750000003</v>
       </c>
       <c r="AB39" s="178">
         <f t="shared" si="13"/>
-        <v>2947.1849999999999</v>
+        <v>30945.442500000001</v>
       </c>
       <c r="AC39" s="178">
         <f t="shared" si="20"/>
-        <v>1630.0479999999998</v>
+        <v>17115.504000000001</v>
       </c>
       <c r="AD39" s="179">
         <f t="shared" si="6"/>
-        <v>13582.520499999999</v>
+        <v>142616.46525000001</v>
       </c>
       <c r="AE39"/>
       <c r="AF39" s="179">
@@ -18424,23 +18774,23 @@
       </c>
       <c r="Z40" s="159">
         <f>$U$52</f>
-        <v>22704.240000000002</v>
+        <v>238394.52</v>
       </c>
       <c r="AA40" s="159">
         <f t="shared" si="5"/>
-        <v>11352.12</v>
+        <v>119197.26000000001</v>
       </c>
       <c r="AB40" s="159">
         <f t="shared" si="13"/>
-        <v>2783.4524999999999</v>
+        <v>29226.251250000001</v>
       </c>
       <c r="AC40" s="159">
         <f t="shared" si="20"/>
-        <v>1964.7899999999995</v>
+        <v>20630.294999999995</v>
       </c>
       <c r="AD40" s="180">
         <f t="shared" si="6"/>
-        <v>16100.362499999999</v>
+        <v>169053.80624999999</v>
       </c>
       <c r="AE40"/>
       <c r="AF40" s="180">
@@ -18505,7 +18855,7 @@
       </c>
       <c r="U41" s="188">
         <f t="shared" si="27"/>
-        <v>11352.12</v>
+        <v>119197.26</v>
       </c>
       <c r="V41" s="189">
         <f t="shared" si="4"/>
@@ -18519,23 +18869,23 @@
       </c>
       <c r="Z41" s="165">
         <f>$U$53</f>
-        <v>19647.900000000001</v>
+        <v>206302.95</v>
       </c>
       <c r="AA41" s="165">
         <f t="shared" si="5"/>
-        <v>9823.9500000000007</v>
+        <v>103151.47500000001</v>
       </c>
       <c r="AB41" s="165">
         <f t="shared" si="13"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AC41" s="165">
         <f t="shared" si="20"/>
-        <v>3274.65</v>
+        <v>34383.824999999997</v>
       </c>
       <c r="AD41" s="166">
         <f t="shared" si="6"/>
-        <v>15718.32</v>
+        <v>165042.35999999999</v>
       </c>
       <c r="AE41"/>
       <c r="AF41" s="166">
@@ -18589,7 +18939,7 @@
       </c>
       <c r="U42" s="161">
         <f t="shared" si="27"/>
-        <v>6385.5675000000001</v>
+        <v>67048.458750000005</v>
       </c>
       <c r="V42" s="162">
         <f t="shared" si="4"/>
@@ -18603,23 +18953,23 @@
       </c>
       <c r="Z42" s="171">
         <f>$U$54+$U$55</f>
-        <v>4470.9888000000001</v>
+        <v>46945.382400000002</v>
       </c>
       <c r="AA42" s="171">
         <f>$AJ$3*Z42%</f>
-        <v>2235.4944</v>
+        <v>23472.691200000001</v>
       </c>
       <c r="AB42" s="171">
         <f t="shared" si="13"/>
-        <v>2455.9875000000002</v>
+        <v>25787.868750000001</v>
       </c>
       <c r="AC42" s="171">
         <f t="shared" si="20"/>
-        <v>654.92999999999995</v>
+        <v>6876.7650000000003</v>
       </c>
       <c r="AD42" s="172">
         <f t="shared" si="6"/>
-        <v>5346.411900000001</v>
+        <v>56137.324950000002</v>
       </c>
       <c r="AE42"/>
       <c r="AF42" s="229">
@@ -18673,7 +19023,7 @@
       </c>
       <c r="U43" s="161">
         <f t="shared" si="27"/>
-        <v>6549.3</v>
+        <v>68767.649999999994</v>
       </c>
       <c r="V43" s="162">
         <f t="shared" si="4"/>
@@ -18694,15 +19044,15 @@
       </c>
       <c r="AB43" s="211">
         <f t="shared" si="13"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AC43" s="211">
         <f t="shared" si="20"/>
-        <v>2838.03</v>
+        <v>29799.314999999999</v>
       </c>
       <c r="AD43" s="212">
         <f t="shared" si="6"/>
-        <v>5457.75</v>
+        <v>57306.375</v>
       </c>
       <c r="AE43"/>
     </row>
@@ -18748,7 +19098,7 @@
       </c>
       <c r="U44" s="174">
         <f t="shared" si="27"/>
-        <v>11788.74</v>
+        <v>123781.77</v>
       </c>
       <c r="V44" s="175">
         <f t="shared" si="4"/>
@@ -18769,15 +19119,15 @@
       </c>
       <c r="AB44" s="211">
         <f t="shared" si="13"/>
-        <v>3192.7837500000001</v>
+        <v>33524.229375000003</v>
       </c>
       <c r="AC44" s="211">
         <f t="shared" si="20"/>
-        <v>3233.7168750000001</v>
+        <v>33954.027187500003</v>
       </c>
       <c r="AD44" s="212">
         <f t="shared" si="6"/>
-        <v>6426.5006250000006</v>
+        <v>67478.256562499999</v>
       </c>
       <c r="AE44"/>
     </row>
@@ -18823,7 +19173,7 @@
       </c>
       <c r="U45" s="185">
         <f t="shared" si="27"/>
-        <v>11133.81</v>
+        <v>116905.005</v>
       </c>
       <c r="V45" s="186">
         <f t="shared" si="4"/>
@@ -18844,15 +19194,15 @@
       </c>
       <c r="AB45" s="211">
         <f t="shared" si="13"/>
-        <v>4502.6437500000002</v>
+        <v>47277.759375000001</v>
       </c>
       <c r="AC45" s="211">
         <f t="shared" si="20"/>
-        <v>2947.1849999999999</v>
+        <v>30945.442500000001</v>
       </c>
       <c r="AD45" s="212">
         <f t="shared" si="6"/>
-        <v>7449.8287500000006</v>
+        <v>78223.201874999999</v>
       </c>
       <c r="AE45"/>
     </row>
@@ -18898,7 +19248,7 @@
       </c>
       <c r="U46" s="188">
         <f t="shared" si="27"/>
-        <v>10478.879999999999</v>
+        <v>110028.24</v>
       </c>
       <c r="V46" s="189">
         <f t="shared" si="4"/>
@@ -18919,15 +19269,15 @@
       </c>
       <c r="AB46" s="211">
         <f t="shared" si="13"/>
-        <v>5676.06</v>
+        <v>59598.63</v>
       </c>
       <c r="AC46" s="211">
         <f t="shared" si="20"/>
-        <v>2783.4524999999999</v>
+        <v>29226.251250000001</v>
       </c>
       <c r="AD46" s="212">
         <f t="shared" si="6"/>
-        <v>8459.5125000000007</v>
+        <v>88824.881250000006</v>
       </c>
       <c r="AE46"/>
     </row>
@@ -18973,7 +19323,7 @@
       </c>
       <c r="U47" s="161">
         <f t="shared" si="27"/>
-        <v>9823.9500000000007</v>
+        <v>103151.47500000001</v>
       </c>
       <c r="V47" s="162">
         <f t="shared" si="4"/>
@@ -18994,15 +19344,15 @@
       </c>
       <c r="AB47" s="211">
         <f t="shared" si="13"/>
-        <v>4911.9750000000004</v>
+        <v>51575.737500000003</v>
       </c>
       <c r="AC47" s="211">
         <f t="shared" si="20"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AD47" s="212">
         <f t="shared" si="6"/>
-        <v>7531.6949999999997</v>
+        <v>79082.797500000001</v>
       </c>
       <c r="AE47"/>
     </row>
@@ -19048,7 +19398,7 @@
       </c>
       <c r="U48" s="174">
         <f t="shared" si="27"/>
-        <v>10478.879999999999</v>
+        <v>110028.24</v>
       </c>
       <c r="V48" s="175">
         <f t="shared" si="4"/>
@@ -19069,15 +19419,15 @@
       </c>
       <c r="AB48" s="211">
         <f t="shared" si="13"/>
-        <v>1117.7472</v>
+        <v>11736.345600000001</v>
       </c>
       <c r="AC48" s="211">
         <f t="shared" si="20"/>
-        <v>2455.9875000000002</v>
+        <v>25787.868750000001</v>
       </c>
       <c r="AD48" s="212">
         <f t="shared" si="6"/>
-        <v>3573.7347</v>
+        <v>37524.214350000002</v>
       </c>
       <c r="AE48"/>
     </row>
@@ -19123,7 +19473,7 @@
       </c>
       <c r="U49" s="185">
         <f t="shared" si="27"/>
-        <v>12771.135</v>
+        <v>134096.91750000001</v>
       </c>
       <c r="V49" s="186">
         <f t="shared" si="4"/>
@@ -19148,11 +19498,11 @@
       </c>
       <c r="AC49" s="211">
         <f t="shared" si="20"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AD49" s="212">
         <f t="shared" si="6"/>
-        <v>2619.7199999999998</v>
+        <v>27507.06</v>
       </c>
       <c r="AE49"/>
     </row>
@@ -19198,7 +19548,7 @@
       </c>
       <c r="U50" s="188">
         <f t="shared" si="27"/>
-        <v>7095.0749999999998</v>
+        <v>74498.287500000006</v>
       </c>
       <c r="V50" s="189">
         <f t="shared" si="4"/>
@@ -19223,11 +19573,11 @@
       </c>
       <c r="AC50" s="211">
         <f t="shared" si="20"/>
-        <v>3192.7837500000001</v>
+        <v>33524.229375000003</v>
       </c>
       <c r="AD50" s="212">
         <f t="shared" si="6"/>
-        <v>3192.7837500000001</v>
+        <v>33524.229375000003</v>
       </c>
       <c r="AE50"/>
     </row>
@@ -19273,7 +19623,7 @@
       </c>
       <c r="U51" s="188">
         <f t="shared" si="27"/>
-        <v>10915.5</v>
+        <v>114612.75</v>
       </c>
       <c r="V51" s="189">
         <f t="shared" si="4"/>
@@ -19298,11 +19648,11 @@
       </c>
       <c r="AC51" s="211">
         <f t="shared" si="20"/>
-        <v>4502.6437500000002</v>
+        <v>47277.759375000001</v>
       </c>
       <c r="AD51" s="212">
         <f t="shared" si="6"/>
-        <v>4502.6437500000002</v>
+        <v>47277.759375000001</v>
       </c>
       <c r="AE51"/>
     </row>
@@ -19348,7 +19698,7 @@
       </c>
       <c r="U52" s="161">
         <f t="shared" si="27"/>
-        <v>22704.240000000002</v>
+        <v>238394.52</v>
       </c>
       <c r="V52" s="162">
         <f t="shared" si="4"/>
@@ -19373,11 +19723,11 @@
       </c>
       <c r="AC52" s="211">
         <f t="shared" si="20"/>
-        <v>5676.06</v>
+        <v>59598.63</v>
       </c>
       <c r="AD52" s="212">
         <f t="shared" si="6"/>
-        <v>5676.06</v>
+        <v>59598.63</v>
       </c>
       <c r="AE52"/>
     </row>
@@ -19423,7 +19773,7 @@
       </c>
       <c r="U53" s="174">
         <f t="shared" si="27"/>
-        <v>19647.900000000001</v>
+        <v>206302.95</v>
       </c>
       <c r="V53" s="175">
         <f t="shared" si="4"/>
@@ -19448,11 +19798,11 @@
       </c>
       <c r="AC53" s="211">
         <f t="shared" si="20"/>
-        <v>4911.9750000000004</v>
+        <v>51575.737500000003</v>
       </c>
       <c r="AD53" s="212">
         <f t="shared" si="6"/>
-        <v>4911.9750000000004</v>
+        <v>51575.737500000003</v>
       </c>
       <c r="AE53"/>
     </row>
@@ -19498,7 +19848,7 @@
       </c>
       <c r="U54" s="185">
         <f t="shared" si="27"/>
-        <v>4366.2</v>
+        <v>45845.1</v>
       </c>
       <c r="V54" s="186">
         <f t="shared" si="4"/>
@@ -19523,11 +19873,11 @@
       </c>
       <c r="AC54" s="211">
         <f t="shared" si="20"/>
-        <v>1117.7472</v>
+        <v>11736.345600000001</v>
       </c>
       <c r="AD54" s="212">
         <f t="shared" si="6"/>
-        <v>1117.7472</v>
+        <v>11736.345600000001</v>
       </c>
       <c r="AE54"/>
     </row>
@@ -19573,7 +19923,7 @@
       </c>
       <c r="U55" s="218">
         <f t="shared" si="27"/>
-        <v>104.78879999999999</v>
+        <v>1100.2824000000001</v>
       </c>
       <c r="V55" s="219">
         <f t="shared" si="4"/>
@@ -21801,7 +22151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="339" t="s">
+      <c r="B1" s="231" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22258,7 +22608,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="339" t="s">
+      <c r="B19" s="231" t="s">
         <v>163</v>
       </c>
     </row>
@@ -22318,7 +22668,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22332,42 +22682,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="339" t="s">
+      <c r="B1" s="231" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="339" t="s">
+      <c r="D2" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="340" t="s">
+      <c r="E2" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="340" t="s">
+      <c r="F2" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="340" t="s">
+      <c r="G2" s="232" t="s">
         <v>142</v>
       </c>
       <c r="H2" s="230"/>
       <c r="I2" s="230"/>
       <c r="J2" s="230"/>
-      <c r="K2" s="340" t="s">
+      <c r="K2" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="340" t="s">
+      <c r="L2" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="340" t="s">
+      <c r="M2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="340" t="s">
+      <c r="N2" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="340" t="s">
+      <c r="O2" s="232" t="s">
         <v>165</v>
       </c>
     </row>
@@ -22725,7 +23075,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="339" t="s">
+      <c r="B14" s="231" t="s">
         <v>177</v>
       </c>
     </row>
@@ -22794,15 +23144,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="341">
+      <c r="E19" s="233">
         <f>SUM(E3:E18)</f>
         <v>78</v>
       </c>
-      <c r="F19" s="341">
+      <c r="F19" s="233">
         <f t="shared" ref="F19:G19" si="6">SUM(F3:F18)</f>
         <v>1083750</v>
       </c>
-      <c r="G19" s="341">
+      <c r="G19" s="233">
         <f t="shared" si="6"/>
         <v>1408875</v>
       </c>
@@ -22813,6 +23163,659 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="361" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="362" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="364" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="365" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="368" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="368">
+        <v>6</v>
+      </c>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="366" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="367">
+        <f>IF($B$2=OrganizationalFinPlan!$L$9,OrganizationalFinPlan!$M$9,IF($B$2=OrganizationalFinPlan!$L$10,OrganizationalFinPlan!$M$10,IF($B$2=OrganizationalFinPlan!$L$11,OrganizationalFinPlan!$M11,IF($B$2=OrganizationalFinPlan!$L$12,OrganizationalFinPlan!$M$12,IF($B$2=OrganizationalFinPlan!$L$13,OrganizationalFinPlan!$M$13,IF($B$2=OrganizationalFinPlan!$L$14,OrganizationalFinPlan!$M$14,OrganizationalFinPlan!$M$15))))))</f>
+        <v>1.29</v>
+      </c>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
+    </row>
+    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="C4" s="369"/>
+      <c r="D4" s="370" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="370" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="371" t="str">
+        <f>"Per Day " &amp; $B$2</f>
+        <v>Per Day AUD</v>
+      </c>
+      <c r="G4" s="371" t="str">
+        <f>"Per Month " &amp; $B$2</f>
+        <v>Per Month AUD</v>
+      </c>
+      <c r="H4" s="371" t="str">
+        <f>"Per Year " &amp; $B$2</f>
+        <v>Per Year AUD</v>
+      </c>
+      <c r="I4" s="371" t="str">
+        <f>"Per " &amp; $E$2 &amp; " months " &amp; $B$2</f>
+        <v>Per 6 months AUD</v>
+      </c>
+      <c r="J4" s="372" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="370" t="str">
+        <f>"Total " &amp; $B$2</f>
+        <v>Total AUD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="369">
+        <v>1</v>
+      </c>
+      <c r="D5" s="373" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="374">
+        <v>36</v>
+      </c>
+      <c r="F5" s="374">
+        <f>$E5*$B$3</f>
+        <v>46.44</v>
+      </c>
+      <c r="G5" s="374">
+        <f>F5*21</f>
+        <v>975.24</v>
+      </c>
+      <c r="H5" s="374">
+        <f>F5*250</f>
+        <v>11610</v>
+      </c>
+      <c r="I5" s="374">
+        <f>F5*125</f>
+        <v>5805</v>
+      </c>
+      <c r="J5" s="375">
+        <v>6</v>
+      </c>
+      <c r="K5" s="374">
+        <f>J5*I5</f>
+        <v>34830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="369">
+        <v>2</v>
+      </c>
+      <c r="D6" s="373" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="374">
+        <v>36</v>
+      </c>
+      <c r="F6" s="374">
+        <f t="shared" ref="F6:F15" si="0">$E6*$B$3</f>
+        <v>46.44</v>
+      </c>
+      <c r="G6" s="374">
+        <f t="shared" ref="G6:G15" si="1">F6*21</f>
+        <v>975.24</v>
+      </c>
+      <c r="H6" s="374">
+        <f t="shared" ref="H6:H15" si="2">F6*250</f>
+        <v>11610</v>
+      </c>
+      <c r="I6" s="374">
+        <f t="shared" ref="I6:I15" si="3">F6*125</f>
+        <v>5805</v>
+      </c>
+      <c r="J6" s="375">
+        <v>3</v>
+      </c>
+      <c r="K6" s="374">
+        <f t="shared" ref="K6:K15" si="4">J6*I6</f>
+        <v>17415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="369">
+        <v>3</v>
+      </c>
+      <c r="D7" s="373" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="374">
+        <v>30</v>
+      </c>
+      <c r="F7" s="374">
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G7" s="374">
+        <f t="shared" si="1"/>
+        <v>812.7</v>
+      </c>
+      <c r="H7" s="374">
+        <f t="shared" si="2"/>
+        <v>9675</v>
+      </c>
+      <c r="I7" s="374">
+        <f t="shared" si="3"/>
+        <v>4837.5</v>
+      </c>
+      <c r="J7" s="375">
+        <v>1</v>
+      </c>
+      <c r="K7" s="374">
+        <f t="shared" si="4"/>
+        <v>4837.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="369">
+        <v>4</v>
+      </c>
+      <c r="D8" s="373" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="374">
+        <v>36</v>
+      </c>
+      <c r="F8" s="374">
+        <f t="shared" si="0"/>
+        <v>46.44</v>
+      </c>
+      <c r="G8" s="374">
+        <f t="shared" si="1"/>
+        <v>975.24</v>
+      </c>
+      <c r="H8" s="374">
+        <f t="shared" si="2"/>
+        <v>11610</v>
+      </c>
+      <c r="I8" s="374">
+        <f t="shared" si="3"/>
+        <v>5805</v>
+      </c>
+      <c r="J8" s="375">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="374">
+        <f t="shared" si="4"/>
+        <v>2902.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="369">
+        <v>5</v>
+      </c>
+      <c r="D9" s="373" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="374">
+        <v>36</v>
+      </c>
+      <c r="F9" s="374">
+        <f t="shared" si="0"/>
+        <v>46.44</v>
+      </c>
+      <c r="G9" s="374">
+        <f t="shared" si="1"/>
+        <v>975.24</v>
+      </c>
+      <c r="H9" s="374">
+        <f t="shared" si="2"/>
+        <v>11610</v>
+      </c>
+      <c r="I9" s="374">
+        <f t="shared" si="3"/>
+        <v>5805</v>
+      </c>
+      <c r="J9" s="375">
+        <v>2</v>
+      </c>
+      <c r="K9" s="374">
+        <f t="shared" si="4"/>
+        <v>11610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="369">
+        <v>6</v>
+      </c>
+      <c r="D10" s="373" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="374">
+        <v>36</v>
+      </c>
+      <c r="F10" s="374">
+        <f t="shared" si="0"/>
+        <v>46.44</v>
+      </c>
+      <c r="G10" s="374">
+        <f t="shared" si="1"/>
+        <v>975.24</v>
+      </c>
+      <c r="H10" s="374">
+        <f t="shared" si="2"/>
+        <v>11610</v>
+      </c>
+      <c r="I10" s="374">
+        <f t="shared" si="3"/>
+        <v>5805</v>
+      </c>
+      <c r="J10" s="375">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="374">
+        <f t="shared" si="4"/>
+        <v>2902.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="369">
+        <v>7</v>
+      </c>
+      <c r="D11" s="373" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="374">
+        <v>30</v>
+      </c>
+      <c r="F11" s="374">
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G11" s="374">
+        <f t="shared" si="1"/>
+        <v>812.7</v>
+      </c>
+      <c r="H11" s="374">
+        <f t="shared" si="2"/>
+        <v>9675</v>
+      </c>
+      <c r="I11" s="374">
+        <f t="shared" si="3"/>
+        <v>4837.5</v>
+      </c>
+      <c r="J11" s="375">
+        <v>1</v>
+      </c>
+      <c r="K11" s="374">
+        <f t="shared" si="4"/>
+        <v>4837.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="369">
+        <v>8</v>
+      </c>
+      <c r="D12" s="373" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="374">
+        <v>22</v>
+      </c>
+      <c r="F12" s="374">
+        <f t="shared" si="0"/>
+        <v>28.380000000000003</v>
+      </c>
+      <c r="G12" s="374">
+        <f t="shared" si="1"/>
+        <v>595.98</v>
+      </c>
+      <c r="H12" s="374">
+        <f t="shared" si="2"/>
+        <v>7095.0000000000009</v>
+      </c>
+      <c r="I12" s="374">
+        <f t="shared" si="3"/>
+        <v>3547.5000000000005</v>
+      </c>
+      <c r="J12" s="375">
+        <v>1</v>
+      </c>
+      <c r="K12" s="374">
+        <f t="shared" si="4"/>
+        <v>3547.5000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="369">
+        <v>9</v>
+      </c>
+      <c r="D13" s="373" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="374">
+        <v>36</v>
+      </c>
+      <c r="F13" s="374">
+        <f t="shared" si="0"/>
+        <v>46.44</v>
+      </c>
+      <c r="G13" s="374">
+        <f t="shared" si="1"/>
+        <v>975.24</v>
+      </c>
+      <c r="H13" s="374">
+        <f t="shared" si="2"/>
+        <v>11610</v>
+      </c>
+      <c r="I13" s="374">
+        <f t="shared" si="3"/>
+        <v>5805</v>
+      </c>
+      <c r="J13" s="375">
+        <v>0</v>
+      </c>
+      <c r="K13" s="374">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="369">
+        <v>10</v>
+      </c>
+      <c r="D14" s="373" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="374">
+        <v>30</v>
+      </c>
+      <c r="F14" s="374">
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G14" s="374">
+        <f t="shared" si="1"/>
+        <v>812.7</v>
+      </c>
+      <c r="H14" s="374">
+        <f t="shared" si="2"/>
+        <v>9675</v>
+      </c>
+      <c r="I14" s="374">
+        <f t="shared" si="3"/>
+        <v>4837.5</v>
+      </c>
+      <c r="J14" s="375">
+        <v>1</v>
+      </c>
+      <c r="K14" s="374">
+        <f t="shared" si="4"/>
+        <v>4837.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="369">
+        <v>11</v>
+      </c>
+      <c r="D15" s="373" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="374">
+        <v>36</v>
+      </c>
+      <c r="F15" s="374">
+        <f t="shared" si="0"/>
+        <v>46.44</v>
+      </c>
+      <c r="G15" s="374">
+        <f t="shared" si="1"/>
+        <v>975.24</v>
+      </c>
+      <c r="H15" s="374">
+        <f t="shared" si="2"/>
+        <v>11610</v>
+      </c>
+      <c r="I15" s="374">
+        <f t="shared" si="3"/>
+        <v>5805</v>
+      </c>
+      <c r="J15" s="375">
+        <v>1</v>
+      </c>
+      <c r="K15" s="374">
+        <f t="shared" si="4"/>
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="369"/>
+      <c r="D16" s="369"/>
+      <c r="E16" s="376"/>
+      <c r="F16" s="376"/>
+      <c r="G16" s="376"/>
+      <c r="H16" s="369"/>
+      <c r="I16" s="369"/>
+      <c r="J16" s="380">
+        <f>SUM(J5:J15)</f>
+        <v>17</v>
+      </c>
+      <c r="K16" s="377">
+        <f>SUM(K5:K15)</f>
+        <v>93525</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="369"/>
+      <c r="D17" s="370" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="370"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="370" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="377">
+        <f>SUM(K18:K21)</f>
+        <v>46762.5</v>
+      </c>
+      <c r="L17" s="231"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="369">
+        <v>12</v>
+      </c>
+      <c r="D18" s="381" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="379">
+        <v>25</v>
+      </c>
+      <c r="K18" s="379">
+        <f>$J18*$K$16%</f>
+        <v>23381.25</v>
+      </c>
+      <c r="L18" s="231" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="369">
+        <v>13</v>
+      </c>
+      <c r="D19" s="381" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="382"/>
+      <c r="F19" s="382"/>
+      <c r="G19" s="382"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="379">
+        <v>10</v>
+      </c>
+      <c r="K19" s="379">
+        <f t="shared" ref="K19:K21" si="5">$J19*$K$16%</f>
+        <v>9352.5</v>
+      </c>
+      <c r="L19" s="231" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="369">
+        <v>14</v>
+      </c>
+      <c r="D20" s="381" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="382"/>
+      <c r="I20" s="382"/>
+      <c r="J20" s="379">
+        <v>5</v>
+      </c>
+      <c r="K20" s="379">
+        <f t="shared" si="5"/>
+        <v>4676.25</v>
+      </c>
+      <c r="L20" s="231" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="369">
+        <v>15</v>
+      </c>
+      <c r="D21" s="381" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="382"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="382"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="382"/>
+      <c r="J21" s="379">
+        <v>10</v>
+      </c>
+      <c r="K21" s="379">
+        <f t="shared" si="5"/>
+        <v>9352.5</v>
+      </c>
+      <c r="L21" s="231" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="369"/>
+      <c r="D22" s="370" t="str">
+        <f>"Total " &amp; $B$2</f>
+        <v>Total AUD</v>
+      </c>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="378"/>
+      <c r="I22" s="378"/>
+      <c r="J22" s="379">
+        <f>SUM(J18:J21)</f>
+        <v>50</v>
+      </c>
+      <c r="K22" s="377">
+        <f>K16+K17</f>
+        <v>140287.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>OrganizationalFinPlan!$L$9:$L$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -22833,55 +23836,55 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="339" t="s">
+      <c r="B2" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="339" t="s">
+      <c r="D2" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="339" t="s">
+      <c r="E2" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="339" t="s">
+      <c r="F2" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="339" t="s">
+      <c r="G2" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="339" t="s">
+      <c r="H2" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="339" t="s">
+      <c r="I2" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="353" t="s">
+      <c r="M2" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="354" t="s">
+      <c r="N2" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="O2" s="354" t="s">
+      <c r="O2" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="354" t="s">
+      <c r="P2" s="246" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" s="354" t="s">
+      <c r="Q2" s="246" t="s">
         <v>206</v>
       </c>
-      <c r="R2" s="354" t="s">
+      <c r="R2" s="246" t="s">
         <v>207</v>
       </c>
-      <c r="S2" s="354" t="s">
+      <c r="S2" s="246" t="s">
         <v>208</v>
       </c>
-      <c r="T2" s="355" t="s">
+      <c r="T2" s="247" t="s">
         <v>209</v>
       </c>
     </row>
@@ -22916,29 +23919,29 @@
         <f>H3*1.3</f>
         <v>1455218.7</v>
       </c>
-      <c r="M3" s="356">
+      <c r="M3" s="248">
         <v>1</v>
       </c>
-      <c r="N3" s="348">
+      <c r="N3" s="240">
         <v>4</v>
       </c>
-      <c r="O3" s="349" t="s">
+      <c r="O3" s="241" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="350">
+      <c r="P3" s="242">
         <v>379312.5</v>
       </c>
-      <c r="Q3" s="349" t="s">
+      <c r="Q3" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="350">
+      <c r="R3" s="242">
         <v>553520</v>
       </c>
-      <c r="S3" s="350">
+      <c r="S3" s="242">
         <f>20*(P3+R3)%</f>
         <v>186566.5</v>
       </c>
-      <c r="T3" s="351">
+      <c r="T3" s="243">
         <f>P3+R3+S3</f>
         <v>1119399</v>
       </c>
@@ -22967,36 +23970,36 @@
         <v>128987.5</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H5" si="1">D4+F4+G4</f>
+        <f t="shared" ref="H4" si="1">D4+F4+G4</f>
         <v>773925</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I5" si="2">H4*1.3</f>
+        <f t="shared" ref="I4" si="2">H4*1.3</f>
         <v>1006102.5</v>
       </c>
-      <c r="M4" s="356">
+      <c r="M4" s="248">
         <v>2</v>
       </c>
-      <c r="N4" s="348">
+      <c r="N4" s="240">
         <v>3</v>
       </c>
-      <c r="O4" s="349" t="s">
+      <c r="O4" s="241" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="350">
+      <c r="P4" s="242">
         <v>270937.5</v>
       </c>
-      <c r="Q4" s="349" t="s">
+      <c r="Q4" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="R4" s="350">
+      <c r="R4" s="242">
         <v>374000</v>
       </c>
-      <c r="S4" s="350">
+      <c r="S4" s="242">
         <f t="shared" ref="S4:S5" si="3">20*(P4+R4)%</f>
         <v>128987.5</v>
       </c>
-      <c r="T4" s="351">
+      <c r="T4" s="243">
         <f t="shared" ref="T4" si="4">P4+R4+S4</f>
         <v>773925</v>
       </c>
@@ -23032,51 +24035,51 @@
         <f>H5*1.3</f>
         <v>1563088.8</v>
       </c>
-      <c r="M5" s="356">
+      <c r="M5" s="248">
         <v>3</v>
       </c>
-      <c r="N5" s="348">
+      <c r="N5" s="240">
         <v>5</v>
       </c>
-      <c r="O5" s="349" t="s">
+      <c r="O5" s="241" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="350">
+      <c r="P5" s="242">
         <v>433500</v>
       </c>
-      <c r="Q5" s="349" t="s">
+      <c r="Q5" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="350">
+      <c r="R5" s="242">
         <v>568480</v>
       </c>
-      <c r="S5" s="350">
+      <c r="S5" s="242">
         <f t="shared" si="3"/>
         <v>200396</v>
       </c>
-      <c r="T5" s="351">
+      <c r="T5" s="243">
         <f>P5+R5+S5</f>
         <v>1202376</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="341">
+      <c r="D6" s="233">
         <f>SUM(D3:D5)</f>
         <v>1083750</v>
       </c>
-      <c r="F6" s="341">
+      <c r="F6" s="233">
         <f>SUM(F3:F5)</f>
         <v>1496000</v>
       </c>
-      <c r="G6" s="341">
+      <c r="G6" s="233">
         <f>SUM(G3:G5)</f>
         <v>515950</v>
       </c>
-      <c r="H6" s="341">
+      <c r="H6" s="233">
         <f>D6+F6+G6</f>
         <v>3095700</v>
       </c>
-      <c r="I6" s="341">
+      <c r="I6" s="233">
         <f>H6*1.3</f>
         <v>4024410</v>
       </c>
@@ -23089,30 +24092,30 @@
       <c r="Q6" s="358"/>
       <c r="R6" s="358"/>
       <c r="S6" s="359"/>
-      <c r="T6" s="352">
+      <c r="T6" s="244">
         <f>SUM(T3:T5)</f>
         <v>3095700</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M7" s="347"/>
-      <c r="N7" s="347"/>
-      <c r="O7" s="347"/>
-      <c r="P7" s="347"/>
-      <c r="Q7" s="347"/>
-      <c r="R7" s="347"/>
-      <c r="S7" s="347"/>
-      <c r="T7" s="347"/>
+      <c r="M7" s="239"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="239"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="239"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="239"/>
+      <c r="Q8" s="239"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="239"/>
+      <c r="T8" s="239"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10">
@@ -23130,248 +24133,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="343" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="342" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="342" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="342" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="342" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="343" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="345">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="345">
-        <f>D2-C2</f>
-        <v>-4.0244099999999996</v>
-      </c>
-      <c r="C2" s="345">
-        <f>4.02441*(1+(A2-2021)*20%)</f>
-        <v>4.0244099999999996</v>
-      </c>
-      <c r="D2" s="345">
-        <f>E2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="345">
-        <f>F2*20</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="345">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="345">
-        <f>D3-C3</f>
-        <v>15.170708000000001</v>
-      </c>
-      <c r="C3" s="345">
-        <f>4.02441*(1+(A3-2021)*20%)</f>
-        <v>4.8292919999999997</v>
-      </c>
-      <c r="D3" s="345">
-        <f>D2+E3</f>
-        <v>20</v>
-      </c>
-      <c r="E3" s="345">
-        <f>F3*20</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="345">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="345">
-        <f>D4-C4</f>
-        <v>94.365825999999998</v>
-      </c>
-      <c r="C4" s="345">
-        <f>4.02441*(1+(A4-2021)*20%)</f>
-        <v>5.6341739999999989</v>
-      </c>
-      <c r="D4" s="345">
-        <f>D3+E4</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="345">
-        <f>F4*20</f>
-        <v>80</v>
-      </c>
-      <c r="F4" s="345">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="345">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="345">
-        <f>D5-C5</f>
-        <v>293.56094400000001</v>
-      </c>
-      <c r="C5" s="345">
-        <f>4.02441*(1+(A5-2021)*20%)</f>
-        <v>6.4390559999999999</v>
-      </c>
-      <c r="D5" s="345">
-        <f>D4+E5</f>
-        <v>300</v>
-      </c>
-      <c r="E5" s="345">
-        <f>F5*20</f>
-        <v>200</v>
-      </c>
-      <c r="F5" s="345">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="345">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="345">
-        <f>D6-C6</f>
-        <v>652.75606200000004</v>
-      </c>
-      <c r="C6" s="345">
-        <f>4.02441*(1+(A6-2021)*20%)</f>
-        <v>7.2439379999999991</v>
-      </c>
-      <c r="D6" s="345">
-        <f>D5+E6</f>
-        <v>660</v>
-      </c>
-      <c r="E6" s="345">
-        <f>F6*20</f>
-        <v>360</v>
-      </c>
-      <c r="F6" s="345">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="345">
-        <v>2026</v>
-      </c>
-      <c r="B7" s="345">
-        <f>D7-C7</f>
-        <v>1091.95118</v>
-      </c>
-      <c r="C7" s="345">
-        <f>4.02441*(1+(A7-2021)*20%)</f>
-        <v>8.0488199999999992</v>
-      </c>
-      <c r="D7" s="345">
-        <f>D6+E7</f>
-        <v>1100</v>
-      </c>
-      <c r="E7" s="345">
-        <f>F7*20</f>
-        <v>440</v>
-      </c>
-      <c r="F7" s="345">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="345">
-        <v>2027</v>
-      </c>
-      <c r="B8" s="345">
-        <f>D8-C8</f>
-        <v>1591.1462979999999</v>
-      </c>
-      <c r="C8" s="345">
-        <f>4.02441*(1+(A8-2021)*20%)</f>
-        <v>8.8537020000000002</v>
-      </c>
-      <c r="D8" s="345">
-        <f>D7+E8</f>
-        <v>1600</v>
-      </c>
-      <c r="E8" s="345">
-        <f>F8*20</f>
-        <v>500</v>
-      </c>
-      <c r="F8" s="345">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="345"/>
-      <c r="B9" s="345"/>
-      <c r="C9" s="345"/>
-      <c r="D9" s="345"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="346"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="345"/>
-      <c r="B10" s="345"/>
-      <c r="C10" s="345"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="345"/>
-      <c r="F10" s="346"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="345"/>
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="346"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="345"/>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="346"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>